--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16523" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16524" uniqueCount="1131">
   <si>
     <t>Path</t>
   </si>
@@ -1246,7 +1246,10 @@
     <t>Some insurers need a declaration of the type of relationship.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/RelatedClaimVS</t>
+    <t>Relationship of this claim to a related Claim.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.related.reference</t>
@@ -1651,7 +1654,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/InformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.id</t>
@@ -1661,9 +1664,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.coding</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.coding.id</t>
@@ -3042,7 +3042,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -10980,11 +10980,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -11031,7 +11033,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -11057,16 +11059,16 @@
         <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -11115,7 +11117,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -11144,7 +11146,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -11167,17 +11169,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -11226,7 +11228,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -11255,7 +11257,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -11278,19 +11280,19 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11339,7 +11341,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -11368,7 +11370,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11394,16 +11396,16 @@
         <v>375</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11452,7 +11454,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11481,7 +11483,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11590,7 +11592,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11701,7 +11703,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11814,7 +11816,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11840,14 +11842,14 @@
         <v>180</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -11876,7 +11878,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>43</v>
@@ -11894,7 +11896,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -11923,7 +11925,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11946,19 +11948,19 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
@@ -12007,7 +12009,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -12036,7 +12038,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -12059,19 +12061,19 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -12120,7 +12122,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -12138,7 +12140,7 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
@@ -12149,7 +12151,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -12172,17 +12174,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -12231,7 +12233,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -12246,10 +12248,10 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -12260,7 +12262,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12286,14 +12288,14 @@
         <v>388</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12342,7 +12344,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -12360,7 +12362,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -12371,7 +12373,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12394,17 +12396,17 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12453,7 +12455,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12482,7 +12484,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12508,16 +12510,16 @@
         <v>126</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -12545,10 +12547,10 @@
         <v>174</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -12566,7 +12568,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>50</v>
@@ -12595,7 +12597,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12621,14 +12623,14 @@
         <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12677,7 +12679,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12706,7 +12708,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12732,16 +12734,16 @@
         <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12790,7 +12792,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12819,7 +12821,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12845,16 +12847,16 @@
         <v>207</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -12903,7 +12905,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -12932,7 +12934,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12958,14 +12960,14 @@
         <v>375</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -13014,7 +13016,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -13043,7 +13045,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -13152,7 +13154,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13263,7 +13265,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13376,7 +13378,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13399,17 +13401,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13458,7 +13460,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13487,7 +13489,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13510,17 +13512,17 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13569,7 +13571,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>50</v>
@@ -13587,7 +13589,7 @@
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -13598,7 +13600,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13624,16 +13626,16 @@
         <v>284</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13682,7 +13684,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13711,7 +13713,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13737,16 +13739,16 @@
         <v>180</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13775,7 +13777,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
@@ -13793,7 +13795,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13822,7 +13824,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13848,14 +13850,14 @@
         <v>180</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13883,10 +13885,10 @@
         <v>116</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -13904,7 +13906,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13933,7 +13935,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13959,16 +13961,16 @@
         <v>375</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -14005,7 +14007,7 @@
         <v>43</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>164</v>
@@ -14017,7 +14019,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -14046,7 +14048,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14155,7 +14157,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14266,7 +14268,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14379,7 +14381,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14402,17 +14404,17 @@
         <v>43</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14461,7 +14463,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>50</v>
@@ -14490,7 +14492,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14516,16 +14518,16 @@
         <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14554,7 +14556,7 @@
       </c>
       <c r="X98" s="2"/>
       <c r="Y98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>43</v>
@@ -14572,7 +14574,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -14601,7 +14603,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14710,7 +14712,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14821,7 +14823,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14885,7 +14887,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>43</v>
@@ -16272,7 +16274,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>565</v>
@@ -16300,16 +16302,16 @@
         <v>375</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16358,7 +16360,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16387,7 +16389,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16496,7 +16498,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16607,7 +16609,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16720,7 +16722,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16743,17 +16745,17 @@
         <v>43</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>43</v>
@@ -16802,7 +16804,7 @@
         <v>43</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>50</v>
@@ -16831,7 +16833,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16857,16 +16859,16 @@
         <v>180</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>43</v>
@@ -16895,7 +16897,7 @@
       </c>
       <c r="X119" s="2"/>
       <c r="Y119" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>43</v>
@@ -16913,7 +16915,7 @@
         <v>43</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>50</v>
@@ -16942,7 +16944,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17051,7 +17053,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17162,7 +17164,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17226,7 +17228,7 @@
       </c>
       <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -18611,7 +18613,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>567</v>
@@ -18639,16 +18641,16 @@
         <v>375</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18697,7 +18699,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18726,7 +18728,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18835,7 +18837,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18946,7 +18948,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19059,7 +19061,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19082,17 +19084,17 @@
         <v>43</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -19141,7 +19143,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>50</v>
@@ -19170,7 +19172,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19196,16 +19198,16 @@
         <v>180</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -19234,7 +19236,7 @@
       </c>
       <c r="X140" s="2"/>
       <c r="Y140" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>43</v>
@@ -19252,7 +19254,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>50</v>
@@ -19281,7 +19283,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19390,7 +19392,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19501,7 +19503,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19565,7 +19567,7 @@
       </c>
       <c r="X143" s="2"/>
       <c r="Y143" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>43</v>
@@ -20950,7 +20952,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>568</v>
@@ -20978,16 +20980,16 @@
         <v>375</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -21036,7 +21038,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -21065,7 +21067,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21174,7 +21176,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21285,7 +21287,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21398,7 +21400,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21421,17 +21423,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21480,7 +21482,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>50</v>
@@ -21509,7 +21511,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21535,16 +21537,16 @@
         <v>180</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21573,7 +21575,7 @@
       </c>
       <c r="X161" s="2"/>
       <c r="Y161" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z161" t="s" s="2">
         <v>43</v>
@@ -21591,7 +21593,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>50</v>
@@ -21620,7 +21622,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21729,7 +21731,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21840,7 +21842,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21904,7 +21906,7 @@
       </c>
       <c r="X164" s="2"/>
       <c r="Y164" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>43</v>
@@ -23289,7 +23291,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>569</v>
@@ -23317,16 +23319,16 @@
         <v>375</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23375,7 +23377,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23404,7 +23406,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23513,7 +23515,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23624,7 +23626,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23737,7 +23739,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23760,17 +23762,17 @@
         <v>43</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23819,7 +23821,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>50</v>
@@ -23848,7 +23850,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23874,16 +23876,16 @@
         <v>180</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23912,7 +23914,7 @@
       </c>
       <c r="X182" s="2"/>
       <c r="Y182" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z182" t="s" s="2">
         <v>43</v>
@@ -23930,7 +23932,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>50</v>
@@ -23959,7 +23961,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24068,7 +24070,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24179,7 +24181,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24243,7 +24245,7 @@
       </c>
       <c r="X185" s="2"/>
       <c r="Y185" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>43</v>
@@ -25628,7 +25630,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>570</v>
@@ -25656,16 +25658,16 @@
         <v>375</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25714,7 +25716,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25743,7 +25745,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25852,7 +25854,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25963,7 +25965,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26076,7 +26078,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26099,17 +26101,17 @@
         <v>43</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26158,7 +26160,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>50</v>
@@ -26187,7 +26189,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26213,16 +26215,16 @@
         <v>180</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26251,7 +26253,7 @@
       </c>
       <c r="X203" s="2"/>
       <c r="Y203" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -26269,7 +26271,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>50</v>
@@ -26298,7 +26300,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26407,7 +26409,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26518,7 +26520,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26582,7 +26584,7 @@
       </c>
       <c r="X206" s="2"/>
       <c r="Y206" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
@@ -28436,7 +28438,7 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>580</v>
@@ -29437,7 +29439,7 @@
         <v>43</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K232" t="s" s="2">
         <v>616</v>
@@ -29992,7 +29994,7 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>639</v>
@@ -33679,7 +33681,7 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K270" t="s" s="2">
         <v>705</v>
@@ -33790,7 +33792,7 @@
         <v>43</v>
       </c>
       <c r="J271" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K271" t="s" s="2">
         <v>709</v>
@@ -33901,7 +33903,7 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K272" t="s" s="2">
         <v>713</v>
@@ -34012,7 +34014,7 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K273" t="s" s="2">
         <v>717</v>
@@ -34123,7 +34125,7 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K274" t="s" s="2">
         <v>721</v>
@@ -34981,7 +34983,7 @@
         <v>43</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL281" t="s" s="2">
         <v>43</v>
@@ -35909,7 +35911,7 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K290" t="s" s="2">
         <v>808</v>
@@ -36067,7 +36069,7 @@
         <v>43</v>
       </c>
       <c r="AA291" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>164</v>
@@ -42492,7 +42494,7 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K349" t="s" s="2">
         <v>698</v>
@@ -43725,7 +43727,7 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K360" t="s" s="2">
         <v>808</v>
@@ -44387,7 +44389,7 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K366" t="s" s="2">
         <v>698</v>
@@ -45620,7 +45622,7 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K377" t="s" s="2">
         <v>808</v>
@@ -46284,7 +46286,7 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K383" t="s" s="2">
         <v>916</v>
@@ -46395,7 +46397,7 @@
         <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K384" t="s" s="2">
         <v>920</v>
@@ -46506,7 +46508,7 @@
         <v>43</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K385" t="s" s="2">
         <v>924</v>
@@ -46617,7 +46619,7 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K386" t="s" s="2">
         <v>928</v>
@@ -47255,7 +47257,7 @@
         <v>43</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL391" t="s" s="2">
         <v>43</v>
@@ -47961,7 +47963,7 @@
         <v>43</v>
       </c>
       <c r="J398" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K398" t="s" s="2">
         <v>808</v>
@@ -49297,7 +49299,7 @@
         <v>43</v>
       </c>
       <c r="J410" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K410" t="s" s="2">
         <v>808</v>
@@ -50633,7 +50635,7 @@
         <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K422" t="s" s="2">
         <v>808</v>
@@ -53412,7 +53414,7 @@
         <v>43</v>
       </c>
       <c r="J447" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K447" t="s" s="2">
         <v>1047</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -34224,7 +34224,7 @@
         <v>41</v>
       </c>
       <c r="F275" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G275" t="s" s="2">
         <v>43</v>
@@ -37461,7 +37461,7 @@
         <v>41</v>
       </c>
       <c r="F304" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G304" t="s" s="2">
         <v>43</v>
@@ -37687,7 +37687,7 @@
         <v>41</v>
       </c>
       <c r="F306" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G306" t="s" s="2">
         <v>43</v>
@@ -39693,7 +39693,7 @@
         <v>41</v>
       </c>
       <c r="F324" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G324" t="s" s="2">
         <v>43</v>
@@ -39806,7 +39806,7 @@
         <v>41</v>
       </c>
       <c r="F325" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G325" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$503</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16524" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17727" uniqueCount="1150">
   <si>
     <t>Path</t>
   </si>
@@ -2610,6 +2610,9 @@
     <t>Amounts</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
+  </si>
+  <si>
     <t>denialreason</t>
   </si>
   <si>
@@ -3007,6 +3010,60 @@
   </si>
   <si>
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.reason</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.amount</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.value</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.system</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.version</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.code</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.display</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.text</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total</t>
@@ -3623,7 +3680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM469"/>
+  <dimension ref="A1:AM503"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -37403,7 +37460,7 @@
       </c>
       <c r="X303" s="2"/>
       <c r="Y303" t="s" s="2">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="Z303" t="s" s="2">
         <v>43</v>
@@ -37792,7 +37849,7 @@
         <v>811</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C307" t="s" s="2">
         <v>43</v>
@@ -37817,7 +37874,7 @@
         <v>375</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L307" t="s" s="2">
         <v>813</v>
@@ -38346,7 +38403,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38455,7 +38512,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38566,7 +38623,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38679,7 +38736,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38788,7 +38845,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38899,7 +38956,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -39012,7 +39069,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39123,7 +39180,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39166,7 +39223,7 @@
         <v>43</v>
       </c>
       <c r="R319" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="S319" t="s" s="2">
         <v>43</v>
@@ -39234,7 +39291,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39345,7 +39402,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39458,7 +39515,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39635,7 +39692,7 @@
       </c>
       <c r="X323" s="2"/>
       <c r="Y323" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="Z323" t="s" s="2">
         <v>43</v>
@@ -39911,7 +39968,7 @@
         <v>811</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C326" t="s" s="2">
         <v>43</v>
@@ -39936,7 +39993,7 @@
         <v>375</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L326" t="s" s="2">
         <v>813</v>
@@ -40418,7 +40475,7 @@
       </c>
       <c r="X330" s="2"/>
       <c r="Y330" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40465,7 +40522,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40574,7 +40631,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40685,7 +40742,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40798,7 +40855,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40907,7 +40964,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -41018,7 +41075,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41131,7 +41188,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41242,7 +41299,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41285,7 +41342,7 @@
         <v>43</v>
       </c>
       <c r="R338" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="S338" t="s" s="2">
         <v>43</v>
@@ -41353,7 +41410,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41464,7 +41521,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41577,7 +41634,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -42029,7 +42086,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42055,10 +42112,10 @@
         <v>375</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -42109,7 +42166,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42138,7 +42195,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42247,7 +42304,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42358,7 +42415,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42471,7 +42528,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42500,7 +42557,7 @@
         <v>698</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
@@ -42553,7 +42610,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>50</v>
@@ -42582,7 +42639,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42664,7 +42721,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42693,7 +42750,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42725,7 +42782,7 @@
         <v>732</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N351" t="s" s="2">
         <v>734</v>
@@ -42777,7 +42834,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42806,7 +42863,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42869,28 +42926,28 @@
         <v>116</v>
       </c>
       <c r="X352" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE352" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="Y352" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="Z352" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA352" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB352" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC352" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD352" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE352" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>50</v>
@@ -42919,7 +42976,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42945,7 +43002,7 @@
         <v>180</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L353" t="s" s="2">
         <v>746</v>
@@ -42982,10 +43039,10 @@
         <v>116</v>
       </c>
       <c r="X353" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y353" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Z353" t="s" s="2">
         <v>43</v>
@@ -43003,7 +43060,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -43032,7 +43089,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43116,7 +43173,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43145,7 +43202,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43227,7 +43284,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43256,7 +43313,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43338,7 +43395,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
@@ -43367,7 +43424,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43451,7 +43508,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43480,7 +43537,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43564,7 +43621,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43593,7 +43650,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43675,7 +43732,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43704,7 +43761,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43786,7 +43843,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43815,7 +43872,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43841,10 +43898,10 @@
         <v>43</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
@@ -43895,7 +43952,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43924,7 +43981,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43950,10 +44007,10 @@
         <v>375</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -44004,7 +44061,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -44033,7 +44090,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44142,7 +44199,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44253,7 +44310,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44366,7 +44423,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44395,7 +44452,7 @@
         <v>698</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="M366" s="2"/>
       <c r="N366" t="s" s="2">
@@ -44448,7 +44505,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>50</v>
@@ -44477,7 +44534,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44559,7 +44616,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44588,7 +44645,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44672,7 +44729,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44701,7 +44758,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44764,10 +44821,10 @@
         <v>116</v>
       </c>
       <c r="X369" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Y369" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Z369" t="s" s="2">
         <v>43</v>
@@ -44785,7 +44842,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>50</v>
@@ -44814,7 +44871,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44840,13 +44897,13 @@
         <v>180</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L370" t="s" s="2">
         <v>746</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N370" t="s" s="2">
         <v>748</v>
@@ -44877,10 +44934,10 @@
         <v>116</v>
       </c>
       <c r="X370" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44898,7 +44955,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44927,7 +44984,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -45011,7 +45068,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -45040,7 +45097,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45122,7 +45179,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45151,7 +45208,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45233,7 +45290,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
@@ -45262,7 +45319,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45346,7 +45403,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45375,7 +45432,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45459,7 +45516,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45488,7 +45545,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45570,7 +45627,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45599,7 +45656,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45681,7 +45738,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45710,7 +45767,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45736,10 +45793,10 @@
         <v>43</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M378" s="2"/>
       <c r="N378" s="2"/>
@@ -45790,7 +45847,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45819,7 +45876,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45845,14 +45902,14 @@
         <v>375</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45901,7 +45958,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45930,7 +45987,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -46039,7 +46096,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46150,7 +46207,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46263,7 +46320,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46289,14 +46346,14 @@
         <v>484</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46345,7 +46402,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46374,7 +46431,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46400,14 +46457,14 @@
         <v>484</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46456,7 +46513,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46485,7 +46542,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46511,14 +46568,14 @@
         <v>484</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M385" s="2"/>
       <c r="N385" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46567,7 +46624,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46596,7 +46653,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46622,14 +46679,14 @@
         <v>489</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M386" s="2"/>
       <c r="N386" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46678,7 +46735,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46707,7 +46764,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46770,10 +46827,10 @@
         <v>116</v>
       </c>
       <c r="X387" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Y387" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Z387" t="s" s="2">
         <v>43</v>
@@ -46791,7 +46848,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>50</v>
@@ -46820,7 +46877,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46846,7 +46903,7 @@
         <v>180</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L388" t="s" s="2">
         <v>746</v>
@@ -46883,10 +46940,10 @@
         <v>116</v>
       </c>
       <c r="X388" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y388" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -46904,7 +46961,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46933,7 +46990,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -47017,7 +47074,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -47046,7 +47103,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47128,7 +47185,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -47157,7 +47214,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47239,7 +47296,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47268,7 +47325,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47350,7 +47407,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47379,7 +47436,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47461,7 +47518,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47490,7 +47547,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47574,7 +47631,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47603,7 +47660,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47687,7 +47744,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47716,7 +47773,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47748,7 +47805,7 @@
         <v>792</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="N396" t="s" s="2">
         <v>794</v>
@@ -47800,7 +47857,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47829,7 +47886,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47911,7 +47968,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>41</v>
@@ -47940,7 +47997,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48022,7 +48079,7 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
@@ -48051,7 +48108,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48077,10 +48134,10 @@
         <v>43</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
@@ -48131,7 +48188,7 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
@@ -48160,7 +48217,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48186,10 +48243,10 @@
         <v>375</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
@@ -48240,7 +48297,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48269,7 +48326,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48378,7 +48435,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48489,7 +48546,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48602,7 +48659,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48665,10 +48722,10 @@
         <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Y404" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48686,7 +48743,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>50</v>
@@ -48715,7 +48772,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48741,7 +48798,7 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L405" t="s" s="2">
         <v>746</v>
@@ -48778,10 +48835,10 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48799,7 +48856,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48828,7 +48885,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48910,7 +48967,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48939,7 +48996,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -49021,7 +49078,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -49050,7 +49107,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49134,7 +49191,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
@@ -49163,7 +49220,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49247,7 +49304,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
@@ -49276,7 +49333,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49358,7 +49415,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>
@@ -49387,7 +49444,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49413,10 +49470,10 @@
         <v>43</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
@@ -49467,7 +49524,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
@@ -49496,7 +49553,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49522,10 +49579,10 @@
         <v>375</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" s="2"/>
@@ -49576,7 +49633,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49605,7 +49662,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49714,7 +49771,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49825,7 +49882,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49938,7 +49995,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -50001,10 +50058,10 @@
         <v>116</v>
       </c>
       <c r="X416" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Y416" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Z416" t="s" s="2">
         <v>43</v>
@@ -50022,7 +50079,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>50</v>
@@ -50051,7 +50108,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50077,7 +50134,7 @@
         <v>180</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L417" t="s" s="2">
         <v>746</v>
@@ -50114,10 +50171,10 @@
         <v>116</v>
       </c>
       <c r="X417" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Y417" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Z417" t="s" s="2">
         <v>43</v>
@@ -50135,7 +50192,7 @@
         <v>43</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>41</v>
@@ -50164,7 +50221,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50246,7 +50303,7 @@
         <v>43</v>
       </c>
       <c r="AE418" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="AF418" t="s" s="2">
         <v>41</v>
@@ -50275,7 +50332,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50357,7 +50414,7 @@
         <v>43</v>
       </c>
       <c r="AE419" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AF419" t="s" s="2">
         <v>41</v>
@@ -50386,7 +50443,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50470,7 +50527,7 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>41</v>
@@ -50499,7 +50556,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50583,7 +50640,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50612,7 +50669,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50694,7 +50751,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
@@ -50723,7 +50780,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50749,10 +50806,10 @@
         <v>43</v>
       </c>
       <c r="K423" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L423" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M423" s="2"/>
       <c r="N423" s="2"/>
@@ -50803,7 +50860,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50830,9 +50887,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -50840,7 +50897,7 @@
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F424" t="s" s="2">
         <v>42</v>
@@ -50855,17 +50912,17 @@
         <v>43</v>
       </c>
       <c r="J424" t="s" s="2">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="K424" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L424" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M424" s="2"/>
       <c r="N424" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O424" t="s" s="2">
         <v>43</v>
@@ -50902,19 +50959,19 @@
         <v>43</v>
       </c>
       <c r="AA424" t="s" s="2">
-        <v>43</v>
+        <v>516</v>
       </c>
       <c r="AB424" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="AC424" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD424" t="s" s="2">
-        <v>43</v>
+        <v>649</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AF424" t="s" s="2">
         <v>41</v>
@@ -50943,7 +51000,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
@@ -50954,7 +51011,7 @@
         <v>41</v>
       </c>
       <c r="F425" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G425" t="s" s="2">
         <v>43</v>
@@ -50963,23 +51020,19 @@
         <v>43</v>
       </c>
       <c r="I425" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J425" t="s" s="2">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="K425" t="s" s="2">
-        <v>977</v>
+        <v>64</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>978</v>
-      </c>
-      <c r="M425" t="s" s="2">
-        <v>979</v>
-      </c>
-      <c r="N425" t="s" s="2">
-        <v>980</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M425" s="2"/>
+      <c r="N425" s="2"/>
       <c r="O425" t="s" s="2">
         <v>43</v>
       </c>
@@ -51027,19 +51080,19 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>976</v>
+        <v>66</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI425" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ425" t="s" s="2">
         <v>43</v>
@@ -51051,23 +51104,23 @@
         <v>43</v>
       </c>
       <c r="AM425" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F426" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G426" t="s" s="2">
         <v>43</v>
@@ -51079,15 +51132,17 @@
         <v>43</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M426" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M426" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N426" s="2"/>
       <c r="O426" t="s" s="2">
         <v>43</v>
@@ -51136,19 +51191,19 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ426" t="s" s="2">
         <v>43</v>
@@ -51165,11 +51220,11 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -51182,24 +51237,26 @@
         <v>43</v>
       </c>
       <c r="H427" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I427" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J427" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="M427" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N427" s="2"/>
+      <c r="N427" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O427" t="s" s="2">
         <v>43</v>
       </c>
@@ -51247,7 +51304,7 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
@@ -51271,47 +51328,47 @@
         <v>43</v>
       </c>
       <c r="AM427" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F428" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G428" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I428" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J428" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>384</v>
+        <v>819</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>385</v>
+        <v>820</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>73</v>
+        <v>821</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>156</v>
+        <v>822</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>43</v>
@@ -51336,13 +51393,11 @@
         <v>43</v>
       </c>
       <c r="W428" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X428" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X428" s="2"/>
       <c r="Y428" t="s" s="2">
-        <v>43</v>
+        <v>823</v>
       </c>
       <c r="Z428" t="s" s="2">
         <v>43</v>
@@ -51360,19 +51415,19 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>386</v>
+        <v>818</v>
       </c>
       <c r="AF428" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>43</v>
@@ -51384,12 +51439,12 @@
         <v>43</v>
       </c>
       <c r="AM428" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51397,7 +51452,7 @@
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F429" t="s" s="2">
         <v>50</v>
@@ -51409,22 +51464,22 @@
         <v>43</v>
       </c>
       <c r="I429" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J429" t="s" s="2">
         <v>180</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>985</v>
+        <v>826</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>986</v>
+        <v>828</v>
       </c>
       <c r="O429" t="s" s="2">
         <v>43</v>
@@ -51449,11 +51504,13 @@
         <v>43</v>
       </c>
       <c r="W429" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X429" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X429" t="s" s="2">
+        <v>829</v>
+      </c>
       <c r="Y429" t="s" s="2">
-        <v>987</v>
+        <v>830</v>
       </c>
       <c r="Z429" t="s" s="2">
         <v>43</v>
@@ -51471,10 +51528,10 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>984</v>
+        <v>824</v>
       </c>
       <c r="AF429" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG429" t="s" s="2">
         <v>50</v>
@@ -51500,7 +51557,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
@@ -51508,7 +51565,7 @@
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F430" t="s" s="2">
         <v>50</v>
@@ -51520,20 +51577,22 @@
         <v>43</v>
       </c>
       <c r="I430" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J430" t="s" s="2">
         <v>774</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>989</v>
+        <v>832</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>990</v>
-      </c>
-      <c r="M430" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="M430" t="s" s="2">
+        <v>834</v>
+      </c>
       <c r="N430" t="s" s="2">
-        <v>991</v>
+        <v>835</v>
       </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
@@ -51582,10 +51641,10 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>988</v>
+        <v>831</v>
       </c>
       <c r="AF430" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG430" t="s" s="2">
         <v>50</v>
@@ -51609,9 +51668,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51625,7 +51684,7 @@
         <v>50</v>
       </c>
       <c r="G431" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H431" t="s" s="2">
         <v>43</v>
@@ -51634,17 +51693,19 @@
         <v>43</v>
       </c>
       <c r="J431" t="s" s="2">
-        <v>375</v>
+        <v>779</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>993</v>
+        <v>837</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>994</v>
-      </c>
-      <c r="M431" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="M431" t="s" s="2">
+        <v>839</v>
+      </c>
       <c r="N431" t="s" s="2">
-        <v>995</v>
+        <v>840</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51693,7 +51754,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>992</v>
+        <v>836</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
@@ -51720,11 +51781,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="432" hidden="true">
+    <row r="432">
       <c r="A432" t="s" s="2">
-        <v>996</v>
-      </c>
-      <c r="B432" s="2"/>
+        <v>973</v>
+      </c>
+      <c r="B432" t="s" s="2">
+        <v>841</v>
+      </c>
       <c r="C432" t="s" s="2">
         <v>43</v>
       </c>
@@ -51733,10 +51796,10 @@
         <v>41</v>
       </c>
       <c r="F432" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G432" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H432" t="s" s="2">
         <v>43</v>
@@ -51745,16 +51808,18 @@
         <v>43</v>
       </c>
       <c r="J432" t="s" s="2">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>64</v>
+        <v>842</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>65</v>
+        <v>975</v>
       </c>
       <c r="M432" s="2"/>
-      <c r="N432" s="2"/>
+      <c r="N432" t="s" s="2">
+        <v>976</v>
+      </c>
       <c r="O432" t="s" s="2">
         <v>43</v>
       </c>
@@ -51802,19 +51867,19 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>66</v>
+        <v>973</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI432" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ432" t="s" s="2">
         <v>43</v>
@@ -51826,23 +51891,23 @@
         <v>43</v>
       </c>
       <c r="AM432" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>997</v>
+        <v>977</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F433" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G433" t="s" s="2">
         <v>43</v>
@@ -51854,17 +51919,15 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M433" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M433" s="2"/>
       <c r="N433" s="2"/>
       <c r="O433" t="s" s="2">
         <v>43</v>
@@ -51913,19 +51976,19 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI433" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ433" t="s" s="2">
         <v>43</v>
@@ -51942,11 +52005,11 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>998</v>
+        <v>978</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s" s="2">
-        <v>383</v>
+        <v>69</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -51959,26 +52022,24 @@
         <v>43</v>
       </c>
       <c r="H434" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I434" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J434" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K434" t="s" s="2">
-        <v>384</v>
+        <v>71</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>385</v>
+        <v>72</v>
       </c>
       <c r="M434" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N434" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N434" s="2"/>
       <c r="O434" t="s" s="2">
         <v>43</v>
       </c>
@@ -52026,7 +52087,7 @@
         <v>43</v>
       </c>
       <c r="AE434" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AF434" t="s" s="2">
         <v>41</v>
@@ -52050,45 +52111,47 @@
         <v>43</v>
       </c>
       <c r="AM434" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>999</v>
+        <v>979</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F435" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G435" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H435" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I435" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J435" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>1000</v>
+        <v>384</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>1001</v>
-      </c>
-      <c r="M435" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M435" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N435" t="s" s="2">
-        <v>1002</v>
+        <v>156</v>
       </c>
       <c r="O435" t="s" s="2">
         <v>43</v>
@@ -52113,11 +52176,13 @@
         <v>43</v>
       </c>
       <c r="W435" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X435" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X435" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y435" t="s" s="2">
-        <v>1003</v>
+        <v>43</v>
       </c>
       <c r="Z435" t="s" s="2">
         <v>43</v>
@@ -52135,19 +52200,19 @@
         <v>43</v>
       </c>
       <c r="AE435" t="s" s="2">
-        <v>999</v>
+        <v>386</v>
       </c>
       <c r="AF435" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI435" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ435" t="s" s="2">
         <v>43</v>
@@ -52159,12 +52224,12 @@
         <v>43</v>
       </c>
       <c r="AM435" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s" s="2">
@@ -52172,7 +52237,7 @@
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F436" t="s" s="2">
         <v>50</v>
@@ -52187,19 +52252,19 @@
         <v>43</v>
       </c>
       <c r="J436" t="s" s="2">
-        <v>774</v>
+        <v>180</v>
       </c>
       <c r="K436" t="s" s="2">
-        <v>1005</v>
+        <v>819</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>1006</v>
+        <v>820</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>1007</v>
+        <v>821</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>1008</v>
+        <v>822</v>
       </c>
       <c r="O436" t="s" s="2">
         <v>43</v>
@@ -52224,13 +52289,11 @@
         <v>43</v>
       </c>
       <c r="W436" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X436" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X436" s="2"/>
       <c r="Y436" t="s" s="2">
-        <v>43</v>
+        <v>843</v>
       </c>
       <c r="Z436" t="s" s="2">
         <v>43</v>
@@ -52248,10 +52311,10 @@
         <v>43</v>
       </c>
       <c r="AE436" t="s" s="2">
-        <v>1004</v>
+        <v>818</v>
       </c>
       <c r="AF436" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG436" t="s" s="2">
         <v>50</v>
@@ -52277,7 +52340,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>1009</v>
+        <v>981</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s" s="2">
@@ -52303,14 +52366,16 @@
         <v>180</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>1010</v>
+        <v>825</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>1011</v>
-      </c>
-      <c r="M437" s="2"/>
+        <v>826</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>827</v>
+      </c>
       <c r="N437" t="s" s="2">
-        <v>1012</v>
+        <v>828</v>
       </c>
       <c r="O437" t="s" s="2">
         <v>43</v>
@@ -52335,11 +52400,13 @@
         <v>43</v>
       </c>
       <c r="W437" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X437" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X437" t="s" s="2">
+        <v>829</v>
+      </c>
       <c r="Y437" t="s" s="2">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="Z437" t="s" s="2">
         <v>43</v>
@@ -52357,7 +52424,7 @@
         <v>43</v>
       </c>
       <c r="AE437" t="s" s="2">
-        <v>1009</v>
+        <v>824</v>
       </c>
       <c r="AF437" t="s" s="2">
         <v>41</v>
@@ -52386,7 +52453,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>1013</v>
+        <v>982</v>
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s" s="2">
@@ -52394,7 +52461,7 @@
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F438" t="s" s="2">
         <v>50</v>
@@ -52409,17 +52476,19 @@
         <v>43</v>
       </c>
       <c r="J438" t="s" s="2">
-        <v>571</v>
+        <v>774</v>
       </c>
       <c r="K438" t="s" s="2">
-        <v>1014</v>
+        <v>832</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="M438" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>834</v>
+      </c>
       <c r="N438" t="s" s="2">
-        <v>1016</v>
+        <v>835</v>
       </c>
       <c r="O438" t="s" s="2">
         <v>43</v>
@@ -52468,7 +52537,7 @@
         <v>43</v>
       </c>
       <c r="AE438" t="s" s="2">
-        <v>1013</v>
+        <v>831</v>
       </c>
       <c r="AF438" t="s" s="2">
         <v>41</v>
@@ -52497,7 +52566,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>1017</v>
+        <v>983</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s" s="2">
@@ -52520,17 +52589,19 @@
         <v>43</v>
       </c>
       <c r="J439" t="s" s="2">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>1018</v>
+        <v>837</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="M439" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>839</v>
+      </c>
       <c r="N439" t="s" s="2">
-        <v>1020</v>
+        <v>840</v>
       </c>
       <c r="O439" t="s" s="2">
         <v>43</v>
@@ -52579,7 +52650,7 @@
         <v>43</v>
       </c>
       <c r="AE439" t="s" s="2">
-        <v>1017</v>
+        <v>836</v>
       </c>
       <c r="AF439" t="s" s="2">
         <v>41</v>
@@ -52606,23 +52677,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="440" hidden="true">
+    <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B440" s="2"/>
+        <v>973</v>
+      </c>
+      <c r="B440" t="s" s="2">
+        <v>858</v>
+      </c>
       <c r="C440" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F440" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G440" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H440" t="s" s="2">
         <v>43</v>
@@ -52631,19 +52704,17 @@
         <v>43</v>
       </c>
       <c r="J440" t="s" s="2">
-        <v>159</v>
+        <v>375</v>
       </c>
       <c r="K440" t="s" s="2">
-        <v>1022</v>
+        <v>859</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="M440" t="s" s="2">
-        <v>1024</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="M440" s="2"/>
       <c r="N440" t="s" s="2">
-        <v>1025</v>
+        <v>976</v>
       </c>
       <c r="O440" t="s" s="2">
         <v>43</v>
@@ -52692,13 +52763,13 @@
         <v>43</v>
       </c>
       <c r="AE440" t="s" s="2">
-        <v>1021</v>
+        <v>973</v>
       </c>
       <c r="AF440" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG440" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH440" t="s" s="2">
         <v>43</v>
@@ -52721,7 +52792,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>1026</v>
+        <v>977</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s" s="2">
@@ -52744,20 +52815,16 @@
         <v>43</v>
       </c>
       <c r="J441" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>1027</v>
+        <v>64</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="M441" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="N441" t="s" s="2">
-        <v>1030</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M441" s="2"/>
+      <c r="N441" s="2"/>
       <c r="O441" t="s" s="2">
         <v>43</v>
       </c>
@@ -52781,13 +52848,13 @@
         <v>43</v>
       </c>
       <c r="W441" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X441" t="s" s="2">
-        <v>1031</v>
+        <v>43</v>
       </c>
       <c r="Y441" t="s" s="2">
-        <v>1032</v>
+        <v>43</v>
       </c>
       <c r="Z441" t="s" s="2">
         <v>43</v>
@@ -52805,7 +52872,7 @@
         <v>43</v>
       </c>
       <c r="AE441" t="s" s="2">
-        <v>1026</v>
+        <v>66</v>
       </c>
       <c r="AF441" t="s" s="2">
         <v>41</v>
@@ -52817,7 +52884,7 @@
         <v>43</v>
       </c>
       <c r="AI441" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ441" t="s" s="2">
         <v>43</v>
@@ -52829,23 +52896,23 @@
         <v>43</v>
       </c>
       <c r="AM441" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>1033</v>
+        <v>978</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F442" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G442" t="s" s="2">
         <v>43</v>
@@ -52857,20 +52924,18 @@
         <v>43</v>
       </c>
       <c r="J442" t="s" s="2">
-        <v>1034</v>
+        <v>70</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>1035</v>
+        <v>71</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>1036</v>
+        <v>72</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="N442" t="s" s="2">
-        <v>1038</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N442" s="2"/>
       <c r="O442" t="s" s="2">
         <v>43</v>
       </c>
@@ -52918,19 +52983,19 @@
         <v>43</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>1033</v>
+        <v>77</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI442" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ442" t="s" s="2">
         <v>43</v>
@@ -52942,16 +53007,16 @@
         <v>43</v>
       </c>
       <c r="AM442" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>1039</v>
+        <v>979</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -52964,23 +53029,25 @@
         <v>43</v>
       </c>
       <c r="H443" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I443" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J443" t="s" s="2">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="K443" t="s" s="2">
-        <v>1040</v>
+        <v>384</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="M443" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N443" t="s" s="2">
-        <v>1042</v>
+        <v>156</v>
       </c>
       <c r="O443" t="s" s="2">
         <v>43</v>
@@ -53029,7 +53096,7 @@
         <v>43</v>
       </c>
       <c r="AE443" t="s" s="2">
-        <v>1039</v>
+        <v>386</v>
       </c>
       <c r="AF443" t="s" s="2">
         <v>41</v>
@@ -53041,7 +53108,7 @@
         <v>43</v>
       </c>
       <c r="AI443" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ443" t="s" s="2">
         <v>43</v>
@@ -53053,12 +53120,12 @@
         <v>43</v>
       </c>
       <c r="AM443" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>1043</v>
+        <v>980</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s" s="2">
@@ -53066,7 +53133,7 @@
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F444" t="s" s="2">
         <v>50</v>
@@ -53081,16 +53148,20 @@
         <v>43</v>
       </c>
       <c r="J444" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>64</v>
+        <v>819</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M444" s="2"/>
-      <c r="N444" s="2"/>
+        <v>820</v>
+      </c>
+      <c r="M444" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N444" t="s" s="2">
+        <v>822</v>
+      </c>
       <c r="O444" t="s" s="2">
         <v>43</v>
       </c>
@@ -53114,13 +53185,11 @@
         <v>43</v>
       </c>
       <c r="W444" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X444" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X444" s="2"/>
       <c r="Y444" t="s" s="2">
-        <v>43</v>
+        <v>860</v>
       </c>
       <c r="Z444" t="s" s="2">
         <v>43</v>
@@ -53138,10 +53207,10 @@
         <v>43</v>
       </c>
       <c r="AE444" t="s" s="2">
-        <v>66</v>
+        <v>818</v>
       </c>
       <c r="AF444" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG444" t="s" s="2">
         <v>50</v>
@@ -53150,7 +53219,7 @@
         <v>43</v>
       </c>
       <c r="AI444" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ444" t="s" s="2">
         <v>43</v>
@@ -53162,23 +53231,23 @@
         <v>43</v>
       </c>
       <c r="AM444" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>1044</v>
+        <v>984</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F445" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G445" t="s" s="2">
         <v>43</v>
@@ -53190,17 +53259,15 @@
         <v>43</v>
       </c>
       <c r="J445" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M445" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M445" s="2"/>
       <c r="N445" s="2"/>
       <c r="O445" t="s" s="2">
         <v>43</v>
@@ -53249,19 +53316,19 @@
         <v>43</v>
       </c>
       <c r="AE445" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF445" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI445" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ445" t="s" s="2">
         <v>43</v>
@@ -53278,11 +53345,11 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>1045</v>
+        <v>985</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s" s="2">
-        <v>383</v>
+        <v>69</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -53295,26 +53362,24 @@
         <v>43</v>
       </c>
       <c r="H446" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I446" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J446" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K446" t="s" s="2">
-        <v>384</v>
+        <v>71</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>385</v>
+        <v>72</v>
       </c>
       <c r="M446" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N446" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N446" s="2"/>
       <c r="O446" t="s" s="2">
         <v>43</v>
       </c>
@@ -53350,19 +53415,19 @@
         <v>43</v>
       </c>
       <c r="AA446" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AB446" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AC446" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD446" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE446" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AF446" t="s" s="2">
         <v>41</v>
@@ -53386,12 +53451,12 @@
         <v>43</v>
       </c>
       <c r="AM446" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>1046</v>
+        <v>986</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s" s="2">
@@ -53402,7 +53467,7 @@
         <v>41</v>
       </c>
       <c r="F447" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G447" t="s" s="2">
         <v>43</v>
@@ -53411,20 +53476,22 @@
         <v>43</v>
       </c>
       <c r="I447" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J447" t="s" s="2">
-        <v>484</v>
+        <v>104</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>1047</v>
+        <v>244</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>1048</v>
-      </c>
-      <c r="M447" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M447" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N447" t="s" s="2">
-        <v>1049</v>
+        <v>247</v>
       </c>
       <c r="O447" t="s" s="2">
         <v>43</v>
@@ -53473,13 +53540,13 @@
         <v>43</v>
       </c>
       <c r="AE447" t="s" s="2">
-        <v>1046</v>
+        <v>248</v>
       </c>
       <c r="AF447" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>43</v>
@@ -53494,15 +53561,15 @@
         <v>43</v>
       </c>
       <c r="AL447" t="s" s="2">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="AM447" t="s" s="2">
-        <v>43</v>
+        <v>250</v>
       </c>
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>1050</v>
+        <v>987</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s" s="2">
@@ -53525,18 +53592,16 @@
         <v>43</v>
       </c>
       <c r="J448" t="s" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="K448" t="s" s="2">
-        <v>1051</v>
+        <v>64</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>1052</v>
+        <v>65</v>
       </c>
       <c r="M448" s="2"/>
-      <c r="N448" t="s" s="2">
-        <v>1053</v>
-      </c>
+      <c r="N448" s="2"/>
       <c r="O448" t="s" s="2">
         <v>43</v>
       </c>
@@ -53560,13 +53625,13 @@
         <v>43</v>
       </c>
       <c r="W448" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X448" t="s" s="2">
-        <v>1054</v>
+        <v>43</v>
       </c>
       <c r="Y448" t="s" s="2">
-        <v>1055</v>
+        <v>43</v>
       </c>
       <c r="Z448" t="s" s="2">
         <v>43</v>
@@ -53584,7 +53649,7 @@
         <v>43</v>
       </c>
       <c r="AE448" t="s" s="2">
-        <v>1050</v>
+        <v>66</v>
       </c>
       <c r="AF448" t="s" s="2">
         <v>41</v>
@@ -53596,7 +53661,7 @@
         <v>43</v>
       </c>
       <c r="AI448" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ448" t="s" s="2">
         <v>43</v>
@@ -53608,23 +53673,23 @@
         <v>43</v>
       </c>
       <c r="AM448" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>1056</v>
+        <v>988</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F449" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G449" t="s" s="2">
         <v>43</v>
@@ -53636,18 +53701,18 @@
         <v>43</v>
       </c>
       <c r="J449" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>1057</v>
+        <v>71</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="M449" s="2"/>
-      <c r="N449" t="s" s="2">
-        <v>1059</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N449" s="2"/>
       <c r="O449" t="s" s="2">
         <v>43</v>
       </c>
@@ -53683,31 +53748,31 @@
         <v>43</v>
       </c>
       <c r="AA449" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="AB449" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AC449" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD449" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE449" t="s" s="2">
-        <v>1056</v>
+        <v>77</v>
       </c>
       <c r="AF449" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG449" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH449" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI449" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ449" t="s" s="2">
         <v>43</v>
@@ -53719,12 +53784,12 @@
         <v>43</v>
       </c>
       <c r="AM449" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>1060</v>
+        <v>989</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s" s="2">
@@ -53744,22 +53809,22 @@
         <v>43</v>
       </c>
       <c r="I450" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J450" t="s" s="2">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>1061</v>
+        <v>254</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>1062</v>
+        <v>255</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>1063</v>
+        <v>256</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>1064</v>
+        <v>257</v>
       </c>
       <c r="O450" t="s" s="2">
         <v>43</v>
@@ -53784,13 +53849,13 @@
         <v>43</v>
       </c>
       <c r="W450" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X450" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y450" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z450" t="s" s="2">
         <v>43</v>
@@ -53808,7 +53873,7 @@
         <v>43</v>
       </c>
       <c r="AE450" t="s" s="2">
-        <v>1060</v>
+        <v>258</v>
       </c>
       <c r="AF450" t="s" s="2">
         <v>41</v>
@@ -53829,15 +53894,15 @@
         <v>43</v>
       </c>
       <c r="AL450" t="s" s="2">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="AM450" t="s" s="2">
-        <v>43</v>
+        <v>260</v>
       </c>
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>1065</v>
+        <v>990</v>
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s" s="2">
@@ -53857,23 +53922,21 @@
         <v>43</v>
       </c>
       <c r="I451" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J451" t="s" s="2">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="K451" t="s" s="2">
-        <v>1066</v>
+        <v>262</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>1067</v>
+        <v>263</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>1068</v>
-      </c>
-      <c r="N451" t="s" s="2">
-        <v>1069</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N451" s="2"/>
       <c r="O451" t="s" s="2">
         <v>43</v>
       </c>
@@ -53921,7 +53984,7 @@
         <v>43</v>
       </c>
       <c r="AE451" t="s" s="2">
-        <v>1065</v>
+        <v>265</v>
       </c>
       <c r="AF451" t="s" s="2">
         <v>41</v>
@@ -53942,15 +54005,15 @@
         <v>43</v>
       </c>
       <c r="AL451" t="s" s="2">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="AM451" t="s" s="2">
-        <v>43</v>
+        <v>267</v>
       </c>
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>1070</v>
+        <v>991</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s" s="2">
@@ -53958,10 +54021,10 @@
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F452" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G452" t="s" s="2">
         <v>43</v>
@@ -53970,19 +54033,21 @@
         <v>43</v>
       </c>
       <c r="I452" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J452" t="s" s="2">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="K452" t="s" s="2">
-        <v>1071</v>
+        <v>269</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>1072</v>
+        <v>270</v>
       </c>
       <c r="M452" s="2"/>
-      <c r="N452" s="2"/>
+      <c r="N452" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O452" t="s" s="2">
         <v>43</v>
       </c>
@@ -53991,7 +54056,7 @@
         <v>43</v>
       </c>
       <c r="R452" t="s" s="2">
-        <v>43</v>
+        <v>858</v>
       </c>
       <c r="S452" t="s" s="2">
         <v>43</v>
@@ -54030,13 +54095,13 @@
         <v>43</v>
       </c>
       <c r="AE452" t="s" s="2">
-        <v>1070</v>
+        <v>273</v>
       </c>
       <c r="AF452" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>43</v>
@@ -54051,15 +54116,15 @@
         <v>43</v>
       </c>
       <c r="AL452" t="s" s="2">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="AM452" t="s" s="2">
-        <v>43</v>
+        <v>275</v>
       </c>
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>1073</v>
+        <v>992</v>
       </c>
       <c r="B453" s="2"/>
       <c r="C453" t="s" s="2">
@@ -54079,19 +54144,21 @@
         <v>43</v>
       </c>
       <c r="I453" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J453" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K453" t="s" s="2">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="L453" t="s" s="2">
-        <v>65</v>
+        <v>278</v>
       </c>
       <c r="M453" s="2"/>
-      <c r="N453" s="2"/>
+      <c r="N453" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O453" t="s" s="2">
         <v>43</v>
       </c>
@@ -54139,7 +54206,7 @@
         <v>43</v>
       </c>
       <c r="AE453" t="s" s="2">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="AF453" t="s" s="2">
         <v>41</v>
@@ -54151,7 +54218,7 @@
         <v>43</v>
       </c>
       <c r="AI453" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ453" t="s" s="2">
         <v>43</v>
@@ -54160,26 +54227,26 @@
         <v>43</v>
       </c>
       <c r="AL453" t="s" s="2">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="AM453" t="s" s="2">
-        <v>67</v>
+        <v>282</v>
       </c>
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>1074</v>
+        <v>993</v>
       </c>
       <c r="B454" s="2"/>
       <c r="C454" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F454" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G454" t="s" s="2">
         <v>43</v>
@@ -54188,21 +54255,23 @@
         <v>43</v>
       </c>
       <c r="I454" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J454" t="s" s="2">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="K454" t="s" s="2">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N454" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N454" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O454" t="s" s="2">
         <v>43</v>
       </c>
@@ -54250,19 +54319,19 @@
         <v>43</v>
       </c>
       <c r="AE454" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AF454" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI454" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ454" t="s" s="2">
         <v>43</v>
@@ -54271,50 +54340,50 @@
         <v>43</v>
       </c>
       <c r="AL454" t="s" s="2">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="AM454" t="s" s="2">
-        <v>67</v>
+        <v>291</v>
       </c>
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>1075</v>
+        <v>994</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F455" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G455" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H455" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I455" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J455" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>385</v>
+        <v>294</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="O455" t="s" s="2">
         <v>43</v>
@@ -54363,19 +54432,19 @@
         <v>43</v>
       </c>
       <c r="AE455" t="s" s="2">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="AF455" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI455" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ455" t="s" s="2">
         <v>43</v>
@@ -54384,15 +54453,15 @@
         <v>43</v>
       </c>
       <c r="AL455" t="s" s="2">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="AM455" t="s" s="2">
-        <v>149</v>
+        <v>299</v>
       </c>
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>1076</v>
+        <v>981</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" t="s" s="2">
@@ -54400,7 +54469,7 @@
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F456" t="s" s="2">
         <v>50</v>
@@ -54418,16 +54487,16 @@
         <v>180</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>731</v>
+        <v>825</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>732</v>
+        <v>826</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>733</v>
+        <v>827</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>1077</v>
+        <v>828</v>
       </c>
       <c r="O456" t="s" s="2">
         <v>43</v>
@@ -54455,10 +54524,10 @@
         <v>116</v>
       </c>
       <c r="X456" t="s" s="2">
-        <v>735</v>
+        <v>829</v>
       </c>
       <c r="Y456" t="s" s="2">
-        <v>736</v>
+        <v>830</v>
       </c>
       <c r="Z456" t="s" s="2">
         <v>43</v>
@@ -54476,10 +54545,10 @@
         <v>43</v>
       </c>
       <c r="AE456" t="s" s="2">
-        <v>1076</v>
+        <v>824</v>
       </c>
       <c r="AF456" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG456" t="s" s="2">
         <v>50</v>
@@ -54505,7 +54574,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>1078</v>
+        <v>982</v>
       </c>
       <c r="B457" s="2"/>
       <c r="C457" t="s" s="2">
@@ -54528,17 +54597,19 @@
         <v>43</v>
       </c>
       <c r="J457" t="s" s="2">
-        <v>284</v>
+        <v>774</v>
       </c>
       <c r="K457" t="s" s="2">
-        <v>1079</v>
+        <v>832</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>1080</v>
-      </c>
-      <c r="M457" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="M457" t="s" s="2">
+        <v>834</v>
+      </c>
       <c r="N457" t="s" s="2">
-        <v>1081</v>
+        <v>835</v>
       </c>
       <c r="O457" t="s" s="2">
         <v>43</v>
@@ -54587,7 +54658,7 @@
         <v>43</v>
       </c>
       <c r="AE457" t="s" s="2">
-        <v>1078</v>
+        <v>831</v>
       </c>
       <c r="AF457" t="s" s="2">
         <v>41</v>
@@ -54616,7 +54687,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>1082</v>
+        <v>983</v>
       </c>
       <c r="B458" s="2"/>
       <c r="C458" t="s" s="2">
@@ -54639,19 +54710,19 @@
         <v>43</v>
       </c>
       <c r="J458" t="s" s="2">
-        <v>52</v>
+        <v>779</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>1083</v>
+        <v>837</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>1084</v>
+        <v>838</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>1085</v>
+        <v>839</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>1086</v>
+        <v>840</v>
       </c>
       <c r="O458" t="s" s="2">
         <v>43</v>
@@ -54700,7 +54771,7 @@
         <v>43</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>1082</v>
+        <v>836</v>
       </c>
       <c r="AF458" t="s" s="2">
         <v>41</v>
@@ -54729,7 +54800,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>1087</v>
+        <v>995</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" t="s" s="2">
@@ -54740,7 +54811,7 @@
         <v>41</v>
       </c>
       <c r="F459" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G459" t="s" s="2">
         <v>43</v>
@@ -54749,22 +54820,22 @@
         <v>43</v>
       </c>
       <c r="I459" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J459" t="s" s="2">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="K459" t="s" s="2">
-        <v>1088</v>
+        <v>996</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>1089</v>
+        <v>997</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>1090</v>
+        <v>998</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>1091</v>
+        <v>999</v>
       </c>
       <c r="O459" t="s" s="2">
         <v>43</v>
@@ -54813,13 +54884,13 @@
         <v>43</v>
       </c>
       <c r="AE459" t="s" s="2">
-        <v>1087</v>
+        <v>995</v>
       </c>
       <c r="AF459" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>43</v>
@@ -54842,7 +54913,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>1092</v>
+        <v>1000</v>
       </c>
       <c r="B460" s="2"/>
       <c r="C460" t="s" s="2">
@@ -54865,18 +54936,16 @@
         <v>43</v>
       </c>
       <c r="J460" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K460" t="s" s="2">
-        <v>1093</v>
+        <v>64</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>1094</v>
+        <v>65</v>
       </c>
       <c r="M460" s="2"/>
-      <c r="N460" t="s" s="2">
-        <v>1095</v>
-      </c>
+      <c r="N460" s="2"/>
       <c r="O460" t="s" s="2">
         <v>43</v>
       </c>
@@ -54900,13 +54969,13 @@
         <v>43</v>
       </c>
       <c r="W460" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X460" t="s" s="2">
-        <v>1096</v>
+        <v>43</v>
       </c>
       <c r="Y460" t="s" s="2">
-        <v>1097</v>
+        <v>43</v>
       </c>
       <c r="Z460" t="s" s="2">
         <v>43</v>
@@ -54924,7 +54993,7 @@
         <v>43</v>
       </c>
       <c r="AE460" t="s" s="2">
-        <v>1092</v>
+        <v>66</v>
       </c>
       <c r="AF460" t="s" s="2">
         <v>41</v>
@@ -54936,7 +55005,7 @@
         <v>43</v>
       </c>
       <c r="AI460" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ460" t="s" s="2">
         <v>43</v>
@@ -54948,23 +55017,23 @@
         <v>43</v>
       </c>
       <c r="AM460" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>1098</v>
+        <v>1001</v>
       </c>
       <c r="B461" s="2"/>
       <c r="C461" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F461" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G461" t="s" s="2">
         <v>43</v>
@@ -54976,18 +55045,18 @@
         <v>43</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K461" t="s" s="2">
-        <v>1099</v>
+        <v>71</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>1100</v>
-      </c>
-      <c r="M461" s="2"/>
-      <c r="N461" t="s" s="2">
-        <v>1101</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M461" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N461" s="2"/>
       <c r="O461" t="s" s="2">
         <v>43</v>
       </c>
@@ -55011,13 +55080,13 @@
         <v>43</v>
       </c>
       <c r="W461" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X461" t="s" s="2">
-        <v>1102</v>
+        <v>43</v>
       </c>
       <c r="Y461" t="s" s="2">
-        <v>1103</v>
+        <v>43</v>
       </c>
       <c r="Z461" t="s" s="2">
         <v>43</v>
@@ -55035,19 +55104,19 @@
         <v>43</v>
       </c>
       <c r="AE461" t="s" s="2">
-        <v>1098</v>
+        <v>77</v>
       </c>
       <c r="AF461" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI461" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ461" t="s" s="2">
         <v>43</v>
@@ -55059,45 +55128,47 @@
         <v>43</v>
       </c>
       <c r="AM461" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>1104</v>
+        <v>1002</v>
       </c>
       <c r="B462" s="2"/>
       <c r="C462" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F462" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G462" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H462" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I462" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J462" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K462" t="s" s="2">
-        <v>1105</v>
+        <v>384</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>1106</v>
-      </c>
-      <c r="M462" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M462" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N462" t="s" s="2">
-        <v>1101</v>
+        <v>156</v>
       </c>
       <c r="O462" t="s" s="2">
         <v>43</v>
@@ -55122,13 +55193,13 @@
         <v>43</v>
       </c>
       <c r="W462" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X462" t="s" s="2">
-        <v>1107</v>
+        <v>43</v>
       </c>
       <c r="Y462" t="s" s="2">
-        <v>1108</v>
+        <v>43</v>
       </c>
       <c r="Z462" t="s" s="2">
         <v>43</v>
@@ -55146,19 +55217,19 @@
         <v>43</v>
       </c>
       <c r="AE462" t="s" s="2">
-        <v>1104</v>
+        <v>386</v>
       </c>
       <c r="AF462" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI462" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ462" t="s" s="2">
         <v>43</v>
@@ -55170,12 +55241,12 @@
         <v>43</v>
       </c>
       <c r="AM462" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>1109</v>
+        <v>1003</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" t="s" s="2">
@@ -55183,10 +55254,10 @@
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F463" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G463" t="s" s="2">
         <v>43</v>
@@ -55195,19 +55266,23 @@
         <v>43</v>
       </c>
       <c r="I463" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J463" t="s" s="2">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="K463" t="s" s="2">
-        <v>1110</v>
+        <v>819</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="M463" s="2"/>
-      <c r="N463" s="2"/>
+        <v>1004</v>
+      </c>
+      <c r="M463" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N463" t="s" s="2">
+        <v>1005</v>
+      </c>
       <c r="O463" t="s" s="2">
         <v>43</v>
       </c>
@@ -55231,13 +55306,11 @@
         <v>43</v>
       </c>
       <c r="W463" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X463" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X463" s="2"/>
       <c r="Y463" t="s" s="2">
-        <v>43</v>
+        <v>1006</v>
       </c>
       <c r="Z463" t="s" s="2">
         <v>43</v>
@@ -55255,13 +55328,13 @@
         <v>43</v>
       </c>
       <c r="AE463" t="s" s="2">
-        <v>1109</v>
+        <v>1003</v>
       </c>
       <c r="AF463" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>43</v>
@@ -55284,7 +55357,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>1112</v>
+        <v>1007</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" t="s" s="2">
@@ -55292,7 +55365,7 @@
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F464" t="s" s="2">
         <v>50</v>
@@ -55304,19 +55377,21 @@
         <v>43</v>
       </c>
       <c r="I464" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J464" t="s" s="2">
-        <v>52</v>
+        <v>774</v>
       </c>
       <c r="K464" t="s" s="2">
-        <v>64</v>
+        <v>1008</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>65</v>
+        <v>1009</v>
       </c>
       <c r="M464" s="2"/>
-      <c r="N464" s="2"/>
+      <c r="N464" t="s" s="2">
+        <v>1010</v>
+      </c>
       <c r="O464" t="s" s="2">
         <v>43</v>
       </c>
@@ -55364,10 +55439,10 @@
         <v>43</v>
       </c>
       <c r="AE464" t="s" s="2">
-        <v>66</v>
+        <v>1007</v>
       </c>
       <c r="AF464" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG464" t="s" s="2">
         <v>50</v>
@@ -55376,7 +55451,7 @@
         <v>43</v>
       </c>
       <c r="AI464" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ464" t="s" s="2">
         <v>43</v>
@@ -55388,26 +55463,26 @@
         <v>43</v>
       </c>
       <c r="AM464" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="465" hidden="true">
+    <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1113</v>
+        <v>1011</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F465" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G465" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H465" t="s" s="2">
         <v>43</v>
@@ -55416,18 +55491,18 @@
         <v>43</v>
       </c>
       <c r="J465" t="s" s="2">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>71</v>
+        <v>1012</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M465" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N465" s="2"/>
+        <v>1013</v>
+      </c>
+      <c r="M465" s="2"/>
+      <c r="N465" t="s" s="2">
+        <v>1014</v>
+      </c>
       <c r="O465" t="s" s="2">
         <v>43</v>
       </c>
@@ -55475,19 +55550,19 @@
         <v>43</v>
       </c>
       <c r="AE465" t="s" s="2">
-        <v>77</v>
+        <v>1011</v>
       </c>
       <c r="AF465" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI465" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ465" t="s" s="2">
         <v>43</v>
@@ -55499,48 +55574,44 @@
         <v>43</v>
       </c>
       <c r="AM465" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>1114</v>
+        <v>1015</v>
       </c>
       <c r="B466" s="2"/>
       <c r="C466" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F466" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G466" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H466" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I466" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J466" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K466" t="s" s="2">
-        <v>384</v>
+        <v>64</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M466" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N466" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M466" s="2"/>
+      <c r="N466" s="2"/>
       <c r="O466" t="s" s="2">
         <v>43</v>
       </c>
@@ -55588,19 +55659,19 @@
         <v>43</v>
       </c>
       <c r="AE466" t="s" s="2">
-        <v>386</v>
+        <v>66</v>
       </c>
       <c r="AF466" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH466" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI466" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ466" t="s" s="2">
         <v>43</v>
@@ -55612,23 +55683,23 @@
         <v>43</v>
       </c>
       <c r="AM466" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>1115</v>
+        <v>1016</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F467" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G467" t="s" s="2">
         <v>43</v>
@@ -55640,20 +55711,18 @@
         <v>43</v>
       </c>
       <c r="J467" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K467" t="s" s="2">
-        <v>731</v>
+        <v>71</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>1116</v>
+        <v>72</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="N467" t="s" s="2">
-        <v>1118</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N467" s="2"/>
       <c r="O467" t="s" s="2">
         <v>43</v>
       </c>
@@ -55677,13 +55746,13 @@
         <v>43</v>
       </c>
       <c r="W467" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X467" t="s" s="2">
-        <v>1119</v>
+        <v>43</v>
       </c>
       <c r="Y467" t="s" s="2">
-        <v>1120</v>
+        <v>43</v>
       </c>
       <c r="Z467" t="s" s="2">
         <v>43</v>
@@ -55701,19 +55770,19 @@
         <v>43</v>
       </c>
       <c r="AE467" t="s" s="2">
-        <v>1115</v>
+        <v>77</v>
       </c>
       <c r="AF467" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG467" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH467" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI467" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ467" t="s" s="2">
         <v>43</v>
@@ -55725,45 +55794,47 @@
         <v>43</v>
       </c>
       <c r="AM467" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>1121</v>
+        <v>1017</v>
       </c>
       <c r="B468" s="2"/>
       <c r="C468" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F468" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G468" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H468" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I468" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J468" t="s" s="2">
-        <v>1122</v>
+        <v>70</v>
       </c>
       <c r="K468" t="s" s="2">
-        <v>1123</v>
+        <v>384</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>1124</v>
-      </c>
-      <c r="M468" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M468" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N468" t="s" s="2">
-        <v>1125</v>
+        <v>156</v>
       </c>
       <c r="O468" t="s" s="2">
         <v>43</v>
@@ -55812,19 +55883,19 @@
         <v>43</v>
       </c>
       <c r="AE468" t="s" s="2">
-        <v>1121</v>
+        <v>386</v>
       </c>
       <c r="AF468" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI468" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ468" t="s" s="2">
         <v>43</v>
@@ -55836,12 +55907,12 @@
         <v>43</v>
       </c>
       <c r="AM468" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>1126</v>
+        <v>1018</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" t="s" s="2">
@@ -55864,17 +55935,17 @@
         <v>43</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>1127</v>
+        <v>180</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>1128</v>
+        <v>1019</v>
       </c>
       <c r="L469" t="s" s="2">
-        <v>1129</v>
+        <v>1020</v>
       </c>
       <c r="M469" s="2"/>
       <c r="N469" t="s" s="2">
-        <v>1130</v>
+        <v>1021</v>
       </c>
       <c r="O469" t="s" s="2">
         <v>43</v>
@@ -55899,13 +55970,11 @@
         <v>43</v>
       </c>
       <c r="W469" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X469" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X469" s="2"/>
       <c r="Y469" t="s" s="2">
-        <v>43</v>
+        <v>1022</v>
       </c>
       <c r="Z469" t="s" s="2">
         <v>43</v>
@@ -55923,7 +55992,7 @@
         <v>43</v>
       </c>
       <c r="AE469" t="s" s="2">
-        <v>1126</v>
+        <v>1018</v>
       </c>
       <c r="AF469" t="s" s="2">
         <v>41</v>
@@ -55950,8 +56019,3796 @@
         <v>43</v>
       </c>
     </row>
+    <row r="470" hidden="true">
+      <c r="A470" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B470" s="2"/>
+      <c r="C470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D470" s="2"/>
+      <c r="E470" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F470" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J470" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="K470" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="L470" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="M470" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="N470" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="O470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P470" s="2"/>
+      <c r="Q470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE470" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="AF470" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG470" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI470" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL470" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM470" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="471" hidden="true">
+      <c r="A471" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="B471" s="2"/>
+      <c r="C471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D471" s="2"/>
+      <c r="E471" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F471" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J471" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K471" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="L471" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="M471" s="2"/>
+      <c r="N471" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="O471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P471" s="2"/>
+      <c r="Q471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W471" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X471" s="2"/>
+      <c r="Y471" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="Z471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE471" t="s" s="2">
+        <v>1028</v>
+      </c>
+      <c r="AF471" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG471" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI471" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL471" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM471" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="472" hidden="true">
+      <c r="A472" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B472" s="2"/>
+      <c r="C472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D472" s="2"/>
+      <c r="E472" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F472" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J472" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K472" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="L472" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="M472" s="2"/>
+      <c r="N472" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="O472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P472" s="2"/>
+      <c r="Q472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE472" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="AF472" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG472" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI472" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL472" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM472" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="473" hidden="true">
+      <c r="A473" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B473" s="2"/>
+      <c r="C473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D473" s="2"/>
+      <c r="E473" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F473" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J473" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="K473" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="L473" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="M473" s="2"/>
+      <c r="N473" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="O473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P473" s="2"/>
+      <c r="Q473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE473" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="AF473" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG473" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI473" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL473" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM473" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="474" hidden="true">
+      <c r="A474" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="B474" s="2"/>
+      <c r="C474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D474" s="2"/>
+      <c r="E474" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F474" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J474" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K474" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="L474" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="M474" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="N474" t="s" s="2">
+        <v>1044</v>
+      </c>
+      <c r="O474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P474" s="2"/>
+      <c r="Q474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE474" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="AF474" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG474" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI474" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL474" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM474" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="475" hidden="true">
+      <c r="A475" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B475" s="2"/>
+      <c r="C475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D475" s="2"/>
+      <c r="E475" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F475" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J475" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K475" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="L475" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="M475" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="N475" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="O475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P475" s="2"/>
+      <c r="Q475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W475" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X475" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="Y475" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="Z475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE475" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="AF475" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG475" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI475" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL475" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM475" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="476" hidden="true">
+      <c r="A476" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="B476" s="2"/>
+      <c r="C476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D476" s="2"/>
+      <c r="E476" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F476" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J476" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="K476" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="L476" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="M476" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="N476" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="O476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P476" s="2"/>
+      <c r="Q476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE476" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AF476" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG476" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI476" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL476" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM476" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="477" hidden="true">
+      <c r="A477" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="B477" s="2"/>
+      <c r="C477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D477" s="2"/>
+      <c r="E477" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F477" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J477" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K477" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="L477" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="M477" s="2"/>
+      <c r="N477" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="O477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P477" s="2"/>
+      <c r="Q477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE477" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="AF477" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG477" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI477" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL477" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM477" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="478" hidden="true">
+      <c r="A478" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="B478" s="2"/>
+      <c r="C478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D478" s="2"/>
+      <c r="E478" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F478" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J478" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K478" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L478" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M478" s="2"/>
+      <c r="N478" s="2"/>
+      <c r="O478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P478" s="2"/>
+      <c r="Q478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE478" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF478" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG478" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL478" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM478" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="479" hidden="true">
+      <c r="A479" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B479" s="2"/>
+      <c r="C479" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D479" s="2"/>
+      <c r="E479" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F479" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J479" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K479" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L479" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M479" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N479" s="2"/>
+      <c r="O479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P479" s="2"/>
+      <c r="Q479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE479" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF479" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG479" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI479" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL479" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM479" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="480" hidden="true">
+      <c r="A480" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="B480" s="2"/>
+      <c r="C480" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="D480" s="2"/>
+      <c r="E480" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F480" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H480" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I480" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J480" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K480" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L480" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M480" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N480" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P480" s="2"/>
+      <c r="Q480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE480" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF480" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG480" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI480" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL480" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM480" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="481" hidden="true">
+      <c r="A481" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B481" s="2"/>
+      <c r="C481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D481" s="2"/>
+      <c r="E481" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F481" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J481" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K481" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="L481" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="M481" s="2"/>
+      <c r="N481" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="O481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P481" s="2"/>
+      <c r="Q481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE481" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="AF481" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG481" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI481" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL481" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM481" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="482" hidden="true">
+      <c r="A482" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="B482" s="2"/>
+      <c r="C482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D482" s="2"/>
+      <c r="E482" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F482" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J482" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K482" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="L482" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="M482" s="2"/>
+      <c r="N482" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="O482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P482" s="2"/>
+      <c r="Q482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W482" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X482" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="Y482" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="Z482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE482" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="AF482" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG482" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI482" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL482" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM482" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="483" hidden="true">
+      <c r="A483" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="B483" s="2"/>
+      <c r="C483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D483" s="2"/>
+      <c r="E483" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F483" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J483" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K483" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="L483" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="M483" s="2"/>
+      <c r="N483" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="O483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P483" s="2"/>
+      <c r="Q483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE483" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="AF483" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG483" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI483" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL483" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM483" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="484" hidden="true">
+      <c r="A484" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="B484" s="2"/>
+      <c r="C484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D484" s="2"/>
+      <c r="E484" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F484" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J484" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K484" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="L484" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="M484" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="N484" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="O484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P484" s="2"/>
+      <c r="Q484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W484" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="X484" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y484" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE484" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="AF484" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG484" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI484" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL484" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM484" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="485" hidden="true">
+      <c r="A485" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="B485" s="2"/>
+      <c r="C485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D485" s="2"/>
+      <c r="E485" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F485" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J485" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K485" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L485" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M485" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="N485" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="O485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P485" s="2"/>
+      <c r="Q485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE485" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="AF485" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG485" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI485" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL485" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM485" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="486" hidden="true">
+      <c r="A486" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="B486" s="2"/>
+      <c r="C486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D486" s="2"/>
+      <c r="E486" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F486" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J486" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K486" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="L486" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="M486" s="2"/>
+      <c r="N486" s="2"/>
+      <c r="O486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P486" s="2"/>
+      <c r="Q486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE486" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="AF486" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG486" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI486" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL486" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM486" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="487" hidden="true">
+      <c r="A487" t="s" s="2">
+        <v>1092</v>
+      </c>
+      <c r="B487" s="2"/>
+      <c r="C487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D487" s="2"/>
+      <c r="E487" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F487" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J487" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K487" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L487" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M487" s="2"/>
+      <c r="N487" s="2"/>
+      <c r="O487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P487" s="2"/>
+      <c r="Q487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE487" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF487" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG487" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL487" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM487" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="488" hidden="true">
+      <c r="A488" t="s" s="2">
+        <v>1093</v>
+      </c>
+      <c r="B488" s="2"/>
+      <c r="C488" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D488" s="2"/>
+      <c r="E488" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F488" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J488" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K488" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L488" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M488" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N488" s="2"/>
+      <c r="O488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P488" s="2"/>
+      <c r="Q488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE488" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF488" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG488" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI488" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL488" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM488" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="489" hidden="true">
+      <c r="A489" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="B489" s="2"/>
+      <c r="C489" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="D489" s="2"/>
+      <c r="E489" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F489" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H489" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I489" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J489" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K489" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L489" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M489" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N489" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P489" s="2"/>
+      <c r="Q489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE489" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF489" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG489" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI489" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL489" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM489" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="490" hidden="true">
+      <c r="A490" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="B490" s="2"/>
+      <c r="C490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D490" s="2"/>
+      <c r="E490" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F490" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J490" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K490" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L490" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M490" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="N490" t="s" s="2">
+        <v>1096</v>
+      </c>
+      <c r="O490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P490" s="2"/>
+      <c r="Q490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W490" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X490" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="Y490" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="Z490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE490" t="s" s="2">
+        <v>1095</v>
+      </c>
+      <c r="AF490" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG490" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI490" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL490" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM490" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="491" hidden="true">
+      <c r="A491" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="B491" s="2"/>
+      <c r="C491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D491" s="2"/>
+      <c r="E491" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F491" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J491" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K491" t="s" s="2">
+        <v>1098</v>
+      </c>
+      <c r="L491" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="M491" s="2"/>
+      <c r="N491" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="O491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P491" s="2"/>
+      <c r="Q491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE491" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="AF491" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG491" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI491" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL491" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM491" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="492" hidden="true">
+      <c r="A492" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="B492" s="2"/>
+      <c r="C492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D492" s="2"/>
+      <c r="E492" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F492" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J492" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K492" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="L492" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="M492" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="N492" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="O492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P492" s="2"/>
+      <c r="Q492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE492" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="AF492" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG492" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI492" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL492" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM492" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="493" hidden="true">
+      <c r="A493" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="B493" s="2"/>
+      <c r="C493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D493" s="2"/>
+      <c r="E493" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F493" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J493" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K493" t="s" s="2">
+        <v>1107</v>
+      </c>
+      <c r="L493" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="M493" t="s" s="2">
+        <v>1109</v>
+      </c>
+      <c r="N493" t="s" s="2">
+        <v>1110</v>
+      </c>
+      <c r="O493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P493" s="2"/>
+      <c r="Q493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE493" t="s" s="2">
+        <v>1106</v>
+      </c>
+      <c r="AF493" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG493" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI493" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL493" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM493" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="494" hidden="true">
+      <c r="A494" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B494" s="2"/>
+      <c r="C494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D494" s="2"/>
+      <c r="E494" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F494" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J494" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K494" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="L494" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="M494" s="2"/>
+      <c r="N494" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="O494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P494" s="2"/>
+      <c r="Q494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W494" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X494" t="s" s="2">
+        <v>1115</v>
+      </c>
+      <c r="Y494" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="Z494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE494" t="s" s="2">
+        <v>1111</v>
+      </c>
+      <c r="AF494" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG494" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI494" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL494" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM494" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="495" hidden="true">
+      <c r="A495" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="B495" s="2"/>
+      <c r="C495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D495" s="2"/>
+      <c r="E495" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F495" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J495" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K495" t="s" s="2">
+        <v>1118</v>
+      </c>
+      <c r="L495" t="s" s="2">
+        <v>1119</v>
+      </c>
+      <c r="M495" s="2"/>
+      <c r="N495" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="O495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P495" s="2"/>
+      <c r="Q495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W495" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X495" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="Y495" t="s" s="2">
+        <v>1122</v>
+      </c>
+      <c r="Z495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE495" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="AF495" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG495" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI495" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL495" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM495" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="496" hidden="true">
+      <c r="A496" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="B496" s="2"/>
+      <c r="C496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D496" s="2"/>
+      <c r="E496" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F496" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J496" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K496" t="s" s="2">
+        <v>1124</v>
+      </c>
+      <c r="L496" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="M496" s="2"/>
+      <c r="N496" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="O496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P496" s="2"/>
+      <c r="Q496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W496" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X496" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="Y496" t="s" s="2">
+        <v>1127</v>
+      </c>
+      <c r="Z496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE496" t="s" s="2">
+        <v>1123</v>
+      </c>
+      <c r="AF496" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG496" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI496" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL496" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM496" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="497" hidden="true">
+      <c r="A497" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="B497" s="2"/>
+      <c r="C497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D497" s="2"/>
+      <c r="E497" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F497" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J497" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K497" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="L497" t="s" s="2">
+        <v>1130</v>
+      </c>
+      <c r="M497" s="2"/>
+      <c r="N497" s="2"/>
+      <c r="O497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P497" s="2"/>
+      <c r="Q497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE497" t="s" s="2">
+        <v>1128</v>
+      </c>
+      <c r="AF497" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG497" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI497" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL497" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM497" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="498" hidden="true">
+      <c r="A498" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="B498" s="2"/>
+      <c r="C498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D498" s="2"/>
+      <c r="E498" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F498" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J498" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K498" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L498" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M498" s="2"/>
+      <c r="N498" s="2"/>
+      <c r="O498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P498" s="2"/>
+      <c r="Q498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE498" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF498" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG498" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL498" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM498" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="499" hidden="true">
+      <c r="A499" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="B499" s="2"/>
+      <c r="C499" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D499" s="2"/>
+      <c r="E499" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F499" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J499" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K499" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L499" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M499" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N499" s="2"/>
+      <c r="O499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P499" s="2"/>
+      <c r="Q499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE499" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF499" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG499" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI499" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL499" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM499" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="500" hidden="true">
+      <c r="A500" t="s" s="2">
+        <v>1133</v>
+      </c>
+      <c r="B500" s="2"/>
+      <c r="C500" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="D500" s="2"/>
+      <c r="E500" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F500" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H500" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I500" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J500" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K500" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L500" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M500" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N500" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P500" s="2"/>
+      <c r="Q500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE500" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF500" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG500" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI500" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL500" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM500" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="501" hidden="true">
+      <c r="A501" t="s" s="2">
+        <v>1134</v>
+      </c>
+      <c r="B501" s="2"/>
+      <c r="C501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D501" s="2"/>
+      <c r="E501" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F501" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J501" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K501" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L501" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="M501" t="s" s="2">
+        <v>1136</v>
+      </c>
+      <c r="N501" t="s" s="2">
+        <v>1137</v>
+      </c>
+      <c r="O501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P501" s="2"/>
+      <c r="Q501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W501" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X501" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="Y501" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="Z501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE501" t="s" s="2">
+        <v>1134</v>
+      </c>
+      <c r="AF501" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG501" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI501" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL501" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM501" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="502" hidden="true">
+      <c r="A502" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="B502" s="2"/>
+      <c r="C502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D502" s="2"/>
+      <c r="E502" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F502" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J502" t="s" s="2">
+        <v>1141</v>
+      </c>
+      <c r="K502" t="s" s="2">
+        <v>1142</v>
+      </c>
+      <c r="L502" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="M502" s="2"/>
+      <c r="N502" t="s" s="2">
+        <v>1144</v>
+      </c>
+      <c r="O502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P502" s="2"/>
+      <c r="Q502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE502" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="AF502" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG502" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI502" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL502" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM502" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="503" hidden="true">
+      <c r="A503" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="B503" s="2"/>
+      <c r="C503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D503" s="2"/>
+      <c r="E503" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F503" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J503" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="K503" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="L503" t="s" s="2">
+        <v>1148</v>
+      </c>
+      <c r="M503" s="2"/>
+      <c r="N503" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="O503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P503" s="2"/>
+      <c r="Q503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE503" t="s" s="2">
+        <v>1145</v>
+      </c>
+      <c r="AF503" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG503" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI503" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL503" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM503" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM469">
+  <autoFilter ref="A1:AM503">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -55961,7 +59818,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI468">
+  <conditionalFormatting sqref="A2:AI502">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$503</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$469</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17727" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16524" uniqueCount="1132">
   <si>
     <t>Path</t>
   </si>
@@ -3010,60 +3010,6 @@
   </si>
   <si>
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.value</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.system</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.version</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.code</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.display</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.text</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total</t>
@@ -3680,7 +3626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM503"/>
+  <dimension ref="A1:AM469"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -50887,7 +50833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="424" hidden="true">
+    <row r="424">
       <c r="A424" t="s" s="2">
         <v>973</v>
       </c>
@@ -50897,7 +50843,7 @@
       </c>
       <c r="D424" s="2"/>
       <c r="E424" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F424" t="s" s="2">
         <v>42</v>
@@ -50912,7 +50858,7 @@
         <v>43</v>
       </c>
       <c r="J424" t="s" s="2">
-        <v>375</v>
+        <v>43</v>
       </c>
       <c r="K424" t="s" s="2">
         <v>974</v>
@@ -50959,16 +50905,16 @@
         <v>43</v>
       </c>
       <c r="AA424" t="s" s="2">
-        <v>516</v>
+        <v>43</v>
       </c>
       <c r="AB424" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="AC424" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD424" t="s" s="2">
-        <v>649</v>
+        <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
         <v>973</v>
@@ -51011,7 +50957,7 @@
         <v>41</v>
       </c>
       <c r="F425" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G425" t="s" s="2">
         <v>43</v>
@@ -51020,19 +50966,23 @@
         <v>43</v>
       </c>
       <c r="I425" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J425" t="s" s="2">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="K425" t="s" s="2">
-        <v>64</v>
+        <v>978</v>
       </c>
       <c r="L425" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M425" s="2"/>
-      <c r="N425" s="2"/>
+        <v>979</v>
+      </c>
+      <c r="M425" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N425" t="s" s="2">
+        <v>981</v>
+      </c>
       <c r="O425" t="s" s="2">
         <v>43</v>
       </c>
@@ -51080,19 +51030,19 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>66</v>
+        <v>977</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG425" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH425" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI425" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ425" t="s" s="2">
         <v>43</v>
@@ -51104,23 +51054,23 @@
         <v>43</v>
       </c>
       <c r="AM425" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F426" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G426" t="s" s="2">
         <v>43</v>
@@ -51132,17 +51082,15 @@
         <v>43</v>
       </c>
       <c r="J426" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L426" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M426" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M426" s="2"/>
       <c r="N426" s="2"/>
       <c r="O426" t="s" s="2">
         <v>43</v>
@@ -51191,19 +51139,19 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG426" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH426" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI426" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ426" t="s" s="2">
         <v>43</v>
@@ -51220,11 +51168,11 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
-        <v>383</v>
+        <v>69</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" t="s" s="2">
@@ -51237,26 +51185,24 @@
         <v>43</v>
       </c>
       <c r="H427" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I427" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J427" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K427" t="s" s="2">
-        <v>384</v>
+        <v>71</v>
       </c>
       <c r="L427" t="s" s="2">
-        <v>385</v>
+        <v>72</v>
       </c>
       <c r="M427" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N427" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N427" s="2"/>
       <c r="O427" t="s" s="2">
         <v>43</v>
       </c>
@@ -51304,7 +51250,7 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
@@ -51328,47 +51274,47 @@
         <v>43</v>
       </c>
       <c r="AM427" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F428" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G428" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H428" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I428" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J428" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K428" t="s" s="2">
-        <v>819</v>
+        <v>384</v>
       </c>
       <c r="L428" t="s" s="2">
-        <v>820</v>
+        <v>385</v>
       </c>
       <c r="M428" t="s" s="2">
-        <v>821</v>
+        <v>73</v>
       </c>
       <c r="N428" t="s" s="2">
-        <v>822</v>
+        <v>156</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>43</v>
@@ -51393,11 +51339,13 @@
         <v>43</v>
       </c>
       <c r="W428" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X428" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X428" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y428" t="s" s="2">
-        <v>823</v>
+        <v>43</v>
       </c>
       <c r="Z428" t="s" s="2">
         <v>43</v>
@@ -51415,19 +51363,19 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>818</v>
+        <v>386</v>
       </c>
       <c r="AF428" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG428" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH428" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI428" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ428" t="s" s="2">
         <v>43</v>
@@ -51439,12 +51387,12 @@
         <v>43</v>
       </c>
       <c r="AM428" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51452,7 +51400,7 @@
       </c>
       <c r="D429" s="2"/>
       <c r="E429" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F429" t="s" s="2">
         <v>50</v>
@@ -51464,22 +51412,22 @@
         <v>43</v>
       </c>
       <c r="I429" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J429" t="s" s="2">
         <v>180</v>
       </c>
       <c r="K429" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="L429" t="s" s="2">
-        <v>826</v>
+        <v>986</v>
       </c>
       <c r="M429" t="s" s="2">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="N429" t="s" s="2">
-        <v>828</v>
+        <v>987</v>
       </c>
       <c r="O429" t="s" s="2">
         <v>43</v>
@@ -51504,13 +51452,11 @@
         <v>43</v>
       </c>
       <c r="W429" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X429" t="s" s="2">
-        <v>829</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X429" s="2"/>
       <c r="Y429" t="s" s="2">
-        <v>830</v>
+        <v>988</v>
       </c>
       <c r="Z429" t="s" s="2">
         <v>43</v>
@@ -51528,10 +51474,10 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>824</v>
+        <v>985</v>
       </c>
       <c r="AF429" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG429" t="s" s="2">
         <v>50</v>
@@ -51557,7 +51503,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
@@ -51565,7 +51511,7 @@
       </c>
       <c r="D430" s="2"/>
       <c r="E430" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F430" t="s" s="2">
         <v>50</v>
@@ -51577,22 +51523,20 @@
         <v>43</v>
       </c>
       <c r="I430" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J430" t="s" s="2">
         <v>774</v>
       </c>
       <c r="K430" t="s" s="2">
-        <v>832</v>
+        <v>990</v>
       </c>
       <c r="L430" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="M430" t="s" s="2">
-        <v>834</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="M430" s="2"/>
       <c r="N430" t="s" s="2">
-        <v>835</v>
+        <v>992</v>
       </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
@@ -51641,10 +51585,10 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>831</v>
+        <v>989</v>
       </c>
       <c r="AF430" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG430" t="s" s="2">
         <v>50</v>
@@ -51668,9 +51612,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="431" hidden="true">
+    <row r="431">
       <c r="A431" t="s" s="2">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51684,7 +51628,7 @@
         <v>50</v>
       </c>
       <c r="G431" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H431" t="s" s="2">
         <v>43</v>
@@ -51693,19 +51637,17 @@
         <v>43</v>
       </c>
       <c r="J431" t="s" s="2">
-        <v>779</v>
+        <v>375</v>
       </c>
       <c r="K431" t="s" s="2">
-        <v>837</v>
+        <v>994</v>
       </c>
       <c r="L431" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="M431" t="s" s="2">
-        <v>839</v>
-      </c>
+        <v>995</v>
+      </c>
+      <c r="M431" s="2"/>
       <c r="N431" t="s" s="2">
-        <v>840</v>
+        <v>996</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51754,7 +51696,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>836</v>
+        <v>993</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
@@ -51781,13 +51723,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="B432" t="s" s="2">
-        <v>841</v>
-      </c>
+        <v>997</v>
+      </c>
+      <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
         <v>43</v>
       </c>
@@ -51796,10 +51736,10 @@
         <v>41</v>
       </c>
       <c r="F432" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G432" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H432" t="s" s="2">
         <v>43</v>
@@ -51808,18 +51748,16 @@
         <v>43</v>
       </c>
       <c r="J432" t="s" s="2">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="K432" t="s" s="2">
-        <v>842</v>
+        <v>64</v>
       </c>
       <c r="L432" t="s" s="2">
-        <v>975</v>
+        <v>65</v>
       </c>
       <c r="M432" s="2"/>
-      <c r="N432" t="s" s="2">
-        <v>976</v>
-      </c>
+      <c r="N432" s="2"/>
       <c r="O432" t="s" s="2">
         <v>43</v>
       </c>
@@ -51867,19 +51805,19 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>973</v>
+        <v>66</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG432" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH432" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI432" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ432" t="s" s="2">
         <v>43</v>
@@ -51891,23 +51829,23 @@
         <v>43</v>
       </c>
       <c r="AM432" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>977</v>
+        <v>998</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F433" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G433" t="s" s="2">
         <v>43</v>
@@ -51919,15 +51857,17 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M433" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M433" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N433" s="2"/>
       <c r="O433" t="s" s="2">
         <v>43</v>
@@ -51976,19 +51916,19 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG433" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH433" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI433" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ433" t="s" s="2">
         <v>43</v>
@@ -52005,11 +51945,11 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>978</v>
+        <v>999</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s" s="2">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" t="s" s="2">
@@ -52022,24 +51962,26 @@
         <v>43</v>
       </c>
       <c r="H434" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I434" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J434" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K434" t="s" s="2">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="M434" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N434" s="2"/>
+      <c r="N434" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O434" t="s" s="2">
         <v>43</v>
       </c>
@@ -52087,7 +52029,7 @@
         <v>43</v>
       </c>
       <c r="AE434" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AF434" t="s" s="2">
         <v>41</v>
@@ -52111,47 +52053,45 @@
         <v>43</v>
       </c>
       <c r="AM434" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>979</v>
+        <v>1000</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F435" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G435" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H435" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I435" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J435" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>384</v>
+        <v>1001</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M435" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1002</v>
+      </c>
+      <c r="M435" s="2"/>
       <c r="N435" t="s" s="2">
-        <v>156</v>
+        <v>1003</v>
       </c>
       <c r="O435" t="s" s="2">
         <v>43</v>
@@ -52176,13 +52116,11 @@
         <v>43</v>
       </c>
       <c r="W435" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X435" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X435" s="2"/>
       <c r="Y435" t="s" s="2">
-        <v>43</v>
+        <v>1004</v>
       </c>
       <c r="Z435" t="s" s="2">
         <v>43</v>
@@ -52200,19 +52138,19 @@
         <v>43</v>
       </c>
       <c r="AE435" t="s" s="2">
-        <v>386</v>
+        <v>1000</v>
       </c>
       <c r="AF435" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG435" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH435" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI435" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ435" t="s" s="2">
         <v>43</v>
@@ -52224,12 +52162,12 @@
         <v>43</v>
       </c>
       <c r="AM435" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>980</v>
+        <v>1005</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s" s="2">
@@ -52237,7 +52175,7 @@
       </c>
       <c r="D436" s="2"/>
       <c r="E436" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F436" t="s" s="2">
         <v>50</v>
@@ -52252,19 +52190,19 @@
         <v>43</v>
       </c>
       <c r="J436" t="s" s="2">
-        <v>180</v>
+        <v>774</v>
       </c>
       <c r="K436" t="s" s="2">
-        <v>819</v>
+        <v>1006</v>
       </c>
       <c r="L436" t="s" s="2">
-        <v>820</v>
+        <v>1007</v>
       </c>
       <c r="M436" t="s" s="2">
-        <v>821</v>
+        <v>1008</v>
       </c>
       <c r="N436" t="s" s="2">
-        <v>822</v>
+        <v>1009</v>
       </c>
       <c r="O436" t="s" s="2">
         <v>43</v>
@@ -52289,11 +52227,13 @@
         <v>43</v>
       </c>
       <c r="W436" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X436" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X436" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y436" t="s" s="2">
-        <v>843</v>
+        <v>43</v>
       </c>
       <c r="Z436" t="s" s="2">
         <v>43</v>
@@ -52311,10 +52251,10 @@
         <v>43</v>
       </c>
       <c r="AE436" t="s" s="2">
-        <v>818</v>
+        <v>1005</v>
       </c>
       <c r="AF436" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG436" t="s" s="2">
         <v>50</v>
@@ -52340,7 +52280,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s" s="2">
@@ -52366,16 +52306,14 @@
         <v>180</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>825</v>
+        <v>1011</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="M437" t="s" s="2">
-        <v>827</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="M437" s="2"/>
       <c r="N437" t="s" s="2">
-        <v>828</v>
+        <v>1013</v>
       </c>
       <c r="O437" t="s" s="2">
         <v>43</v>
@@ -52400,13 +52338,11 @@
         <v>43</v>
       </c>
       <c r="W437" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X437" t="s" s="2">
-        <v>829</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X437" s="2"/>
       <c r="Y437" t="s" s="2">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="Z437" t="s" s="2">
         <v>43</v>
@@ -52424,7 +52360,7 @@
         <v>43</v>
       </c>
       <c r="AE437" t="s" s="2">
-        <v>824</v>
+        <v>1010</v>
       </c>
       <c r="AF437" t="s" s="2">
         <v>41</v>
@@ -52453,7 +52389,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>982</v>
+        <v>1014</v>
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s" s="2">
@@ -52461,7 +52397,7 @@
       </c>
       <c r="D438" s="2"/>
       <c r="E438" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F438" t="s" s="2">
         <v>50</v>
@@ -52476,19 +52412,17 @@
         <v>43</v>
       </c>
       <c r="J438" t="s" s="2">
-        <v>774</v>
+        <v>571</v>
       </c>
       <c r="K438" t="s" s="2">
-        <v>832</v>
+        <v>1015</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="M438" t="s" s="2">
-        <v>834</v>
-      </c>
+        <v>1016</v>
+      </c>
+      <c r="M438" s="2"/>
       <c r="N438" t="s" s="2">
-        <v>835</v>
+        <v>1017</v>
       </c>
       <c r="O438" t="s" s="2">
         <v>43</v>
@@ -52537,7 +52471,7 @@
         <v>43</v>
       </c>
       <c r="AE438" t="s" s="2">
-        <v>831</v>
+        <v>1014</v>
       </c>
       <c r="AF438" t="s" s="2">
         <v>41</v>
@@ -52566,7 +52500,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>983</v>
+        <v>1018</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s" s="2">
@@ -52589,19 +52523,17 @@
         <v>43</v>
       </c>
       <c r="J439" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>837</v>
+        <v>1019</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="M439" t="s" s="2">
-        <v>839</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="M439" s="2"/>
       <c r="N439" t="s" s="2">
-        <v>840</v>
+        <v>1021</v>
       </c>
       <c r="O439" t="s" s="2">
         <v>43</v>
@@ -52650,7 +52582,7 @@
         <v>43</v>
       </c>
       <c r="AE439" t="s" s="2">
-        <v>836</v>
+        <v>1018</v>
       </c>
       <c r="AF439" t="s" s="2">
         <v>41</v>
@@ -52677,25 +52609,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>973</v>
-      </c>
-      <c r="B440" t="s" s="2">
-        <v>858</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="B440" s="2"/>
       <c r="C440" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F440" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G440" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H440" t="s" s="2">
         <v>43</v>
@@ -52704,17 +52634,19 @@
         <v>43</v>
       </c>
       <c r="J440" t="s" s="2">
-        <v>375</v>
+        <v>159</v>
       </c>
       <c r="K440" t="s" s="2">
-        <v>859</v>
+        <v>1023</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="M440" s="2"/>
+        <v>1024</v>
+      </c>
+      <c r="M440" t="s" s="2">
+        <v>1025</v>
+      </c>
       <c r="N440" t="s" s="2">
-        <v>976</v>
+        <v>1026</v>
       </c>
       <c r="O440" t="s" s="2">
         <v>43</v>
@@ -52763,13 +52695,13 @@
         <v>43</v>
       </c>
       <c r="AE440" t="s" s="2">
-        <v>973</v>
+        <v>1022</v>
       </c>
       <c r="AF440" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG440" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH440" t="s" s="2">
         <v>43</v>
@@ -52792,7 +52724,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>977</v>
+        <v>1027</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s" s="2">
@@ -52815,16 +52747,20 @@
         <v>43</v>
       </c>
       <c r="J441" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>64</v>
+        <v>1028</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M441" s="2"/>
-      <c r="N441" s="2"/>
+        <v>1029</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="N441" t="s" s="2">
+        <v>1031</v>
+      </c>
       <c r="O441" t="s" s="2">
         <v>43</v>
       </c>
@@ -52848,13 +52784,13 @@
         <v>43</v>
       </c>
       <c r="W441" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X441" t="s" s="2">
-        <v>43</v>
+        <v>1032</v>
       </c>
       <c r="Y441" t="s" s="2">
-        <v>43</v>
+        <v>1033</v>
       </c>
       <c r="Z441" t="s" s="2">
         <v>43</v>
@@ -52872,7 +52808,7 @@
         <v>43</v>
       </c>
       <c r="AE441" t="s" s="2">
-        <v>66</v>
+        <v>1027</v>
       </c>
       <c r="AF441" t="s" s="2">
         <v>41</v>
@@ -52884,7 +52820,7 @@
         <v>43</v>
       </c>
       <c r="AI441" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ441" t="s" s="2">
         <v>43</v>
@@ -52896,23 +52832,23 @@
         <v>43</v>
       </c>
       <c r="AM441" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>978</v>
+        <v>1034</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F442" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G442" t="s" s="2">
         <v>43</v>
@@ -52924,18 +52860,20 @@
         <v>43</v>
       </c>
       <c r="J442" t="s" s="2">
-        <v>70</v>
+        <v>1035</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>71</v>
+        <v>1036</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>72</v>
+        <v>1037</v>
       </c>
       <c r="M442" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N442" s="2"/>
+        <v>1038</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>1039</v>
+      </c>
       <c r="O442" t="s" s="2">
         <v>43</v>
       </c>
@@ -52983,19 +52921,19 @@
         <v>43</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>77</v>
+        <v>1034</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG442" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH442" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI442" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ442" t="s" s="2">
         <v>43</v>
@@ -53007,16 +52945,16 @@
         <v>43</v>
       </c>
       <c r="AM442" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>979</v>
+        <v>1040</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" t="s" s="2">
@@ -53029,25 +52967,23 @@
         <v>43</v>
       </c>
       <c r="H443" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I443" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J443" t="s" s="2">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="K443" t="s" s="2">
-        <v>384</v>
+        <v>1041</v>
       </c>
       <c r="L443" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M443" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1042</v>
+      </c>
+      <c r="M443" s="2"/>
       <c r="N443" t="s" s="2">
-        <v>156</v>
+        <v>1043</v>
       </c>
       <c r="O443" t="s" s="2">
         <v>43</v>
@@ -53096,7 +53032,7 @@
         <v>43</v>
       </c>
       <c r="AE443" t="s" s="2">
-        <v>386</v>
+        <v>1040</v>
       </c>
       <c r="AF443" t="s" s="2">
         <v>41</v>
@@ -53108,7 +53044,7 @@
         <v>43</v>
       </c>
       <c r="AI443" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ443" t="s" s="2">
         <v>43</v>
@@ -53120,12 +53056,12 @@
         <v>43</v>
       </c>
       <c r="AM443" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>980</v>
+        <v>1044</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s" s="2">
@@ -53133,7 +53069,7 @@
       </c>
       <c r="D444" s="2"/>
       <c r="E444" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F444" t="s" s="2">
         <v>50</v>
@@ -53148,20 +53084,16 @@
         <v>43</v>
       </c>
       <c r="J444" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>819</v>
+        <v>64</v>
       </c>
       <c r="L444" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="M444" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="N444" t="s" s="2">
-        <v>822</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M444" s="2"/>
+      <c r="N444" s="2"/>
       <c r="O444" t="s" s="2">
         <v>43</v>
       </c>
@@ -53185,11 +53117,13 @@
         <v>43</v>
       </c>
       <c r="W444" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X444" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y444" t="s" s="2">
-        <v>860</v>
+        <v>43</v>
       </c>
       <c r="Z444" t="s" s="2">
         <v>43</v>
@@ -53207,10 +53141,10 @@
         <v>43</v>
       </c>
       <c r="AE444" t="s" s="2">
-        <v>818</v>
+        <v>66</v>
       </c>
       <c r="AF444" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG444" t="s" s="2">
         <v>50</v>
@@ -53219,7 +53153,7 @@
         <v>43</v>
       </c>
       <c r="AI444" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ444" t="s" s="2">
         <v>43</v>
@@ -53231,23 +53165,23 @@
         <v>43</v>
       </c>
       <c r="AM444" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>984</v>
+        <v>1045</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F445" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G445" t="s" s="2">
         <v>43</v>
@@ -53259,15 +53193,17 @@
         <v>43</v>
       </c>
       <c r="J445" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L445" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M445" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M445" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N445" s="2"/>
       <c r="O445" t="s" s="2">
         <v>43</v>
@@ -53316,19 +53252,19 @@
         <v>43</v>
       </c>
       <c r="AE445" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF445" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG445" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH445" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI445" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ445" t="s" s="2">
         <v>43</v>
@@ -53345,11 +53281,11 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>985</v>
+        <v>1046</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s" s="2">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" t="s" s="2">
@@ -53362,24 +53298,26 @@
         <v>43</v>
       </c>
       <c r="H446" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I446" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J446" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K446" t="s" s="2">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="L446" t="s" s="2">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="M446" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N446" s="2"/>
+      <c r="N446" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O446" t="s" s="2">
         <v>43</v>
       </c>
@@ -53415,19 +53353,19 @@
         <v>43</v>
       </c>
       <c r="AA446" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="AB446" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AC446" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD446" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE446" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AF446" t="s" s="2">
         <v>41</v>
@@ -53451,12 +53389,12 @@
         <v>43</v>
       </c>
       <c r="AM446" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>986</v>
+        <v>1047</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s" s="2">
@@ -53467,7 +53405,7 @@
         <v>41</v>
       </c>
       <c r="F447" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G447" t="s" s="2">
         <v>43</v>
@@ -53476,22 +53414,20 @@
         <v>43</v>
       </c>
       <c r="I447" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J447" t="s" s="2">
-        <v>104</v>
+        <v>484</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>244</v>
+        <v>1048</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M447" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="M447" s="2"/>
       <c r="N447" t="s" s="2">
-        <v>247</v>
+        <v>1050</v>
       </c>
       <c r="O447" t="s" s="2">
         <v>43</v>
@@ -53540,13 +53476,13 @@
         <v>43</v>
       </c>
       <c r="AE447" t="s" s="2">
-        <v>248</v>
+        <v>1047</v>
       </c>
       <c r="AF447" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG447" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH447" t="s" s="2">
         <v>43</v>
@@ -53561,15 +53497,15 @@
         <v>43</v>
       </c>
       <c r="AL447" t="s" s="2">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="AM447" t="s" s="2">
-        <v>250</v>
+        <v>43</v>
       </c>
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>987</v>
+        <v>1051</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s" s="2">
@@ -53592,16 +53528,18 @@
         <v>43</v>
       </c>
       <c r="J448" t="s" s="2">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="K448" t="s" s="2">
-        <v>64</v>
+        <v>1052</v>
       </c>
       <c r="L448" t="s" s="2">
-        <v>65</v>
+        <v>1053</v>
       </c>
       <c r="M448" s="2"/>
-      <c r="N448" s="2"/>
+      <c r="N448" t="s" s="2">
+        <v>1054</v>
+      </c>
       <c r="O448" t="s" s="2">
         <v>43</v>
       </c>
@@ -53625,13 +53563,13 @@
         <v>43</v>
       </c>
       <c r="W448" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X448" t="s" s="2">
-        <v>43</v>
+        <v>1055</v>
       </c>
       <c r="Y448" t="s" s="2">
-        <v>43</v>
+        <v>1056</v>
       </c>
       <c r="Z448" t="s" s="2">
         <v>43</v>
@@ -53649,7 +53587,7 @@
         <v>43</v>
       </c>
       <c r="AE448" t="s" s="2">
-        <v>66</v>
+        <v>1051</v>
       </c>
       <c r="AF448" t="s" s="2">
         <v>41</v>
@@ -53661,7 +53599,7 @@
         <v>43</v>
       </c>
       <c r="AI448" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ448" t="s" s="2">
         <v>43</v>
@@ -53673,23 +53611,23 @@
         <v>43</v>
       </c>
       <c r="AM448" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>988</v>
+        <v>1057</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F449" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G449" t="s" s="2">
         <v>43</v>
@@ -53701,18 +53639,18 @@
         <v>43</v>
       </c>
       <c r="J449" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>71</v>
+        <v>1058</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M449" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N449" s="2"/>
+        <v>1059</v>
+      </c>
+      <c r="M449" s="2"/>
+      <c r="N449" t="s" s="2">
+        <v>1060</v>
+      </c>
       <c r="O449" t="s" s="2">
         <v>43</v>
       </c>
@@ -53748,31 +53686,31 @@
         <v>43</v>
       </c>
       <c r="AA449" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="AB449" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AC449" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD449" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE449" t="s" s="2">
-        <v>77</v>
+        <v>1057</v>
       </c>
       <c r="AF449" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG449" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH449" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI449" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ449" t="s" s="2">
         <v>43</v>
@@ -53784,12 +53722,12 @@
         <v>43</v>
       </c>
       <c r="AM449" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>989</v>
+        <v>1061</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s" s="2">
@@ -53809,22 +53747,22 @@
         <v>43</v>
       </c>
       <c r="I450" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J450" t="s" s="2">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>254</v>
+        <v>1062</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>255</v>
+        <v>1063</v>
       </c>
       <c r="M450" t="s" s="2">
-        <v>256</v>
+        <v>1064</v>
       </c>
       <c r="N450" t="s" s="2">
-        <v>257</v>
+        <v>1065</v>
       </c>
       <c r="O450" t="s" s="2">
         <v>43</v>
@@ -53849,13 +53787,13 @@
         <v>43</v>
       </c>
       <c r="W450" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X450" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y450" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z450" t="s" s="2">
         <v>43</v>
@@ -53873,7 +53811,7 @@
         <v>43</v>
       </c>
       <c r="AE450" t="s" s="2">
-        <v>258</v>
+        <v>1061</v>
       </c>
       <c r="AF450" t="s" s="2">
         <v>41</v>
@@ -53894,15 +53832,15 @@
         <v>43</v>
       </c>
       <c r="AL450" t="s" s="2">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="AM450" t="s" s="2">
-        <v>260</v>
+        <v>43</v>
       </c>
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>990</v>
+        <v>1066</v>
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s" s="2">
@@ -53922,21 +53860,23 @@
         <v>43</v>
       </c>
       <c r="I451" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J451" t="s" s="2">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="K451" t="s" s="2">
-        <v>262</v>
+        <v>1067</v>
       </c>
       <c r="L451" t="s" s="2">
-        <v>263</v>
+        <v>1068</v>
       </c>
       <c r="M451" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N451" s="2"/>
+        <v>1069</v>
+      </c>
+      <c r="N451" t="s" s="2">
+        <v>1070</v>
+      </c>
       <c r="O451" t="s" s="2">
         <v>43</v>
       </c>
@@ -53984,7 +53924,7 @@
         <v>43</v>
       </c>
       <c r="AE451" t="s" s="2">
-        <v>265</v>
+        <v>1066</v>
       </c>
       <c r="AF451" t="s" s="2">
         <v>41</v>
@@ -54005,15 +53945,15 @@
         <v>43</v>
       </c>
       <c r="AL451" t="s" s="2">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="AM451" t="s" s="2">
-        <v>267</v>
+        <v>43</v>
       </c>
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>991</v>
+        <v>1071</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s" s="2">
@@ -54021,10 +53961,10 @@
       </c>
       <c r="D452" s="2"/>
       <c r="E452" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F452" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G452" t="s" s="2">
         <v>43</v>
@@ -54033,21 +53973,19 @@
         <v>43</v>
       </c>
       <c r="I452" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J452" t="s" s="2">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="K452" t="s" s="2">
-        <v>269</v>
+        <v>1072</v>
       </c>
       <c r="L452" t="s" s="2">
-        <v>270</v>
+        <v>1073</v>
       </c>
       <c r="M452" s="2"/>
-      <c r="N452" t="s" s="2">
-        <v>271</v>
-      </c>
+      <c r="N452" s="2"/>
       <c r="O452" t="s" s="2">
         <v>43</v>
       </c>
@@ -54056,7 +53994,7 @@
         <v>43</v>
       </c>
       <c r="R452" t="s" s="2">
-        <v>858</v>
+        <v>43</v>
       </c>
       <c r="S452" t="s" s="2">
         <v>43</v>
@@ -54095,13 +54033,13 @@
         <v>43</v>
       </c>
       <c r="AE452" t="s" s="2">
-        <v>273</v>
+        <v>1071</v>
       </c>
       <c r="AF452" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG452" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH452" t="s" s="2">
         <v>43</v>
@@ -54116,15 +54054,15 @@
         <v>43</v>
       </c>
       <c r="AL452" t="s" s="2">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="AM452" t="s" s="2">
-        <v>275</v>
+        <v>43</v>
       </c>
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>992</v>
+        <v>1074</v>
       </c>
       <c r="B453" s="2"/>
       <c r="C453" t="s" s="2">
@@ -54144,21 +54082,19 @@
         <v>43</v>
       </c>
       <c r="I453" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J453" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K453" t="s" s="2">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="L453" t="s" s="2">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="M453" s="2"/>
-      <c r="N453" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="N453" s="2"/>
       <c r="O453" t="s" s="2">
         <v>43</v>
       </c>
@@ -54206,7 +54142,7 @@
         <v>43</v>
       </c>
       <c r="AE453" t="s" s="2">
-        <v>280</v>
+        <v>66</v>
       </c>
       <c r="AF453" t="s" s="2">
         <v>41</v>
@@ -54218,7 +54154,7 @@
         <v>43</v>
       </c>
       <c r="AI453" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ453" t="s" s="2">
         <v>43</v>
@@ -54227,26 +54163,26 @@
         <v>43</v>
       </c>
       <c r="AL453" t="s" s="2">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="AM453" t="s" s="2">
-        <v>282</v>
+        <v>67</v>
       </c>
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>993</v>
+        <v>1075</v>
       </c>
       <c r="B454" s="2"/>
       <c r="C454" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F454" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G454" t="s" s="2">
         <v>43</v>
@@ -54255,23 +54191,21 @@
         <v>43</v>
       </c>
       <c r="I454" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J454" t="s" s="2">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="K454" t="s" s="2">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="L454" t="s" s="2">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="M454" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N454" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N454" s="2"/>
       <c r="O454" t="s" s="2">
         <v>43</v>
       </c>
@@ -54319,19 +54253,19 @@
         <v>43</v>
       </c>
       <c r="AE454" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AF454" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG454" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH454" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI454" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ454" t="s" s="2">
         <v>43</v>
@@ -54340,50 +54274,50 @@
         <v>43</v>
       </c>
       <c r="AL454" t="s" s="2">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="AM454" t="s" s="2">
-        <v>291</v>
+        <v>67</v>
       </c>
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>994</v>
+        <v>1076</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F455" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G455" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H455" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I455" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J455" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>294</v>
+        <v>385</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="N455" t="s" s="2">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="O455" t="s" s="2">
         <v>43</v>
@@ -54432,19 +54366,19 @@
         <v>43</v>
       </c>
       <c r="AE455" t="s" s="2">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="AF455" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG455" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH455" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI455" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ455" t="s" s="2">
         <v>43</v>
@@ -54453,15 +54387,15 @@
         <v>43</v>
       </c>
       <c r="AL455" t="s" s="2">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="AM455" t="s" s="2">
-        <v>299</v>
+        <v>149</v>
       </c>
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>981</v>
+        <v>1077</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" t="s" s="2">
@@ -54469,7 +54403,7 @@
       </c>
       <c r="D456" s="2"/>
       <c r="E456" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F456" t="s" s="2">
         <v>50</v>
@@ -54487,16 +54421,16 @@
         <v>180</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>825</v>
+        <v>731</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>826</v>
+        <v>732</v>
       </c>
       <c r="M456" t="s" s="2">
-        <v>827</v>
+        <v>733</v>
       </c>
       <c r="N456" t="s" s="2">
-        <v>828</v>
+        <v>1078</v>
       </c>
       <c r="O456" t="s" s="2">
         <v>43</v>
@@ -54524,10 +54458,10 @@
         <v>116</v>
       </c>
       <c r="X456" t="s" s="2">
-        <v>829</v>
+        <v>735</v>
       </c>
       <c r="Y456" t="s" s="2">
-        <v>830</v>
+        <v>736</v>
       </c>
       <c r="Z456" t="s" s="2">
         <v>43</v>
@@ -54545,10 +54479,10 @@
         <v>43</v>
       </c>
       <c r="AE456" t="s" s="2">
-        <v>824</v>
+        <v>1077</v>
       </c>
       <c r="AF456" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG456" t="s" s="2">
         <v>50</v>
@@ -54574,7 +54508,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>982</v>
+        <v>1079</v>
       </c>
       <c r="B457" s="2"/>
       <c r="C457" t="s" s="2">
@@ -54597,19 +54531,17 @@
         <v>43</v>
       </c>
       <c r="J457" t="s" s="2">
-        <v>774</v>
+        <v>284</v>
       </c>
       <c r="K457" t="s" s="2">
-        <v>832</v>
+        <v>1080</v>
       </c>
       <c r="L457" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="M457" t="s" s="2">
-        <v>834</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="M457" s="2"/>
       <c r="N457" t="s" s="2">
-        <v>835</v>
+        <v>1082</v>
       </c>
       <c r="O457" t="s" s="2">
         <v>43</v>
@@ -54658,7 +54590,7 @@
         <v>43</v>
       </c>
       <c r="AE457" t="s" s="2">
-        <v>831</v>
+        <v>1079</v>
       </c>
       <c r="AF457" t="s" s="2">
         <v>41</v>
@@ -54687,7 +54619,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>983</v>
+        <v>1083</v>
       </c>
       <c r="B458" s="2"/>
       <c r="C458" t="s" s="2">
@@ -54710,19 +54642,19 @@
         <v>43</v>
       </c>
       <c r="J458" t="s" s="2">
-        <v>779</v>
+        <v>52</v>
       </c>
       <c r="K458" t="s" s="2">
-        <v>837</v>
+        <v>1084</v>
       </c>
       <c r="L458" t="s" s="2">
-        <v>838</v>
+        <v>1085</v>
       </c>
       <c r="M458" t="s" s="2">
-        <v>839</v>
+        <v>1086</v>
       </c>
       <c r="N458" t="s" s="2">
-        <v>840</v>
+        <v>1087</v>
       </c>
       <c r="O458" t="s" s="2">
         <v>43</v>
@@ -54771,7 +54703,7 @@
         <v>43</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>836</v>
+        <v>1083</v>
       </c>
       <c r="AF458" t="s" s="2">
         <v>41</v>
@@ -54800,7 +54732,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>995</v>
+        <v>1088</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" t="s" s="2">
@@ -54811,7 +54743,7 @@
         <v>41</v>
       </c>
       <c r="F459" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G459" t="s" s="2">
         <v>43</v>
@@ -54820,22 +54752,22 @@
         <v>43</v>
       </c>
       <c r="I459" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J459" t="s" s="2">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="K459" t="s" s="2">
-        <v>996</v>
+        <v>1089</v>
       </c>
       <c r="L459" t="s" s="2">
-        <v>997</v>
+        <v>1090</v>
       </c>
       <c r="M459" t="s" s="2">
-        <v>998</v>
+        <v>1091</v>
       </c>
       <c r="N459" t="s" s="2">
-        <v>999</v>
+        <v>1092</v>
       </c>
       <c r="O459" t="s" s="2">
         <v>43</v>
@@ -54884,13 +54816,13 @@
         <v>43</v>
       </c>
       <c r="AE459" t="s" s="2">
-        <v>995</v>
+        <v>1088</v>
       </c>
       <c r="AF459" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG459" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH459" t="s" s="2">
         <v>43</v>
@@ -54913,7 +54845,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>1000</v>
+        <v>1093</v>
       </c>
       <c r="B460" s="2"/>
       <c r="C460" t="s" s="2">
@@ -54936,16 +54868,18 @@
         <v>43</v>
       </c>
       <c r="J460" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K460" t="s" s="2">
-        <v>64</v>
+        <v>1094</v>
       </c>
       <c r="L460" t="s" s="2">
-        <v>65</v>
+        <v>1095</v>
       </c>
       <c r="M460" s="2"/>
-      <c r="N460" s="2"/>
+      <c r="N460" t="s" s="2">
+        <v>1096</v>
+      </c>
       <c r="O460" t="s" s="2">
         <v>43</v>
       </c>
@@ -54969,13 +54903,13 @@
         <v>43</v>
       </c>
       <c r="W460" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X460" t="s" s="2">
-        <v>43</v>
+        <v>1097</v>
       </c>
       <c r="Y460" t="s" s="2">
-        <v>43</v>
+        <v>1098</v>
       </c>
       <c r="Z460" t="s" s="2">
         <v>43</v>
@@ -54993,7 +54927,7 @@
         <v>43</v>
       </c>
       <c r="AE460" t="s" s="2">
-        <v>66</v>
+        <v>1093</v>
       </c>
       <c r="AF460" t="s" s="2">
         <v>41</v>
@@ -55005,7 +54939,7 @@
         <v>43</v>
       </c>
       <c r="AI460" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ460" t="s" s="2">
         <v>43</v>
@@ -55017,23 +54951,23 @@
         <v>43</v>
       </c>
       <c r="AM460" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>1001</v>
+        <v>1099</v>
       </c>
       <c r="B461" s="2"/>
       <c r="C461" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F461" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G461" t="s" s="2">
         <v>43</v>
@@ -55045,18 +54979,18 @@
         <v>43</v>
       </c>
       <c r="J461" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K461" t="s" s="2">
-        <v>71</v>
+        <v>1100</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M461" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N461" s="2"/>
+        <v>1101</v>
+      </c>
+      <c r="M461" s="2"/>
+      <c r="N461" t="s" s="2">
+        <v>1102</v>
+      </c>
       <c r="O461" t="s" s="2">
         <v>43</v>
       </c>
@@ -55080,13 +55014,13 @@
         <v>43</v>
       </c>
       <c r="W461" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X461" t="s" s="2">
-        <v>43</v>
+        <v>1103</v>
       </c>
       <c r="Y461" t="s" s="2">
-        <v>43</v>
+        <v>1104</v>
       </c>
       <c r="Z461" t="s" s="2">
         <v>43</v>
@@ -55104,19 +55038,19 @@
         <v>43</v>
       </c>
       <c r="AE461" t="s" s="2">
-        <v>77</v>
+        <v>1099</v>
       </c>
       <c r="AF461" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG461" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH461" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI461" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ461" t="s" s="2">
         <v>43</v>
@@ -55128,47 +55062,45 @@
         <v>43</v>
       </c>
       <c r="AM461" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>1002</v>
+        <v>1105</v>
       </c>
       <c r="B462" s="2"/>
       <c r="C462" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F462" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G462" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H462" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I462" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J462" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K462" t="s" s="2">
-        <v>384</v>
+        <v>1106</v>
       </c>
       <c r="L462" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M462" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="M462" s="2"/>
       <c r="N462" t="s" s="2">
-        <v>156</v>
+        <v>1102</v>
       </c>
       <c r="O462" t="s" s="2">
         <v>43</v>
@@ -55193,13 +55125,13 @@
         <v>43</v>
       </c>
       <c r="W462" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X462" t="s" s="2">
-        <v>43</v>
+        <v>1108</v>
       </c>
       <c r="Y462" t="s" s="2">
-        <v>43</v>
+        <v>1109</v>
       </c>
       <c r="Z462" t="s" s="2">
         <v>43</v>
@@ -55217,19 +55149,19 @@
         <v>43</v>
       </c>
       <c r="AE462" t="s" s="2">
-        <v>386</v>
+        <v>1105</v>
       </c>
       <c r="AF462" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG462" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH462" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI462" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ462" t="s" s="2">
         <v>43</v>
@@ -55241,12 +55173,12 @@
         <v>43</v>
       </c>
       <c r="AM462" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>1003</v>
+        <v>1110</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" t="s" s="2">
@@ -55254,10 +55186,10 @@
       </c>
       <c r="D463" s="2"/>
       <c r="E463" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F463" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G463" t="s" s="2">
         <v>43</v>
@@ -55266,23 +55198,19 @@
         <v>43</v>
       </c>
       <c r="I463" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J463" t="s" s="2">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="K463" t="s" s="2">
-        <v>819</v>
+        <v>1111</v>
       </c>
       <c r="L463" t="s" s="2">
-        <v>1004</v>
-      </c>
-      <c r="M463" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="N463" t="s" s="2">
-        <v>1005</v>
-      </c>
+        <v>1112</v>
+      </c>
+      <c r="M463" s="2"/>
+      <c r="N463" s="2"/>
       <c r="O463" t="s" s="2">
         <v>43</v>
       </c>
@@ -55306,11 +55234,13 @@
         <v>43</v>
       </c>
       <c r="W463" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X463" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X463" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y463" t="s" s="2">
-        <v>1006</v>
+        <v>43</v>
       </c>
       <c r="Z463" t="s" s="2">
         <v>43</v>
@@ -55328,13 +55258,13 @@
         <v>43</v>
       </c>
       <c r="AE463" t="s" s="2">
-        <v>1003</v>
+        <v>1110</v>
       </c>
       <c r="AF463" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG463" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH463" t="s" s="2">
         <v>43</v>
@@ -55357,7 +55287,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>1007</v>
+        <v>1113</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" t="s" s="2">
@@ -55365,7 +55295,7 @@
       </c>
       <c r="D464" s="2"/>
       <c r="E464" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F464" t="s" s="2">
         <v>50</v>
@@ -55377,21 +55307,19 @@
         <v>43</v>
       </c>
       <c r="I464" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J464" t="s" s="2">
-        <v>774</v>
+        <v>52</v>
       </c>
       <c r="K464" t="s" s="2">
-        <v>1008</v>
+        <v>64</v>
       </c>
       <c r="L464" t="s" s="2">
-        <v>1009</v>
+        <v>65</v>
       </c>
       <c r="M464" s="2"/>
-      <c r="N464" t="s" s="2">
-        <v>1010</v>
-      </c>
+      <c r="N464" s="2"/>
       <c r="O464" t="s" s="2">
         <v>43</v>
       </c>
@@ -55439,10 +55367,10 @@
         <v>43</v>
       </c>
       <c r="AE464" t="s" s="2">
-        <v>1007</v>
+        <v>66</v>
       </c>
       <c r="AF464" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG464" t="s" s="2">
         <v>50</v>
@@ -55451,7 +55379,7 @@
         <v>43</v>
       </c>
       <c r="AI464" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ464" t="s" s="2">
         <v>43</v>
@@ -55463,26 +55391,26 @@
         <v>43</v>
       </c>
       <c r="AM464" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>1011</v>
+        <v>1114</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F465" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G465" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H465" t="s" s="2">
         <v>43</v>
@@ -55491,18 +55419,18 @@
         <v>43</v>
       </c>
       <c r="J465" t="s" s="2">
-        <v>375</v>
+        <v>70</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>1012</v>
+        <v>71</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>1013</v>
-      </c>
-      <c r="M465" s="2"/>
-      <c r="N465" t="s" s="2">
-        <v>1014</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M465" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N465" s="2"/>
       <c r="O465" t="s" s="2">
         <v>43</v>
       </c>
@@ -55550,19 +55478,19 @@
         <v>43</v>
       </c>
       <c r="AE465" t="s" s="2">
-        <v>1011</v>
+        <v>77</v>
       </c>
       <c r="AF465" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG465" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH465" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI465" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ465" t="s" s="2">
         <v>43</v>
@@ -55574,44 +55502,48 @@
         <v>43</v>
       </c>
       <c r="AM465" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>1015</v>
+        <v>1115</v>
       </c>
       <c r="B466" s="2"/>
       <c r="C466" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F466" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G466" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H466" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I466" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J466" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K466" t="s" s="2">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="L466" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M466" s="2"/>
-      <c r="N466" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="M466" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N466" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O466" t="s" s="2">
         <v>43</v>
       </c>
@@ -55659,19 +55591,19 @@
         <v>43</v>
       </c>
       <c r="AE466" t="s" s="2">
-        <v>66</v>
+        <v>386</v>
       </c>
       <c r="AF466" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG466" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH466" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI466" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ466" t="s" s="2">
         <v>43</v>
@@ -55683,23 +55615,23 @@
         <v>43</v>
       </c>
       <c r="AM466" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>1016</v>
+        <v>1116</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F467" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G467" t="s" s="2">
         <v>43</v>
@@ -55711,18 +55643,20 @@
         <v>43</v>
       </c>
       <c r="J467" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K467" t="s" s="2">
-        <v>71</v>
+        <v>731</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>72</v>
+        <v>1117</v>
       </c>
       <c r="M467" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N467" s="2"/>
+        <v>1118</v>
+      </c>
+      <c r="N467" t="s" s="2">
+        <v>1119</v>
+      </c>
       <c r="O467" t="s" s="2">
         <v>43</v>
       </c>
@@ -55746,13 +55680,13 @@
         <v>43</v>
       </c>
       <c r="W467" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X467" t="s" s="2">
-        <v>43</v>
+        <v>1120</v>
       </c>
       <c r="Y467" t="s" s="2">
-        <v>43</v>
+        <v>1121</v>
       </c>
       <c r="Z467" t="s" s="2">
         <v>43</v>
@@ -55770,19 +55704,19 @@
         <v>43</v>
       </c>
       <c r="AE467" t="s" s="2">
-        <v>77</v>
+        <v>1116</v>
       </c>
       <c r="AF467" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG467" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH467" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI467" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ467" t="s" s="2">
         <v>43</v>
@@ -55794,47 +55728,45 @@
         <v>43</v>
       </c>
       <c r="AM467" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>1017</v>
+        <v>1122</v>
       </c>
       <c r="B468" s="2"/>
       <c r="C468" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F468" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G468" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H468" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I468" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J468" t="s" s="2">
-        <v>70</v>
+        <v>1123</v>
       </c>
       <c r="K468" t="s" s="2">
-        <v>384</v>
+        <v>1124</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M468" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="M468" s="2"/>
       <c r="N468" t="s" s="2">
-        <v>156</v>
+        <v>1126</v>
       </c>
       <c r="O468" t="s" s="2">
         <v>43</v>
@@ -55883,19 +55815,19 @@
         <v>43</v>
       </c>
       <c r="AE468" t="s" s="2">
-        <v>386</v>
+        <v>1122</v>
       </c>
       <c r="AF468" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG468" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH468" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI468" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ468" t="s" s="2">
         <v>43</v>
@@ -55907,12 +55839,12 @@
         <v>43</v>
       </c>
       <c r="AM468" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>1018</v>
+        <v>1127</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" t="s" s="2">
@@ -55935,17 +55867,17 @@
         <v>43</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>180</v>
+        <v>1128</v>
       </c>
       <c r="K469" t="s" s="2">
-        <v>1019</v>
+        <v>1129</v>
       </c>
       <c r="L469" t="s" s="2">
-        <v>1020</v>
+        <v>1130</v>
       </c>
       <c r="M469" s="2"/>
       <c r="N469" t="s" s="2">
-        <v>1021</v>
+        <v>1131</v>
       </c>
       <c r="O469" t="s" s="2">
         <v>43</v>
@@ -55970,11 +55902,13 @@
         <v>43</v>
       </c>
       <c r="W469" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X469" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X469" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y469" t="s" s="2">
-        <v>1022</v>
+        <v>43</v>
       </c>
       <c r="Z469" t="s" s="2">
         <v>43</v>
@@ -55992,7 +55926,7 @@
         <v>43</v>
       </c>
       <c r="AE469" t="s" s="2">
-        <v>1018</v>
+        <v>1127</v>
       </c>
       <c r="AF469" t="s" s="2">
         <v>41</v>
@@ -56019,3796 +55953,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="470" hidden="true">
-      <c r="A470" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="B470" s="2"/>
-      <c r="C470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D470" s="2"/>
-      <c r="E470" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F470" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J470" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="K470" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="L470" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="M470" t="s" s="2">
-        <v>1026</v>
-      </c>
-      <c r="N470" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="O470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P470" s="2"/>
-      <c r="Q470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE470" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="AF470" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG470" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI470" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL470" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM470" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="471" hidden="true">
-      <c r="A471" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="B471" s="2"/>
-      <c r="C471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D471" s="2"/>
-      <c r="E471" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F471" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J471" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K471" t="s" s="2">
-        <v>1029</v>
-      </c>
-      <c r="L471" t="s" s="2">
-        <v>1030</v>
-      </c>
-      <c r="M471" s="2"/>
-      <c r="N471" t="s" s="2">
-        <v>1031</v>
-      </c>
-      <c r="O471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P471" s="2"/>
-      <c r="Q471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W471" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X471" s="2"/>
-      <c r="Y471" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="Z471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE471" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="AF471" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG471" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI471" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL471" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM471" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="472" hidden="true">
-      <c r="A472" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="B472" s="2"/>
-      <c r="C472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D472" s="2"/>
-      <c r="E472" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F472" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J472" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="K472" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="L472" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="M472" s="2"/>
-      <c r="N472" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="O472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P472" s="2"/>
-      <c r="Q472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE472" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="AF472" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG472" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI472" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL472" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM472" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="473" hidden="true">
-      <c r="A473" t="s" s="2">
-        <v>1036</v>
-      </c>
-      <c r="B473" s="2"/>
-      <c r="C473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D473" s="2"/>
-      <c r="E473" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F473" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J473" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="K473" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="L473" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M473" s="2"/>
-      <c r="N473" t="s" s="2">
-        <v>1039</v>
-      </c>
-      <c r="O473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P473" s="2"/>
-      <c r="Q473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE473" t="s" s="2">
-        <v>1036</v>
-      </c>
-      <c r="AF473" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG473" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI473" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL473" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM473" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="474" hidden="true">
-      <c r="A474" t="s" s="2">
-        <v>1040</v>
-      </c>
-      <c r="B474" s="2"/>
-      <c r="C474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D474" s="2"/>
-      <c r="E474" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F474" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J474" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K474" t="s" s="2">
-        <v>1041</v>
-      </c>
-      <c r="L474" t="s" s="2">
-        <v>1042</v>
-      </c>
-      <c r="M474" t="s" s="2">
-        <v>1043</v>
-      </c>
-      <c r="N474" t="s" s="2">
-        <v>1044</v>
-      </c>
-      <c r="O474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P474" s="2"/>
-      <c r="Q474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE474" t="s" s="2">
-        <v>1040</v>
-      </c>
-      <c r="AF474" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG474" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI474" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL474" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM474" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="475" hidden="true">
-      <c r="A475" t="s" s="2">
-        <v>1045</v>
-      </c>
-      <c r="B475" s="2"/>
-      <c r="C475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D475" s="2"/>
-      <c r="E475" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F475" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J475" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K475" t="s" s="2">
-        <v>1046</v>
-      </c>
-      <c r="L475" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="M475" t="s" s="2">
-        <v>1048</v>
-      </c>
-      <c r="N475" t="s" s="2">
-        <v>1049</v>
-      </c>
-      <c r="O475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P475" s="2"/>
-      <c r="Q475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W475" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X475" t="s" s="2">
-        <v>1050</v>
-      </c>
-      <c r="Y475" t="s" s="2">
-        <v>1051</v>
-      </c>
-      <c r="Z475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE475" t="s" s="2">
-        <v>1045</v>
-      </c>
-      <c r="AF475" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG475" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI475" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL475" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM475" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="476" hidden="true">
-      <c r="A476" t="s" s="2">
-        <v>1052</v>
-      </c>
-      <c r="B476" s="2"/>
-      <c r="C476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D476" s="2"/>
-      <c r="E476" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F476" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J476" t="s" s="2">
-        <v>1053</v>
-      </c>
-      <c r="K476" t="s" s="2">
-        <v>1054</v>
-      </c>
-      <c r="L476" t="s" s="2">
-        <v>1055</v>
-      </c>
-      <c r="M476" t="s" s="2">
-        <v>1056</v>
-      </c>
-      <c r="N476" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="O476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P476" s="2"/>
-      <c r="Q476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE476" t="s" s="2">
-        <v>1052</v>
-      </c>
-      <c r="AF476" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG476" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI476" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL476" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM476" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="477" hidden="true">
-      <c r="A477" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="B477" s="2"/>
-      <c r="C477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D477" s="2"/>
-      <c r="E477" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F477" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J477" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="K477" t="s" s="2">
-        <v>1059</v>
-      </c>
-      <c r="L477" t="s" s="2">
-        <v>1060</v>
-      </c>
-      <c r="M477" s="2"/>
-      <c r="N477" t="s" s="2">
-        <v>1061</v>
-      </c>
-      <c r="O477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P477" s="2"/>
-      <c r="Q477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE477" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="AF477" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG477" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI477" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL477" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM477" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="478" hidden="true">
-      <c r="A478" t="s" s="2">
-        <v>1062</v>
-      </c>
-      <c r="B478" s="2"/>
-      <c r="C478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D478" s="2"/>
-      <c r="E478" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F478" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J478" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K478" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L478" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M478" s="2"/>
-      <c r="N478" s="2"/>
-      <c r="O478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P478" s="2"/>
-      <c r="Q478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE478" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF478" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG478" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL478" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM478" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="479" hidden="true">
-      <c r="A479" t="s" s="2">
-        <v>1063</v>
-      </c>
-      <c r="B479" s="2"/>
-      <c r="C479" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D479" s="2"/>
-      <c r="E479" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F479" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J479" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K479" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L479" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M479" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N479" s="2"/>
-      <c r="O479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P479" s="2"/>
-      <c r="Q479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE479" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF479" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG479" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI479" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL479" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM479" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="480" hidden="true">
-      <c r="A480" t="s" s="2">
-        <v>1064</v>
-      </c>
-      <c r="B480" s="2"/>
-      <c r="C480" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="D480" s="2"/>
-      <c r="E480" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F480" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H480" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I480" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J480" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K480" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L480" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M480" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N480" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P480" s="2"/>
-      <c r="Q480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE480" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF480" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG480" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI480" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL480" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM480" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="481" hidden="true">
-      <c r="A481" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="B481" s="2"/>
-      <c r="C481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D481" s="2"/>
-      <c r="E481" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F481" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J481" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="K481" t="s" s="2">
-        <v>1066</v>
-      </c>
-      <c r="L481" t="s" s="2">
-        <v>1067</v>
-      </c>
-      <c r="M481" s="2"/>
-      <c r="N481" t="s" s="2">
-        <v>1068</v>
-      </c>
-      <c r="O481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P481" s="2"/>
-      <c r="Q481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE481" t="s" s="2">
-        <v>1065</v>
-      </c>
-      <c r="AF481" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG481" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI481" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL481" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM481" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="482" hidden="true">
-      <c r="A482" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="B482" s="2"/>
-      <c r="C482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D482" s="2"/>
-      <c r="E482" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F482" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J482" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K482" t="s" s="2">
-        <v>1070</v>
-      </c>
-      <c r="L482" t="s" s="2">
-        <v>1071</v>
-      </c>
-      <c r="M482" s="2"/>
-      <c r="N482" t="s" s="2">
-        <v>1072</v>
-      </c>
-      <c r="O482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P482" s="2"/>
-      <c r="Q482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W482" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X482" t="s" s="2">
-        <v>1073</v>
-      </c>
-      <c r="Y482" t="s" s="2">
-        <v>1074</v>
-      </c>
-      <c r="Z482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE482" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="AF482" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG482" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI482" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL482" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM482" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="483" hidden="true">
-      <c r="A483" t="s" s="2">
-        <v>1075</v>
-      </c>
-      <c r="B483" s="2"/>
-      <c r="C483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D483" s="2"/>
-      <c r="E483" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F483" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J483" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K483" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="L483" t="s" s="2">
-        <v>1077</v>
-      </c>
-      <c r="M483" s="2"/>
-      <c r="N483" t="s" s="2">
-        <v>1078</v>
-      </c>
-      <c r="O483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P483" s="2"/>
-      <c r="Q483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE483" t="s" s="2">
-        <v>1075</v>
-      </c>
-      <c r="AF483" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG483" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI483" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL483" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM483" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="484" hidden="true">
-      <c r="A484" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="B484" s="2"/>
-      <c r="C484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D484" s="2"/>
-      <c r="E484" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F484" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J484" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K484" t="s" s="2">
-        <v>1080</v>
-      </c>
-      <c r="L484" t="s" s="2">
-        <v>1081</v>
-      </c>
-      <c r="M484" t="s" s="2">
-        <v>1082</v>
-      </c>
-      <c r="N484" t="s" s="2">
-        <v>1083</v>
-      </c>
-      <c r="O484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P484" s="2"/>
-      <c r="Q484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W484" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="X484" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y484" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Z484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE484" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="AF484" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG484" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI484" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL484" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM484" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="485" hidden="true">
-      <c r="A485" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="B485" s="2"/>
-      <c r="C485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D485" s="2"/>
-      <c r="E485" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F485" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J485" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K485" t="s" s="2">
-        <v>1085</v>
-      </c>
-      <c r="L485" t="s" s="2">
-        <v>1086</v>
-      </c>
-      <c r="M485" t="s" s="2">
-        <v>1087</v>
-      </c>
-      <c r="N485" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="O485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P485" s="2"/>
-      <c r="Q485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE485" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="AF485" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG485" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI485" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL485" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM485" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="486" hidden="true">
-      <c r="A486" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="B486" s="2"/>
-      <c r="C486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D486" s="2"/>
-      <c r="E486" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F486" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J486" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="K486" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="L486" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="M486" s="2"/>
-      <c r="N486" s="2"/>
-      <c r="O486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P486" s="2"/>
-      <c r="Q486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE486" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="AF486" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG486" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI486" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL486" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM486" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="487" hidden="true">
-      <c r="A487" t="s" s="2">
-        <v>1092</v>
-      </c>
-      <c r="B487" s="2"/>
-      <c r="C487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D487" s="2"/>
-      <c r="E487" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F487" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J487" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K487" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L487" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M487" s="2"/>
-      <c r="N487" s="2"/>
-      <c r="O487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P487" s="2"/>
-      <c r="Q487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE487" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF487" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG487" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL487" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM487" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="488" hidden="true">
-      <c r="A488" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="B488" s="2"/>
-      <c r="C488" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D488" s="2"/>
-      <c r="E488" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F488" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J488" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K488" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L488" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M488" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N488" s="2"/>
-      <c r="O488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P488" s="2"/>
-      <c r="Q488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE488" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF488" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG488" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI488" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL488" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM488" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="489" hidden="true">
-      <c r="A489" t="s" s="2">
-        <v>1094</v>
-      </c>
-      <c r="B489" s="2"/>
-      <c r="C489" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="D489" s="2"/>
-      <c r="E489" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F489" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H489" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I489" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J489" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K489" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L489" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M489" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N489" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P489" s="2"/>
-      <c r="Q489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE489" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF489" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG489" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI489" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL489" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM489" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="490" hidden="true">
-      <c r="A490" t="s" s="2">
-        <v>1095</v>
-      </c>
-      <c r="B490" s="2"/>
-      <c r="C490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D490" s="2"/>
-      <c r="E490" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F490" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J490" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K490" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="L490" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="M490" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="N490" t="s" s="2">
-        <v>1096</v>
-      </c>
-      <c r="O490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P490" s="2"/>
-      <c r="Q490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W490" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X490" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="Y490" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="Z490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE490" t="s" s="2">
-        <v>1095</v>
-      </c>
-      <c r="AF490" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG490" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI490" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL490" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM490" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="491" hidden="true">
-      <c r="A491" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="B491" s="2"/>
-      <c r="C491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D491" s="2"/>
-      <c r="E491" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F491" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J491" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="K491" t="s" s="2">
-        <v>1098</v>
-      </c>
-      <c r="L491" t="s" s="2">
-        <v>1099</v>
-      </c>
-      <c r="M491" s="2"/>
-      <c r="N491" t="s" s="2">
-        <v>1100</v>
-      </c>
-      <c r="O491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P491" s="2"/>
-      <c r="Q491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE491" t="s" s="2">
-        <v>1097</v>
-      </c>
-      <c r="AF491" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG491" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI491" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL491" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM491" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="492" hidden="true">
-      <c r="A492" t="s" s="2">
-        <v>1101</v>
-      </c>
-      <c r="B492" s="2"/>
-      <c r="C492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D492" s="2"/>
-      <c r="E492" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F492" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J492" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K492" t="s" s="2">
-        <v>1102</v>
-      </c>
-      <c r="L492" t="s" s="2">
-        <v>1103</v>
-      </c>
-      <c r="M492" t="s" s="2">
-        <v>1104</v>
-      </c>
-      <c r="N492" t="s" s="2">
-        <v>1105</v>
-      </c>
-      <c r="O492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P492" s="2"/>
-      <c r="Q492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE492" t="s" s="2">
-        <v>1101</v>
-      </c>
-      <c r="AF492" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG492" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI492" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL492" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM492" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="493" hidden="true">
-      <c r="A493" t="s" s="2">
-        <v>1106</v>
-      </c>
-      <c r="B493" s="2"/>
-      <c r="C493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D493" s="2"/>
-      <c r="E493" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F493" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J493" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K493" t="s" s="2">
-        <v>1107</v>
-      </c>
-      <c r="L493" t="s" s="2">
-        <v>1108</v>
-      </c>
-      <c r="M493" t="s" s="2">
-        <v>1109</v>
-      </c>
-      <c r="N493" t="s" s="2">
-        <v>1110</v>
-      </c>
-      <c r="O493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P493" s="2"/>
-      <c r="Q493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE493" t="s" s="2">
-        <v>1106</v>
-      </c>
-      <c r="AF493" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG493" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI493" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL493" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM493" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="494" hidden="true">
-      <c r="A494" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B494" s="2"/>
-      <c r="C494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D494" s="2"/>
-      <c r="E494" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F494" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J494" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K494" t="s" s="2">
-        <v>1112</v>
-      </c>
-      <c r="L494" t="s" s="2">
-        <v>1113</v>
-      </c>
-      <c r="M494" s="2"/>
-      <c r="N494" t="s" s="2">
-        <v>1114</v>
-      </c>
-      <c r="O494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P494" s="2"/>
-      <c r="Q494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W494" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X494" t="s" s="2">
-        <v>1115</v>
-      </c>
-      <c r="Y494" t="s" s="2">
-        <v>1116</v>
-      </c>
-      <c r="Z494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE494" t="s" s="2">
-        <v>1111</v>
-      </c>
-      <c r="AF494" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG494" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI494" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL494" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM494" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="495" hidden="true">
-      <c r="A495" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="B495" s="2"/>
-      <c r="C495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D495" s="2"/>
-      <c r="E495" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F495" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J495" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K495" t="s" s="2">
-        <v>1118</v>
-      </c>
-      <c r="L495" t="s" s="2">
-        <v>1119</v>
-      </c>
-      <c r="M495" s="2"/>
-      <c r="N495" t="s" s="2">
-        <v>1120</v>
-      </c>
-      <c r="O495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P495" s="2"/>
-      <c r="Q495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W495" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X495" t="s" s="2">
-        <v>1121</v>
-      </c>
-      <c r="Y495" t="s" s="2">
-        <v>1122</v>
-      </c>
-      <c r="Z495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE495" t="s" s="2">
-        <v>1117</v>
-      </c>
-      <c r="AF495" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG495" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI495" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL495" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM495" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="496" hidden="true">
-      <c r="A496" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="B496" s="2"/>
-      <c r="C496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D496" s="2"/>
-      <c r="E496" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F496" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J496" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K496" t="s" s="2">
-        <v>1124</v>
-      </c>
-      <c r="L496" t="s" s="2">
-        <v>1125</v>
-      </c>
-      <c r="M496" s="2"/>
-      <c r="N496" t="s" s="2">
-        <v>1120</v>
-      </c>
-      <c r="O496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P496" s="2"/>
-      <c r="Q496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W496" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X496" t="s" s="2">
-        <v>1126</v>
-      </c>
-      <c r="Y496" t="s" s="2">
-        <v>1127</v>
-      </c>
-      <c r="Z496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE496" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="AF496" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG496" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI496" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL496" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM496" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="497" hidden="true">
-      <c r="A497" t="s" s="2">
-        <v>1128</v>
-      </c>
-      <c r="B497" s="2"/>
-      <c r="C497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D497" s="2"/>
-      <c r="E497" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F497" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J497" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="K497" t="s" s="2">
-        <v>1129</v>
-      </c>
-      <c r="L497" t="s" s="2">
-        <v>1130</v>
-      </c>
-      <c r="M497" s="2"/>
-      <c r="N497" s="2"/>
-      <c r="O497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P497" s="2"/>
-      <c r="Q497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE497" t="s" s="2">
-        <v>1128</v>
-      </c>
-      <c r="AF497" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG497" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI497" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL497" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM497" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="498" hidden="true">
-      <c r="A498" t="s" s="2">
-        <v>1131</v>
-      </c>
-      <c r="B498" s="2"/>
-      <c r="C498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D498" s="2"/>
-      <c r="E498" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F498" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J498" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K498" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L498" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M498" s="2"/>
-      <c r="N498" s="2"/>
-      <c r="O498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P498" s="2"/>
-      <c r="Q498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE498" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF498" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG498" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL498" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM498" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="499" hidden="true">
-      <c r="A499" t="s" s="2">
-        <v>1132</v>
-      </c>
-      <c r="B499" s="2"/>
-      <c r="C499" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D499" s="2"/>
-      <c r="E499" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F499" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J499" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K499" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L499" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M499" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N499" s="2"/>
-      <c r="O499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P499" s="2"/>
-      <c r="Q499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE499" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF499" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG499" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI499" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL499" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM499" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="500" hidden="true">
-      <c r="A500" t="s" s="2">
-        <v>1133</v>
-      </c>
-      <c r="B500" s="2"/>
-      <c r="C500" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="D500" s="2"/>
-      <c r="E500" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F500" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H500" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I500" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J500" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K500" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L500" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M500" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N500" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P500" s="2"/>
-      <c r="Q500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE500" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF500" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG500" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI500" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL500" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM500" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="501" hidden="true">
-      <c r="A501" t="s" s="2">
-        <v>1134</v>
-      </c>
-      <c r="B501" s="2"/>
-      <c r="C501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D501" s="2"/>
-      <c r="E501" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F501" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J501" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K501" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="L501" t="s" s="2">
-        <v>1135</v>
-      </c>
-      <c r="M501" t="s" s="2">
-        <v>1136</v>
-      </c>
-      <c r="N501" t="s" s="2">
-        <v>1137</v>
-      </c>
-      <c r="O501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P501" s="2"/>
-      <c r="Q501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W501" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X501" t="s" s="2">
-        <v>1138</v>
-      </c>
-      <c r="Y501" t="s" s="2">
-        <v>1139</v>
-      </c>
-      <c r="Z501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE501" t="s" s="2">
-        <v>1134</v>
-      </c>
-      <c r="AF501" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG501" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI501" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL501" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM501" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="502" hidden="true">
-      <c r="A502" t="s" s="2">
-        <v>1140</v>
-      </c>
-      <c r="B502" s="2"/>
-      <c r="C502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D502" s="2"/>
-      <c r="E502" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F502" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J502" t="s" s="2">
-        <v>1141</v>
-      </c>
-      <c r="K502" t="s" s="2">
-        <v>1142</v>
-      </c>
-      <c r="L502" t="s" s="2">
-        <v>1143</v>
-      </c>
-      <c r="M502" s="2"/>
-      <c r="N502" t="s" s="2">
-        <v>1144</v>
-      </c>
-      <c r="O502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P502" s="2"/>
-      <c r="Q502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE502" t="s" s="2">
-        <v>1140</v>
-      </c>
-      <c r="AF502" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG502" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI502" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL502" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM502" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="503" hidden="true">
-      <c r="A503" t="s" s="2">
-        <v>1145</v>
-      </c>
-      <c r="B503" s="2"/>
-      <c r="C503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D503" s="2"/>
-      <c r="E503" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F503" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J503" t="s" s="2">
-        <v>1146</v>
-      </c>
-      <c r="K503" t="s" s="2">
-        <v>1147</v>
-      </c>
-      <c r="L503" t="s" s="2">
-        <v>1148</v>
-      </c>
-      <c r="M503" s="2"/>
-      <c r="N503" t="s" s="2">
-        <v>1149</v>
-      </c>
-      <c r="O503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P503" s="2"/>
-      <c r="Q503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE503" t="s" s="2">
-        <v>1145</v>
-      </c>
-      <c r="AF503" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG503" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI503" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL503" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM503" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM503">
+  <autoFilter ref="A1:AM469">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -59818,7 +55964,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI502">
+  <conditionalFormatting sqref="A2:AI468">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1852,7 +1852,7 @@
     <t>Often required to capture a particular diagnosis, for example: primary or discharge.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/DiagnosisTypeProfessionalNonClinicianVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProfessionalandnoncliniciandiagnosistype</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.onAdmission</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16026" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16032" uniqueCount="1125">
   <si>
     <t>Path</t>
   </si>
@@ -2638,7 +2638,7 @@
     <t>Benefit Payment Status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.detail</t>
@@ -14863,11 +14863,13 @@
         <v>43</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X101" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y101" t="s" s="2">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>43</v>
@@ -17204,11 +17206,13 @@
         <v>43</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X122" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y122" t="s" s="2">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -19543,11 +19547,13 @@
         <v>43</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X143" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y143" t="s" s="2">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>43</v>
@@ -21882,11 +21888,13 @@
         <v>43</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X164" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y164" t="s" s="2">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>43</v>
@@ -24221,11 +24229,13 @@
         <v>43</v>
       </c>
       <c r="W185" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X185" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X185" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y185" t="s" s="2">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>43</v>
@@ -26560,11 +26570,13 @@
         <v>43</v>
       </c>
       <c r="W206" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X206" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X206" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y206" t="s" s="2">
-        <v>529</v>
+        <v>43</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -28571,7 +28571,7 @@
         <v>50</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>43</v>
@@ -28664,7 +28664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
         <v>583</v>
       </c>
@@ -28676,13 +28676,13 @@
       </c>
       <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>43</v>
@@ -30008,7 +30008,7 @@
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F237" t="s" s="2">
         <v>50</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -2501,7 +2501,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
   </si>
   <si>
     <t>denialreason</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -766,13 +766,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/ValueSet/claim-type"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/claim-type"/&gt;
     &lt;code value="#professional"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="1084">
   <si>
     <t>Path</t>
   </si>
@@ -1451,6 +1451,13 @@
     <t>Typically these information codes are required to support the services rendered or the adjudication of the services rendered.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:category}
+</t>
+  </si>
+  <si>
+    <t>Slice based on value pattern</t>
+  </si>
+  <si>
     <t>ExplanationOfBenefit.supportingInfo.id</t>
   </si>
   <si>
@@ -2411,10 +2418,6 @@
   </si>
   <si>
     <t>The adjudication results conveys the insurer's assessment of the item provided in the claim under the terms of the patient's insurance coverage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:category}
-</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.id</t>
@@ -12680,10 +12683,10 @@
         <v>43</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>163</v>
+        <v>459</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>164</v>
+        <v>460</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>43</v>
@@ -12721,7 +12724,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12830,7 +12833,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12941,7 +12944,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -13054,7 +13057,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13080,14 +13083,14 @@
         <v>426</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>43</v>
@@ -13136,7 +13139,7 @@
         <v>43</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>50</v>
@@ -13165,7 +13168,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13191,16 +13194,16 @@
         <v>180</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13229,7 +13232,7 @@
       </c>
       <c r="X87" s="2"/>
       <c r="Y87" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>43</v>
@@ -13247,7 +13250,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13276,7 +13279,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13302,16 +13305,16 @@
         <v>180</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13339,10 +13342,10 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -13360,7 +13363,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -13389,7 +13392,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13412,13 +13415,13 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -13469,7 +13472,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13498,7 +13501,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13521,19 +13524,19 @@
         <v>43</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13582,7 +13585,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13611,7 +13614,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13637,16 +13640,16 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13674,10 +13677,10 @@
         <v>116</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
@@ -13695,7 +13698,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13727,7 +13730,7 @@
         <v>454</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>43</v>
@@ -13839,7 +13842,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13948,7 +13951,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14059,7 +14062,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14172,7 +14175,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14198,14 +14201,14 @@
         <v>426</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14254,7 +14257,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -14283,7 +14286,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14309,16 +14312,16 @@
         <v>180</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14328,7 +14331,7 @@
         <v>43</v>
       </c>
       <c r="R97" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>43</v>
@@ -14347,7 +14350,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
@@ -14365,7 +14368,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>50</v>
@@ -14394,7 +14397,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14503,7 +14506,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14614,7 +14617,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14640,16 +14643,16 @@
         <v>104</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14698,7 +14701,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14719,15 +14722,15 @@
         <v>43</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14753,16 +14756,16 @@
         <v>52</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14811,7 +14814,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14832,15 +14835,15 @@
         <v>43</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14866,16 +14869,16 @@
         <v>180</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14904,7 +14907,7 @@
       </c>
       <c r="X102" s="2"/>
       <c r="Y102" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14922,7 +14925,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -14951,7 +14954,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14974,13 +14977,13 @@
         <v>43</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -15031,7 +15034,7 @@
         <v>43</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -15060,7 +15063,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15083,19 +15086,19 @@
         <v>43</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>43</v>
@@ -15144,7 +15147,7 @@
         <v>43</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -15173,7 +15176,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15199,16 +15202,16 @@
         <v>104</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>43</v>
@@ -15236,10 +15239,10 @@
         <v>116</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>43</v>
@@ -15257,7 +15260,7 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -15289,7 +15292,7 @@
         <v>454</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>43</v>
@@ -15401,7 +15404,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15510,7 +15513,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15621,7 +15624,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15734,7 +15737,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15760,14 +15763,14 @@
         <v>426</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>43</v>
@@ -15816,7 +15819,7 @@
         <v>43</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>50</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15871,16 +15874,16 @@
         <v>180</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -15890,7 +15893,7 @@
         <v>43</v>
       </c>
       <c r="R111" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>43</v>
@@ -15909,7 +15912,7 @@
       </c>
       <c r="X111" s="2"/>
       <c r="Y111" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>43</v>
@@ -15927,7 +15930,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>50</v>
@@ -15956,7 +15959,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15982,16 +15985,16 @@
         <v>180</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -16020,7 +16023,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -16038,7 +16041,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -16067,7 +16070,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16090,13 +16093,13 @@
         <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -16147,7 +16150,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -16176,7 +16179,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16199,19 +16202,19 @@
         <v>43</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16260,7 +16263,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16289,7 +16292,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16315,16 +16318,16 @@
         <v>104</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16352,10 +16355,10 @@
         <v>116</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>43</v>
@@ -16373,7 +16376,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16405,7 +16408,7 @@
         <v>454</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>43</v>
@@ -16517,7 +16520,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16626,7 +16629,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16737,7 +16740,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16850,7 +16853,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16876,14 +16879,14 @@
         <v>426</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -16932,7 +16935,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -16961,7 +16964,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16987,16 +16990,16 @@
         <v>180</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -17006,7 +17009,7 @@
         <v>43</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>43</v>
@@ -17025,7 +17028,7 @@
       </c>
       <c r="X121" s="2"/>
       <c r="Y121" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>43</v>
@@ -17043,7 +17046,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>50</v>
@@ -17072,7 +17075,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17098,16 +17101,16 @@
         <v>180</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -17136,7 +17139,7 @@
       </c>
       <c r="X122" s="2"/>
       <c r="Y122" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -17154,7 +17157,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -17183,7 +17186,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17206,13 +17209,13 @@
         <v>43</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -17263,7 +17266,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17292,7 +17295,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17315,19 +17318,19 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17376,7 +17379,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17405,7 +17408,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17431,16 +17434,16 @@
         <v>104</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17468,10 +17471,10 @@
         <v>116</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
@@ -17489,7 +17492,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17521,7 +17524,7 @@
         <v>454</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>43</v>
@@ -17633,7 +17636,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17742,7 +17745,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17853,7 +17856,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17966,7 +17969,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17992,14 +17995,14 @@
         <v>426</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -18048,7 +18051,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>50</v>
@@ -18077,7 +18080,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18103,16 +18106,16 @@
         <v>180</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -18122,7 +18125,7 @@
         <v>43</v>
       </c>
       <c r="R131" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>43</v>
@@ -18141,7 +18144,7 @@
       </c>
       <c r="X131" s="2"/>
       <c r="Y131" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
@@ -18159,7 +18162,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>50</v>
@@ -18188,7 +18191,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18214,16 +18217,16 @@
         <v>180</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18252,7 +18255,7 @@
       </c>
       <c r="X132" s="2"/>
       <c r="Y132" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>43</v>
@@ -18270,7 +18273,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18299,7 +18302,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18322,13 +18325,13 @@
         <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -18379,7 +18382,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18408,7 +18411,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18431,19 +18434,19 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18492,7 +18495,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18521,7 +18524,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18547,16 +18550,16 @@
         <v>104</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18584,10 +18587,10 @@
         <v>116</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>43</v>
@@ -18605,7 +18608,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18637,7 +18640,7 @@
         <v>454</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>43</v>
@@ -18749,7 +18752,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18858,7 +18861,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18969,7 +18972,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19082,7 +19085,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19108,14 +19111,14 @@
         <v>426</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -19164,7 +19167,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>50</v>
@@ -19193,7 +19196,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19219,16 +19222,16 @@
         <v>180</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19238,7 +19241,7 @@
         <v>43</v>
       </c>
       <c r="R141" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>43</v>
@@ -19257,7 +19260,7 @@
       </c>
       <c r="X141" s="2"/>
       <c r="Y141" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>43</v>
@@ -19275,7 +19278,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>50</v>
@@ -19304,7 +19307,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19330,16 +19333,16 @@
         <v>180</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>245</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19367,10 +19370,10 @@
         <v>116</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
@@ -19388,7 +19391,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19417,7 +19420,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19440,13 +19443,13 @@
         <v>43</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -19497,7 +19500,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -19526,7 +19529,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19549,19 +19552,19 @@
         <v>43</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>43</v>
@@ -19610,7 +19613,7 @@
         <v>43</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>41</v>
@@ -19639,7 +19642,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19665,16 +19668,16 @@
         <v>104</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19702,10 +19705,10 @@
         <v>116</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
@@ -19723,7 +19726,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
@@ -19752,7 +19755,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19778,14 +19781,14 @@
         <v>317</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19834,7 +19837,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19863,7 +19866,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19972,7 +19975,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20083,7 +20086,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20196,7 +20199,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20222,16 +20225,16 @@
         <v>426</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>43</v>
@@ -20280,7 +20283,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>50</v>
@@ -20309,7 +20312,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20335,14 +20338,14 @@
         <v>180</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>43</v>
@@ -20370,26 +20373,26 @@
         <v>116</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA151" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AB151" s="2"/>
       <c r="AC151" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD151" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>50</v>
@@ -20418,10 +20421,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>43</v>
@@ -20446,14 +20449,14 @@
         <v>180</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>43</v>
@@ -20482,7 +20485,7 @@
       </c>
       <c r="X152" s="2"/>
       <c r="Y152" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>43</v>
@@ -20500,7 +20503,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>50</v>
@@ -20529,7 +20532,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20555,16 +20558,16 @@
         <v>180</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20593,7 +20596,7 @@
       </c>
       <c r="X153" s="2"/>
       <c r="Y153" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>43</v>
@@ -20611,7 +20614,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>41</v>
@@ -20640,7 +20643,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20666,14 +20669,14 @@
         <v>180</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20701,10 +20704,10 @@
         <v>116</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
@@ -20722,7 +20725,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20751,7 +20754,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20777,16 +20780,16 @@
         <v>180</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20814,10 +20817,10 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
@@ -20835,7 +20838,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20864,7 +20867,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20890,14 +20893,14 @@
         <v>317</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20946,7 +20949,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>41</v>
@@ -20975,7 +20978,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21084,7 +21087,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21195,7 +21198,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21308,7 +21311,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21334,14 +21337,14 @@
         <v>426</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21390,7 +21393,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>50</v>
@@ -21419,7 +21422,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21445,14 +21448,14 @@
         <v>180</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21480,28 +21483,28 @@
         <v>116</v>
       </c>
       <c r="X161" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE161" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21530,7 +21533,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21556,14 +21559,14 @@
         <v>270</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21612,7 +21615,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21641,7 +21644,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21667,14 +21670,14 @@
         <v>180</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21702,26 +21705,26 @@
         <v>116</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA163" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AB163" s="2"/>
       <c r="AC163" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD163" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>50</v>
@@ -21750,10 +21753,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>43</v>
@@ -21778,14 +21781,14 @@
         <v>180</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21814,7 +21817,7 @@
       </c>
       <c r="X164" s="2"/>
       <c r="Y164" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>43</v>
@@ -21832,7 +21835,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>50</v>
@@ -21861,7 +21864,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21884,17 +21887,17 @@
         <v>43</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21943,7 +21946,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21972,7 +21975,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21998,14 +22001,14 @@
         <v>426</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -22054,7 +22057,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -22083,7 +22086,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22109,16 +22112,16 @@
         <v>317</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -22167,7 +22170,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>50</v>
@@ -22188,7 +22191,7 @@
         <v>43</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>43</v>
@@ -22196,7 +22199,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22305,7 +22308,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22416,7 +22419,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22529,7 +22532,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22555,16 +22558,16 @@
         <v>437</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22613,7 +22616,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>50</v>
@@ -22642,7 +22645,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22665,17 +22668,17 @@
         <v>51</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22724,7 +22727,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>50</v>
@@ -22753,7 +22756,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22779,16 +22782,16 @@
         <v>52</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22837,7 +22840,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22866,7 +22869,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22892,14 +22895,14 @@
         <v>317</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22948,7 +22951,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22977,7 +22980,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23086,7 +23089,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23197,7 +23200,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23310,7 +23313,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23333,19 +23336,19 @@
         <v>43</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23394,7 +23397,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23423,7 +23426,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23449,14 +23452,14 @@
         <v>180</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23484,10 +23487,10 @@
         <v>108</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>43</v>
@@ -23505,7 +23508,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23534,7 +23537,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23557,17 +23560,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23616,7 +23619,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23645,7 +23648,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23671,14 +23674,14 @@
         <v>317</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23727,7 +23730,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23756,7 +23759,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23865,7 +23868,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23976,7 +23979,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24089,7 +24092,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24115,14 +24118,14 @@
         <v>426</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -24171,7 +24174,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>50</v>
@@ -24200,7 +24203,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24226,14 +24229,14 @@
         <v>426</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24282,7 +24285,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24311,7 +24314,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24337,14 +24340,14 @@
         <v>426</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24393,7 +24396,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24422,7 +24425,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24448,14 +24451,14 @@
         <v>426</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24504,7 +24507,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24533,7 +24536,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24559,14 +24562,14 @@
         <v>426</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24615,7 +24618,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24644,7 +24647,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24670,14 +24673,14 @@
         <v>180</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24705,10 +24708,10 @@
         <v>116</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>43</v>
@@ -24726,7 +24729,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24755,7 +24758,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24781,16 +24784,16 @@
         <v>180</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24818,10 +24821,10 @@
         <v>116</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
@@ -24839,7 +24842,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -24868,11 +24871,11 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
@@ -24894,16 +24897,16 @@
         <v>180</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24932,7 +24935,7 @@
       </c>
       <c r="X192" s="2"/>
       <c r="Y192" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -24950,7 +24953,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>50</v>
@@ -24979,7 +24982,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25005,16 +25008,16 @@
         <v>180</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25043,7 +25046,7 @@
       </c>
       <c r="X193" s="2"/>
       <c r="Y193" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
@@ -25061,7 +25064,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25090,7 +25093,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25116,16 +25119,16 @@
         <v>180</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25153,10 +25156,10 @@
         <v>116</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>43</v>
@@ -25174,7 +25177,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25203,7 +25206,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25226,17 +25229,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25285,7 +25288,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25314,7 +25317,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25337,17 +25340,17 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25375,10 +25378,10 @@
         <v>116</v>
       </c>
       <c r="X196" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>43</v>
@@ -25396,7 +25399,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25425,7 +25428,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25448,17 +25451,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25507,7 +25510,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25536,7 +25539,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25559,17 +25562,17 @@
         <v>43</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25618,7 +25621,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25647,7 +25650,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25670,19 +25673,19 @@
         <v>43</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25731,7 +25734,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25760,7 +25763,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25783,19 +25786,19 @@
         <v>43</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25844,7 +25847,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25873,7 +25876,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25896,17 +25899,17 @@
         <v>43</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25955,7 +25958,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25984,7 +25987,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26010,16 +26013,16 @@
         <v>180</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26047,10 +26050,10 @@
         <v>116</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
@@ -26068,7 +26071,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26097,7 +26100,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26123,14 +26126,14 @@
         <v>180</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26158,10 +26161,10 @@
         <v>116</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -26179,7 +26182,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26208,7 +26211,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26231,17 +26234,17 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26290,7 +26293,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26319,7 +26322,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26345,14 +26348,14 @@
         <v>426</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26401,7 +26404,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26430,7 +26433,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26456,14 +26459,14 @@
         <v>317</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26500,19 +26503,19 @@
         <v>43</v>
       </c>
       <c r="AA206" t="s" s="2">
-        <v>767</v>
+        <v>459</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>164</v>
+        <v>460</v>
       </c>
       <c r="AC206" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD206" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26541,7 +26544,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26650,7 +26653,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26761,7 +26764,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26874,7 +26877,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26900,16 +26903,16 @@
         <v>180</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26938,7 +26941,7 @@
       </c>
       <c r="X210" s="2"/>
       <c r="Y210" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>43</v>
@@ -26956,7 +26959,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -26985,7 +26988,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27011,16 +27014,16 @@
         <v>180</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27048,10 +27051,10 @@
         <v>116</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -27069,7 +27072,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27098,7 +27101,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27121,19 +27124,19 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27182,7 +27185,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27211,7 +27214,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27234,19 +27237,19 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27295,7 +27298,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27324,10 +27327,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C214" t="s" s="2">
         <v>43</v>
@@ -27352,14 +27355,14 @@
         <v>317</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27408,7 +27411,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27437,7 +27440,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27546,7 +27549,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27657,7 +27660,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27770,7 +27773,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27796,16 +27799,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27834,7 +27837,7 @@
       </c>
       <c r="X218" s="2"/>
       <c r="Y218" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27852,7 +27855,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>50</v>
@@ -27881,7 +27884,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27907,16 +27910,16 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27944,10 +27947,10 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -27965,7 +27968,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27994,7 +27997,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28017,19 +28020,19 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28078,7 +28081,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28107,7 +28110,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28130,19 +28133,19 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28191,7 +28194,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28220,10 +28223,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C222" t="s" s="2">
         <v>43</v>
@@ -28248,14 +28251,14 @@
         <v>317</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28304,7 +28307,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28333,7 +28336,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28442,7 +28445,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28553,7 +28556,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28666,7 +28669,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28692,16 +28695,16 @@
         <v>180</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28711,7 +28714,7 @@
         <v>43</v>
       </c>
       <c r="R226" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>43</v>
@@ -28730,7 +28733,7 @@
       </c>
       <c r="X226" s="2"/>
       <c r="Y226" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
@@ -28748,7 +28751,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>50</v>
@@ -28777,7 +28780,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28803,16 +28806,16 @@
         <v>180</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28841,7 +28844,7 @@
       </c>
       <c r="X227" s="2"/>
       <c r="Y227" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
@@ -28859,7 +28862,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28888,7 +28891,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28911,19 +28914,19 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28972,7 +28975,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29001,7 +29004,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29024,19 +29027,19 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29085,7 +29088,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29114,10 +29117,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>43</v>
@@ -29142,14 +29145,14 @@
         <v>317</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29198,7 +29201,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29227,7 +29230,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29336,7 +29339,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29447,7 +29450,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29560,7 +29563,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29586,16 +29589,16 @@
         <v>180</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29605,7 +29608,7 @@
         <v>43</v>
       </c>
       <c r="R234" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>43</v>
@@ -29624,7 +29627,7 @@
       </c>
       <c r="X234" s="2"/>
       <c r="Y234" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29642,7 +29645,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29671,7 +29674,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29697,16 +29700,16 @@
         <v>180</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29734,10 +29737,10 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29755,7 +29758,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29784,7 +29787,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29807,19 +29810,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29868,7 +29871,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29897,7 +29900,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29920,19 +29923,19 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29981,7 +29984,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30010,7 +30013,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30036,10 +30039,10 @@
         <v>317</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -30090,7 +30093,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30119,7 +30122,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30228,7 +30231,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30339,7 +30342,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30452,7 +30455,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30478,14 +30481,14 @@
         <v>426</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30534,7 +30537,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>50</v>
@@ -30563,7 +30566,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30589,14 +30592,14 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30624,10 +30627,10 @@
         <v>116</v>
       </c>
       <c r="X243" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30645,7 +30648,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30674,7 +30677,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30700,16 +30703,16 @@
         <v>180</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30737,10 +30740,10 @@
         <v>116</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
@@ -30758,7 +30761,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30787,11 +30790,11 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
@@ -30813,16 +30816,16 @@
         <v>180</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30850,28 +30853,28 @@
         <v>116</v>
       </c>
       <c r="X245" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE245" t="s" s="2">
         <v>817</v>
-      </c>
-      <c r="Y245" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="Z245" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA245" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB245" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC245" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD245" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE245" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>50</v>
@@ -30900,7 +30903,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30926,16 +30929,16 @@
         <v>180</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30963,10 +30966,10 @@
         <v>116</v>
       </c>
       <c r="X246" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
@@ -30984,7 +30987,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31013,7 +31016,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31039,16 +31042,16 @@
         <v>180</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -31076,10 +31079,10 @@
         <v>116</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Z247" t="s" s="2">
         <v>43</v>
@@ -31097,7 +31100,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -31126,7 +31129,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31149,17 +31152,17 @@
         <v>43</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M248" s="2"/>
       <c r="N248" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O248" t="s" s="2">
         <v>43</v>
@@ -31208,7 +31211,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31237,7 +31240,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31260,17 +31263,17 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31319,7 +31322,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31348,7 +31351,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31371,19 +31374,19 @@
         <v>43</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31432,7 +31435,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31461,7 +31464,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31484,19 +31487,19 @@
         <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31545,7 +31548,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31574,7 +31577,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31597,17 +31600,17 @@
         <v>43</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31656,7 +31659,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31685,7 +31688,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31711,14 +31714,14 @@
         <v>426</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31767,7 +31770,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31796,7 +31799,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31822,10 +31825,10 @@
         <v>43</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -31876,7 +31879,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31905,7 +31908,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31931,10 +31934,10 @@
         <v>317</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -31985,7 +31988,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32014,7 +32017,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32123,7 +32126,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32234,7 +32237,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32347,7 +32350,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32373,14 +32376,14 @@
         <v>426</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32429,7 +32432,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>50</v>
@@ -32458,7 +32461,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32484,14 +32487,14 @@
         <v>180</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32519,10 +32522,10 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
@@ -32540,7 +32543,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32569,7 +32572,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32595,16 +32598,16 @@
         <v>180</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32632,10 +32635,10 @@
         <v>116</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Z261" t="s" s="2">
         <v>43</v>
@@ -32653,7 +32656,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32682,11 +32685,11 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -32708,16 +32711,16 @@
         <v>180</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32745,10 +32748,10 @@
         <v>116</v>
       </c>
       <c r="X262" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Y262" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -32766,7 +32769,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>50</v>
@@ -32795,7 +32798,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32821,16 +32824,16 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32858,10 +32861,10 @@
         <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
@@ -32879,7 +32882,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32908,7 +32911,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32934,16 +32937,16 @@
         <v>180</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32971,10 +32974,10 @@
         <v>116</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>43</v>
@@ -32992,7 +32995,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -33021,7 +33024,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33044,17 +33047,17 @@
         <v>43</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -33103,7 +33106,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -33132,7 +33135,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33155,17 +33158,17 @@
         <v>43</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33214,7 +33217,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33243,7 +33246,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33266,19 +33269,19 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33327,7 +33330,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33356,7 +33359,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33379,19 +33382,19 @@
         <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33440,7 +33443,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33469,7 +33472,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33492,17 +33495,17 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33551,7 +33554,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33580,7 +33583,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33606,14 +33609,14 @@
         <v>426</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M270" s="2"/>
       <c r="N270" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33662,7 +33665,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33691,7 +33694,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33717,10 +33720,10 @@
         <v>43</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -33771,7 +33774,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33800,7 +33803,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33826,14 +33829,14 @@
         <v>317</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33882,7 +33885,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33911,7 +33914,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34020,7 +34023,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34131,7 +34134,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34244,7 +34247,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34270,14 +34273,14 @@
         <v>426</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34326,7 +34329,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34355,7 +34358,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34381,14 +34384,14 @@
         <v>426</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34437,7 +34440,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34466,7 +34469,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34492,14 +34495,14 @@
         <v>426</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34548,7 +34551,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34577,7 +34580,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34603,14 +34606,14 @@
         <v>431</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34659,7 +34662,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34688,11 +34691,11 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -34714,16 +34717,16 @@
         <v>180</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34751,10 +34754,10 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
@@ -34772,7 +34775,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>50</v>
@@ -34801,7 +34804,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34827,16 +34830,16 @@
         <v>180</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34864,10 +34867,10 @@
         <v>116</v>
       </c>
       <c r="X281" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y281" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z281" t="s" s="2">
         <v>43</v>
@@ -34885,7 +34888,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34914,7 +34917,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34940,16 +34943,16 @@
         <v>180</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O282" t="s" s="2">
         <v>43</v>
@@ -34977,10 +34980,10 @@
         <v>116</v>
       </c>
       <c r="X282" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="Y282" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Z282" t="s" s="2">
         <v>43</v>
@@ -34998,7 +35001,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35027,7 +35030,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35050,17 +35053,17 @@
         <v>43</v>
       </c>
       <c r="J283" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35109,7 +35112,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35138,7 +35141,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35161,17 +35164,17 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35199,10 +35202,10 @@
         <v>116</v>
       </c>
       <c r="X284" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="Z284" t="s" s="2">
         <v>43</v>
@@ -35220,7 +35223,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35249,7 +35252,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35272,17 +35275,17 @@
         <v>43</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35331,7 +35334,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35360,7 +35363,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35383,17 +35386,17 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35442,7 +35445,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35471,7 +35474,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35494,19 +35497,19 @@
         <v>43</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35555,7 +35558,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35584,7 +35587,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35607,19 +35610,19 @@
         <v>43</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35668,7 +35671,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35697,7 +35700,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35723,16 +35726,16 @@
         <v>180</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35760,10 +35763,10 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35781,7 +35784,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35810,7 +35813,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35836,14 +35839,14 @@
         <v>180</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35871,10 +35874,10 @@
         <v>116</v>
       </c>
       <c r="X290" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="Y290" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="Z290" t="s" s="2">
         <v>43</v>
@@ -35892,7 +35895,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35921,7 +35924,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35947,14 +35950,14 @@
         <v>426</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36003,7 +36006,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36032,7 +36035,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36058,10 +36061,10 @@
         <v>43</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -36112,7 +36115,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36141,7 +36144,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36167,10 +36170,10 @@
         <v>317</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -36221,7 +36224,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36250,7 +36253,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36359,7 +36362,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36470,7 +36473,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36583,11 +36586,11 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36609,16 +36612,16 @@
         <v>180</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36646,10 +36649,10 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Y297" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
@@ -36667,7 +36670,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>50</v>
@@ -36696,7 +36699,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36722,16 +36725,16 @@
         <v>180</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36759,10 +36762,10 @@
         <v>116</v>
       </c>
       <c r="X298" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z298" t="s" s="2">
         <v>43</v>
@@ -36780,7 +36783,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36809,7 +36812,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36832,17 +36835,17 @@
         <v>43</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36891,7 +36894,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36920,7 +36923,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36943,17 +36946,17 @@
         <v>43</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -37002,7 +37005,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37031,7 +37034,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37054,19 +37057,19 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37115,7 +37118,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37144,7 +37147,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37167,19 +37170,19 @@
         <v>43</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37228,7 +37231,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37257,7 +37260,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37283,14 +37286,14 @@
         <v>426</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37339,7 +37342,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37368,7 +37371,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37394,10 +37397,10 @@
         <v>43</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
@@ -37448,7 +37451,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37477,7 +37480,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37503,10 +37506,10 @@
         <v>317</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -37557,7 +37560,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37586,7 +37589,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37695,7 +37698,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37806,7 +37809,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37919,11 +37922,11 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37945,16 +37948,16 @@
         <v>180</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -37982,10 +37985,10 @@
         <v>116</v>
       </c>
       <c r="X309" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Y309" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
@@ -38003,7 +38006,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>50</v>
@@ -38032,7 +38035,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38058,16 +38061,16 @@
         <v>180</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38095,10 +38098,10 @@
         <v>116</v>
       </c>
       <c r="X310" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z310" t="s" s="2">
         <v>43</v>
@@ -38116,7 +38119,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38145,7 +38148,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38168,17 +38171,17 @@
         <v>43</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38227,7 +38230,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38256,7 +38259,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38279,17 +38282,17 @@
         <v>43</v>
       </c>
       <c r="J312" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38338,7 +38341,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38367,7 +38370,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38390,19 +38393,19 @@
         <v>43</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38451,7 +38454,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38480,7 +38483,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38503,19 +38506,19 @@
         <v>43</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38564,7 +38567,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38593,7 +38596,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38619,14 +38622,14 @@
         <v>426</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38675,7 +38678,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38704,7 +38707,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38730,10 +38733,10 @@
         <v>43</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -38784,7 +38787,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38813,7 +38816,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38839,14 +38842,14 @@
         <v>317</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38895,7 +38898,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38924,7 +38927,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39033,7 +39036,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39144,7 +39147,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39257,7 +39260,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39283,16 +39286,16 @@
         <v>180</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39321,7 +39324,7 @@
       </c>
       <c r="X321" s="2"/>
       <c r="Y321" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z321" t="s" s="2">
         <v>43</v>
@@ -39339,7 +39342,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>50</v>
@@ -39368,7 +39371,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39394,16 +39397,16 @@
         <v>180</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39431,10 +39434,10 @@
         <v>116</v>
       </c>
       <c r="X322" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z322" t="s" s="2">
         <v>43</v>
@@ -39452,7 +39455,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39481,7 +39484,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39504,19 +39507,19 @@
         <v>43</v>
       </c>
       <c r="J323" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39565,7 +39568,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39594,7 +39597,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39617,19 +39620,19 @@
         <v>43</v>
       </c>
       <c r="J324" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39678,7 +39681,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39707,7 +39710,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39733,16 +39736,16 @@
         <v>317</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39791,7 +39794,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39820,7 +39823,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39929,7 +39932,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40040,7 +40043,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40153,7 +40156,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40179,16 +40182,16 @@
         <v>180</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40217,7 +40220,7 @@
       </c>
       <c r="X329" s="2"/>
       <c r="Y329" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -40235,7 +40238,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>50</v>
@@ -40264,7 +40267,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40287,17 +40290,17 @@
         <v>51</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40346,7 +40349,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>50</v>
@@ -40375,7 +40378,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40401,14 +40404,14 @@
         <v>317</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40457,7 +40460,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40486,7 +40489,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40595,7 +40598,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40706,7 +40709,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40819,7 +40822,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40845,14 +40848,14 @@
         <v>180</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40881,7 +40884,7 @@
       </c>
       <c r="X335" s="2"/>
       <c r="Y335" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40899,7 +40902,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40928,7 +40931,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40951,19 +40954,19 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41012,7 +41015,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41041,7 +41044,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41067,14 +41070,14 @@
         <v>180</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41103,7 +41106,7 @@
       </c>
       <c r="X337" s="2"/>
       <c r="Y337" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41121,7 +41124,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41150,7 +41153,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41173,17 +41176,17 @@
         <v>43</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41232,7 +41235,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41261,7 +41264,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41284,17 +41287,17 @@
         <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41343,7 +41346,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41372,7 +41375,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41398,16 +41401,16 @@
         <v>159</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41456,7 +41459,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41485,7 +41488,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41511,16 +41514,16 @@
         <v>180</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41548,10 +41551,10 @@
         <v>116</v>
       </c>
       <c r="X341" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Y341" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="Z341" t="s" s="2">
         <v>43</v>
@@ -41569,7 +41572,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41598,7 +41601,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41621,19 +41624,19 @@
         <v>43</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41682,7 +41685,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41711,7 +41714,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41737,14 +41740,14 @@
         <v>317</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41793,7 +41796,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41822,7 +41825,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41931,7 +41934,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42042,7 +42045,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42155,7 +42158,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42181,14 +42184,14 @@
         <v>426</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42237,7 +42240,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42266,7 +42269,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42292,14 +42295,14 @@
         <v>126</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42327,10 +42330,10 @@
         <v>174</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42348,7 +42351,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42377,7 +42380,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42403,14 +42406,14 @@
         <v>52</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42459,7 +42462,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42488,7 +42491,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42514,16 +42517,16 @@
         <v>180</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42572,7 +42575,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42601,7 +42604,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42627,16 +42630,16 @@
         <v>207</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42685,7 +42688,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42714,7 +42717,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42740,10 +42743,10 @@
         <v>317</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -42794,7 +42797,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42823,7 +42826,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42932,7 +42935,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43043,7 +43046,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43156,7 +43159,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43182,16 +43185,16 @@
         <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43219,10 +43222,10 @@
         <v>116</v>
       </c>
       <c r="X356" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Y356" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43240,7 +43243,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43269,7 +43272,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43295,14 +43298,14 @@
         <v>437</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43351,7 +43354,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43380,7 +43383,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43406,16 +43409,16 @@
         <v>52</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43464,7 +43467,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43493,7 +43496,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43519,16 +43522,16 @@
         <v>52</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43577,7 +43580,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43606,7 +43609,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43632,14 +43635,14 @@
         <v>180</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43667,10 +43670,10 @@
         <v>116</v>
       </c>
       <c r="X360" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="Y360" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="Z360" t="s" s="2">
         <v>43</v>
@@ -43688,7 +43691,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43717,7 +43720,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43743,14 +43746,14 @@
         <v>180</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43778,10 +43781,10 @@
         <v>116</v>
       </c>
       <c r="X361" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Y361" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -43799,7 +43802,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43828,7 +43831,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43854,14 +43857,14 @@
         <v>180</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43889,10 +43892,10 @@
         <v>116</v>
       </c>
       <c r="X362" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="Y362" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -43910,7 +43913,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43939,7 +43942,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43965,10 +43968,10 @@
         <v>317</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -44019,7 +44022,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44048,7 +44051,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44157,7 +44160,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44268,7 +44271,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44381,7 +44384,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44407,16 +44410,16 @@
         <v>180</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44444,10 +44447,10 @@
         <v>116</v>
       </c>
       <c r="X367" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="Y367" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="Z367" t="s" s="2">
         <v>43</v>
@@ -44465,7 +44468,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>50</v>
@@ -44494,7 +44497,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44517,17 +44520,17 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M368" s="2"/>
       <c r="N368" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44576,7 +44579,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44605,7 +44608,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44628,17 +44631,17 @@
         <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44687,7 +44690,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -767,7 +767,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/claim-type"/&gt;
-    &lt;code value="#professional"/&gt;
+    &lt;code value="professional"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="1083">
   <si>
     <t>Path</t>
   </si>
@@ -2528,14 +2528,6 @@
   </si>
   <si>
     <t>Benefit Payment Status</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
-    &lt;code value="inoutnetwork"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
@@ -26512,7 +26504,7 @@
         <v>43</v>
       </c>
       <c r="AD206" t="s" s="2">
-        <v>546</v>
+        <v>76</v>
       </c>
       <c r="AE206" t="s" s="2">
         <v>765</v>
@@ -29608,7 +29600,7 @@
         <v>43</v>
       </c>
       <c r="R234" t="s" s="2">
-        <v>804</v>
+        <v>43</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>43</v>
@@ -29627,7 +29619,7 @@
       </c>
       <c r="X234" s="2"/>
       <c r="Y234" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -30013,7 +30005,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30039,10 +30031,10 @@
         <v>317</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -30093,7 +30085,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30122,7 +30114,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30231,7 +30223,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30342,7 +30334,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30455,7 +30447,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30484,7 +30476,7 @@
         <v>652</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
@@ -30537,7 +30529,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>50</v>
@@ -30566,7 +30558,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30648,7 +30640,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30677,7 +30669,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30709,7 +30701,7 @@
         <v>686</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N244" t="s" s="2">
         <v>688</v>
@@ -30761,7 +30753,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30790,7 +30782,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30853,11 +30845,11 @@
         <v>116</v>
       </c>
       <c r="X245" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Y245" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="Y245" t="s" s="2">
-        <v>819</v>
-      </c>
       <c r="Z245" t="s" s="2">
         <v>43</v>
       </c>
@@ -30874,7 +30866,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>50</v>
@@ -30903,7 +30895,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30929,7 +30921,7 @@
         <v>180</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L246" t="s" s="2">
         <v>700</v>
@@ -30966,11 +30958,11 @@
         <v>116</v>
       </c>
       <c r="X246" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y246" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y246" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z246" t="s" s="2">
         <v>43</v>
       </c>
@@ -30987,7 +30979,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31016,7 +31008,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31100,7 +31092,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -31129,7 +31121,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31211,7 +31203,7 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
@@ -31240,7 +31232,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31322,7 +31314,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>41</v>
@@ -31351,7 +31343,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31435,7 +31427,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31464,7 +31456,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31548,7 +31540,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31577,7 +31569,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31659,7 +31651,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31688,7 +31680,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31770,7 +31762,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31799,7 +31791,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31825,10 +31817,10 @@
         <v>43</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>832</v>
-      </c>
-      <c r="L254" t="s" s="2">
-        <v>833</v>
       </c>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -31879,7 +31871,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31908,7 +31900,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31934,10 +31926,10 @@
         <v>317</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -31988,7 +31980,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32017,7 +32009,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32126,7 +32118,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32237,7 +32229,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32350,7 +32342,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32379,7 +32371,7 @@
         <v>652</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
@@ -32432,7 +32424,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>50</v>
@@ -32461,7 +32453,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32543,7 +32535,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32572,7 +32564,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32656,7 +32648,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32685,7 +32677,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32748,11 +32740,11 @@
         <v>116</v>
       </c>
       <c r="X262" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Y262" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="Y262" t="s" s="2">
-        <v>819</v>
-      </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
       </c>
@@ -32769,7 +32761,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>50</v>
@@ -32798,7 +32790,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32824,13 +32816,13 @@
         <v>180</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L263" t="s" s="2">
         <v>700</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N263" t="s" s="2">
         <v>702</v>
@@ -32861,11 +32853,11 @@
         <v>116</v>
       </c>
       <c r="X263" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y263" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y263" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z263" t="s" s="2">
         <v>43</v>
       </c>
@@ -32882,7 +32874,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32911,7 +32903,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32995,7 +32987,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -33024,7 +33016,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33106,7 +33098,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -33135,7 +33127,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33217,7 +33209,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33246,7 +33238,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33330,7 +33322,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33359,7 +33351,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33443,7 +33435,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33472,7 +33464,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33554,7 +33546,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33583,7 +33575,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33665,7 +33657,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33694,7 +33686,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33720,10 +33712,10 @@
         <v>43</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -33774,7 +33766,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33803,7 +33795,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33829,14 +33821,14 @@
         <v>317</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33885,7 +33877,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33914,7 +33906,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34023,7 +34015,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34134,7 +34126,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34247,7 +34239,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34273,14 +34265,14 @@
         <v>426</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34329,7 +34321,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34358,7 +34350,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34384,14 +34376,14 @@
         <v>426</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34440,7 +34432,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34469,7 +34461,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34495,14 +34487,14 @@
         <v>426</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>870</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34551,7 +34543,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34580,7 +34572,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34606,14 +34598,14 @@
         <v>431</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>874</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>875</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34662,7 +34654,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34691,7 +34683,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34754,11 +34746,11 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Y280" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="Y280" t="s" s="2">
-        <v>819</v>
-      </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
       </c>
@@ -34775,7 +34767,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>50</v>
@@ -34804,7 +34796,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34830,7 +34822,7 @@
         <v>180</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L281" t="s" s="2">
         <v>700</v>
@@ -34867,11 +34859,11 @@
         <v>116</v>
       </c>
       <c r="X281" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y281" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y281" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z281" t="s" s="2">
         <v>43</v>
       </c>
@@ -34888,7 +34880,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34917,7 +34909,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35001,7 +34993,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35030,7 +35022,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35112,7 +35104,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35141,7 +35133,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35223,7 +35215,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35252,7 +35244,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35334,7 +35326,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35363,7 +35355,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35445,7 +35437,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35474,7 +35466,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35558,7 +35550,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35587,7 +35579,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35671,7 +35663,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35700,7 +35692,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35732,7 +35724,7 @@
         <v>746</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N289" t="s" s="2">
         <v>748</v>
@@ -35784,7 +35776,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35813,7 +35805,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35895,7 +35887,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35924,7 +35916,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36006,7 +35998,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36035,7 +36027,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36061,10 +36053,10 @@
         <v>43</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -36115,7 +36107,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36144,7 +36136,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36170,10 +36162,10 @@
         <v>317</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -36224,7 +36216,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36253,7 +36245,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36362,7 +36354,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36473,7 +36465,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36586,7 +36578,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36649,11 +36641,11 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Y297" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="Y297" t="s" s="2">
-        <v>819</v>
-      </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
       </c>
@@ -36670,7 +36662,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>50</v>
@@ -36699,7 +36691,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36725,7 +36717,7 @@
         <v>180</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L298" t="s" s="2">
         <v>700</v>
@@ -36762,11 +36754,11 @@
         <v>116</v>
       </c>
       <c r="X298" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y298" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y298" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z298" t="s" s="2">
         <v>43</v>
       </c>
@@ -36783,7 +36775,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36812,7 +36804,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36894,7 +36886,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36923,7 +36915,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37005,7 +36997,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37034,7 +37026,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37118,7 +37110,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37147,7 +37139,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37231,7 +37223,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37260,7 +37252,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37342,7 +37334,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37371,7 +37363,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37397,10 +37389,10 @@
         <v>43</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
@@ -37451,7 +37443,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37480,7 +37472,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37506,10 +37498,10 @@
         <v>317</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -37560,7 +37552,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37589,7 +37581,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37698,7 +37690,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37809,7 +37801,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37922,7 +37914,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37985,11 +37977,11 @@
         <v>116</v>
       </c>
       <c r="X309" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Y309" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="Y309" t="s" s="2">
-        <v>819</v>
-      </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
       </c>
@@ -38006,7 +37998,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>50</v>
@@ -38035,7 +38027,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38061,7 +38053,7 @@
         <v>180</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L310" t="s" s="2">
         <v>700</v>
@@ -38098,11 +38090,11 @@
         <v>116</v>
       </c>
       <c r="X310" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Y310" t="s" s="2">
         <v>822</v>
       </c>
-      <c r="Y310" t="s" s="2">
-        <v>823</v>
-      </c>
       <c r="Z310" t="s" s="2">
         <v>43</v>
       </c>
@@ -38119,7 +38111,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38148,7 +38140,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38230,7 +38222,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38259,7 +38251,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38341,7 +38333,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38370,7 +38362,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38454,7 +38446,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38483,7 +38475,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38567,7 +38559,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38596,7 +38588,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38678,7 +38670,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38707,7 +38699,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38733,10 +38725,10 @@
         <v>43</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -38787,7 +38779,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38816,7 +38808,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38842,14 +38834,14 @@
         <v>317</v>
       </c>
       <c r="K317" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>919</v>
-      </c>
-      <c r="L317" t="s" s="2">
-        <v>920</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38898,7 +38890,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38927,7 +38919,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39036,7 +39028,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39147,7 +39139,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39260,7 +39252,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39371,7 +39363,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39484,7 +39476,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39597,7 +39589,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39710,7 +39702,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39736,16 +39728,16 @@
         <v>317</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>930</v>
       </c>
-      <c r="L325" t="s" s="2">
+      <c r="M325" t="s" s="2">
         <v>931</v>
       </c>
-      <c r="M325" t="s" s="2">
+      <c r="N325" t="s" s="2">
         <v>932</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39794,7 +39786,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39823,7 +39815,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39932,7 +39924,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40043,7 +40035,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40156,7 +40148,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40185,13 +40177,13 @@
         <v>773</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M329" t="s" s="2">
         <v>775</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40220,7 +40212,7 @@
       </c>
       <c r="X329" s="2"/>
       <c r="Y329" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -40238,7 +40230,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>50</v>
@@ -40267,7 +40259,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40293,14 +40285,14 @@
         <v>728</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="L330" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40349,7 +40341,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>50</v>
@@ -40378,7 +40370,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40404,14 +40396,14 @@
         <v>317</v>
       </c>
       <c r="K331" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="L331" t="s" s="2">
         <v>946</v>
-      </c>
-      <c r="L331" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40460,7 +40452,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40489,7 +40481,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40598,7 +40590,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40709,7 +40701,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40822,7 +40814,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40848,14 +40840,14 @@
         <v>180</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="L335" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40884,7 +40876,7 @@
       </c>
       <c r="X335" s="2"/>
       <c r="Y335" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40902,7 +40894,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40931,7 +40923,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40957,16 +40949,16 @@
         <v>728</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="L336" t="s" s="2">
+      <c r="M336" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>961</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41015,7 +41007,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41044,7 +41036,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41070,14 +41062,14 @@
         <v>180</v>
       </c>
       <c r="K337" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="L337" t="s" s="2">
         <v>963</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>964</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41124,7 +41116,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41153,7 +41145,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41179,14 +41171,14 @@
         <v>526</v>
       </c>
       <c r="K338" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="L338" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="L338" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41235,7 +41227,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41264,7 +41256,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41290,14 +41282,14 @@
         <v>728</v>
       </c>
       <c r="K339" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L339" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="L339" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41346,7 +41338,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41375,7 +41367,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41401,16 +41393,16 @@
         <v>159</v>
       </c>
       <c r="K340" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L340" t="s" s="2">
         <v>975</v>
       </c>
-      <c r="L340" t="s" s="2">
+      <c r="M340" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="M340" t="s" s="2">
+      <c r="N340" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N340" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41459,7 +41451,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41488,7 +41480,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41514,16 +41506,16 @@
         <v>180</v>
       </c>
       <c r="K341" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="L341" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="L341" t="s" s="2">
+      <c r="M341" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="M341" t="s" s="2">
+      <c r="N341" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="N341" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41551,11 +41543,11 @@
         <v>116</v>
       </c>
       <c r="X341" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="Y341" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="Y341" t="s" s="2">
-        <v>985</v>
-      </c>
       <c r="Z341" t="s" s="2">
         <v>43</v>
       </c>
@@ -41572,7 +41564,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41601,7 +41593,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41624,19 +41616,19 @@
         <v>43</v>
       </c>
       <c r="J342" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="K342" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="K342" t="s" s="2">
+      <c r="L342" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L342" t="s" s="2">
+      <c r="M342" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M342" t="s" s="2">
+      <c r="N342" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N342" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41685,7 +41677,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41714,7 +41706,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41740,14 +41732,14 @@
         <v>317</v>
       </c>
       <c r="K343" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="L343" t="s" s="2">
         <v>993</v>
-      </c>
-      <c r="L343" t="s" s="2">
-        <v>994</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41796,7 +41788,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41825,7 +41817,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41934,7 +41926,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42045,7 +42037,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42158,7 +42150,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42184,14 +42176,14 @@
         <v>426</v>
       </c>
       <c r="K347" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="L347" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42240,7 +42232,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42269,7 +42261,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42295,14 +42287,14 @@
         <v>126</v>
       </c>
       <c r="K348" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="L348" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="L348" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42330,11 +42322,11 @@
         <v>174</v>
       </c>
       <c r="X348" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="Y348" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="Y348" t="s" s="2">
-        <v>1008</v>
-      </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
       </c>
@@ -42351,7 +42343,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42380,7 +42372,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42406,14 +42398,14 @@
         <v>52</v>
       </c>
       <c r="K349" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="L349" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42462,7 +42454,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42491,7 +42483,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42517,16 +42509,16 @@
         <v>180</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L350" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="L350" t="s" s="2">
+      <c r="M350" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="M350" t="s" s="2">
+      <c r="N350" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42575,7 +42567,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42604,7 +42596,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42630,16 +42622,16 @@
         <v>207</v>
       </c>
       <c r="K351" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="L351" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="L351" t="s" s="2">
+      <c r="M351" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="M351" t="s" s="2">
+      <c r="N351" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N351" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42688,7 +42680,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42717,7 +42709,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42743,10 +42735,10 @@
         <v>317</v>
       </c>
       <c r="K352" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="L352" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="L352" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -42797,7 +42789,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42826,7 +42818,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42935,7 +42927,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43046,7 +43038,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43159,7 +43151,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43194,7 +43186,7 @@
         <v>687</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43243,7 +43235,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43272,7 +43264,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43298,14 +43290,14 @@
         <v>437</v>
       </c>
       <c r="K357" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="L357" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="L357" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43354,7 +43346,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43383,7 +43375,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43409,16 +43401,16 @@
         <v>52</v>
       </c>
       <c r="K358" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="L358" t="s" s="2">
         <v>1036</v>
       </c>
-      <c r="L358" t="s" s="2">
+      <c r="M358" t="s" s="2">
         <v>1037</v>
       </c>
-      <c r="M358" t="s" s="2">
+      <c r="N358" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="N358" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43467,7 +43459,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43496,7 +43488,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43522,16 +43514,16 @@
         <v>52</v>
       </c>
       <c r="K359" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L359" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="L359" t="s" s="2">
+      <c r="M359" t="s" s="2">
         <v>1042</v>
       </c>
-      <c r="M359" t="s" s="2">
+      <c r="N359" t="s" s="2">
         <v>1043</v>
-      </c>
-      <c r="N359" t="s" s="2">
-        <v>1044</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43580,7 +43572,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43609,7 +43601,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43635,14 +43627,14 @@
         <v>180</v>
       </c>
       <c r="K360" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="L360" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="L360" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43670,11 +43662,11 @@
         <v>116</v>
       </c>
       <c r="X360" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="Y360" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="Y360" t="s" s="2">
-        <v>1050</v>
-      </c>
       <c r="Z360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43691,7 +43683,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43720,7 +43712,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43746,14 +43738,14 @@
         <v>180</v>
       </c>
       <c r="K361" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="L361" t="s" s="2">
         <v>1052</v>
-      </c>
-      <c r="L361" t="s" s="2">
-        <v>1053</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43781,11 +43773,11 @@
         <v>116</v>
       </c>
       <c r="X361" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="Y361" t="s" s="2">
         <v>1055</v>
       </c>
-      <c r="Y361" t="s" s="2">
-        <v>1056</v>
-      </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
       </c>
@@ -43802,7 +43794,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43831,7 +43823,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43857,14 +43849,14 @@
         <v>180</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="L362" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43892,11 +43884,11 @@
         <v>116</v>
       </c>
       <c r="X362" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="Y362" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="Y362" t="s" s="2">
-        <v>1061</v>
-      </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
       </c>
@@ -43913,7 +43905,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43942,7 +43934,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43968,10 +43960,10 @@
         <v>317</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="L363" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -44022,7 +44014,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44051,7 +44043,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44160,7 +44152,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44271,7 +44263,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44384,7 +44376,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44413,13 +44405,13 @@
         <v>685</v>
       </c>
       <c r="L367" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M367" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="M367" t="s" s="2">
+      <c r="N367" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="N367" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44447,11 +44439,11 @@
         <v>116</v>
       </c>
       <c r="X367" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="Y367" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="Y367" t="s" s="2">
-        <v>1073</v>
-      </c>
       <c r="Z367" t="s" s="2">
         <v>43</v>
       </c>
@@ -44468,7 +44460,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>50</v>
@@ -44497,7 +44489,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44520,17 +44512,17 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="K368" t="s" s="2">
         <v>1075</v>
       </c>
-      <c r="K368" t="s" s="2">
+      <c r="L368" t="s" s="2">
         <v>1076</v>
-      </c>
-      <c r="L368" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="M368" s="2"/>
       <c r="N368" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44579,7 +44571,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44608,7 +44600,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44631,17 +44623,17 @@
         <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="K369" t="s" s="2">
         <v>1080</v>
       </c>
-      <c r="K369" t="s" s="2">
+      <c r="L369" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="L369" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44690,7 +44682,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$369</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$370</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13007" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13040" uniqueCount="1088">
   <si>
     <t>Path</t>
   </si>
@@ -2885,6 +2885,23 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>adjudication-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
@@ -3516,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM369"/>
+  <dimension ref="A1:AM370"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -26504,7 +26521,7 @@
         <v>43</v>
       </c>
       <c r="AD206" t="s" s="2">
-        <v>76</v>
+        <v>546</v>
       </c>
       <c r="AE206" t="s" s="2">
         <v>765</v>
@@ -39032,11 +39049,11 @@
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F319" t="s" s="2">
         <v>42</v>
@@ -39054,14 +39071,12 @@
         <v>70</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>71</v>
+        <v>923</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M319" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="M319" s="2"/>
       <c r="N319" s="2"/>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39098,16 +39113,14 @@
         <v>43</v>
       </c>
       <c r="AA319" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB319" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB319" s="2"/>
       <c r="AC319" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD319" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE319" t="s" s="2">
         <v>77</v>
@@ -39134,48 +39147,46 @@
         <v>43</v>
       </c>
       <c r="AM319" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="320" hidden="true">
+    <row r="320">
       <c r="A320" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="B320" s="2"/>
+        <v>922</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>925</v>
+      </c>
       <c r="C320" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F320" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G320" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H320" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I320" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>70</v>
+        <v>926</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>326</v>
+        <v>923</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M320" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="M320" s="2"/>
+      <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
         <v>43</v>
       </c>
@@ -39223,7 +39234,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39232,7 +39243,7 @@
         <v>42</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>43</v>
+        <v>927</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>78</v>
@@ -39247,47 +39258,47 @@
         <v>43</v>
       </c>
       <c r="AM320" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F321" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G321" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H321" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I321" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J321" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>773</v>
+        <v>326</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>774</v>
+        <v>327</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>775</v>
+        <v>73</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>776</v>
+        <v>156</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39312,11 +39323,13 @@
         <v>43</v>
       </c>
       <c r="W321" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X321" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X321" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y321" t="s" s="2">
-        <v>777</v>
+        <v>43</v>
       </c>
       <c r="Z321" t="s" s="2">
         <v>43</v>
@@ -39334,19 +39347,19 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>772</v>
+        <v>328</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI321" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ321" t="s" s="2">
         <v>43</v>
@@ -39358,12 +39371,12 @@
         <v>43</v>
       </c>
       <c r="AM321" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39371,7 +39384,7 @@
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F322" t="s" s="2">
         <v>50</v>
@@ -39389,16 +39402,16 @@
         <v>180</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39423,13 +39436,11 @@
         <v>43</v>
       </c>
       <c r="W322" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X322" t="s" s="2">
-        <v>783</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X322" s="2"/>
       <c r="Y322" t="s" s="2">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="Z322" t="s" s="2">
         <v>43</v>
@@ -39447,10 +39458,10 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="AF322" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG322" t="s" s="2">
         <v>50</v>
@@ -39476,7 +39487,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39499,19 +39510,19 @@
         <v>43</v>
       </c>
       <c r="J323" t="s" s="2">
-        <v>728</v>
+        <v>180</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39536,13 +39547,13 @@
         <v>43</v>
       </c>
       <c r="W323" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X323" t="s" s="2">
-        <v>43</v>
+        <v>783</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>43</v>
+        <v>784</v>
       </c>
       <c r="Z323" t="s" s="2">
         <v>43</v>
@@ -39560,7 +39571,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39589,7 +39600,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39612,19 +39623,19 @@
         <v>43</v>
       </c>
       <c r="J324" t="s" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39673,7 +39684,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39702,7 +39713,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39713,7 +39724,7 @@
         <v>41</v>
       </c>
       <c r="F325" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G325" t="s" s="2">
         <v>43</v>
@@ -39722,22 +39733,22 @@
         <v>43</v>
       </c>
       <c r="I325" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>317</v>
+        <v>733</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>929</v>
+        <v>791</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>930</v>
+        <v>792</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>931</v>
+        <v>793</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>932</v>
+        <v>794</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39786,13 +39797,13 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>928</v>
+        <v>790</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>43</v>
@@ -39826,7 +39837,7 @@
         <v>41</v>
       </c>
       <c r="F326" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G326" t="s" s="2">
         <v>43</v>
@@ -39835,19 +39846,23 @@
         <v>43</v>
       </c>
       <c r="I326" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>64</v>
+        <v>934</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M326" s="2"/>
-      <c r="N326" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="M326" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="N326" t="s" s="2">
+        <v>937</v>
+      </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
       </c>
@@ -39895,19 +39910,19 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>66</v>
+        <v>933</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI326" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ326" t="s" s="2">
         <v>43</v>
@@ -39919,23 +39934,23 @@
         <v>43</v>
       </c>
       <c r="AM326" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F327" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G327" t="s" s="2">
         <v>43</v>
@@ -39947,17 +39962,15 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M327" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M327" s="2"/>
       <c r="N327" s="2"/>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40006,19 +40019,19 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI327" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ327" t="s" s="2">
         <v>43</v>
@@ -40035,11 +40048,11 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -40052,26 +40065,24 @@
         <v>43</v>
       </c>
       <c r="H328" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I328" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="M328" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N328" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
         <v>43</v>
       </c>
@@ -40119,7 +40130,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40143,47 +40154,47 @@
         <v>43</v>
       </c>
       <c r="AM328" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F329" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G329" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H329" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I329" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J329" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>773</v>
+        <v>326</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>937</v>
+        <v>327</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>775</v>
+        <v>73</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>938</v>
+        <v>156</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40208,11 +40219,13 @@
         <v>43</v>
       </c>
       <c r="W329" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X329" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y329" t="s" s="2">
-        <v>939</v>
+        <v>43</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -40230,19 +40243,19 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>936</v>
+        <v>328</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI329" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ329" t="s" s="2">
         <v>43</v>
@@ -40254,12 +40267,12 @@
         <v>43</v>
       </c>
       <c r="AM329" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40282,15 +40295,17 @@
         <v>51</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>728</v>
+        <v>180</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>941</v>
+        <v>773</v>
       </c>
       <c r="L330" t="s" s="2">
         <v>942</v>
       </c>
-      <c r="M330" s="2"/>
+      <c r="M330" t="s" s="2">
+        <v>775</v>
+      </c>
       <c r="N330" t="s" s="2">
         <v>943</v>
       </c>
@@ -40317,13 +40332,11 @@
         <v>43</v>
       </c>
       <c r="W330" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X330" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X330" s="2"/>
       <c r="Y330" t="s" s="2">
-        <v>43</v>
+        <v>944</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40341,7 +40354,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>50</v>
@@ -40368,9 +40381,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40378,32 +40391,32 @@
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F331" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G331" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H331" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I331" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H331" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I331" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J331" t="s" s="2">
-        <v>317</v>
+        <v>728</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40452,10 +40465,10 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG331" t="s" s="2">
         <v>50</v>
@@ -40479,9 +40492,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="332" hidden="true">
+    <row r="332">
       <c r="A332" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40495,7 +40508,7 @@
         <v>50</v>
       </c>
       <c r="G332" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H332" t="s" s="2">
         <v>43</v>
@@ -40504,16 +40517,18 @@
         <v>43</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>64</v>
+        <v>950</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>65</v>
+        <v>951</v>
       </c>
       <c r="M332" s="2"/>
-      <c r="N332" s="2"/>
+      <c r="N332" t="s" s="2">
+        <v>952</v>
+      </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
       </c>
@@ -40561,7 +40576,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>66</v>
+        <v>949</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40573,7 +40588,7 @@
         <v>43</v>
       </c>
       <c r="AI332" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ332" t="s" s="2">
         <v>43</v>
@@ -40585,23 +40600,23 @@
         <v>43</v>
       </c>
       <c r="AM332" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F333" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G333" t="s" s="2">
         <v>43</v>
@@ -40613,17 +40628,15 @@
         <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M333" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M333" s="2"/>
       <c r="N333" s="2"/>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40672,19 +40685,19 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI333" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ333" t="s" s="2">
         <v>43</v>
@@ -40701,11 +40714,11 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40718,26 +40731,24 @@
         <v>43</v>
       </c>
       <c r="H334" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I334" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="M334" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N334" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N334" s="2"/>
       <c r="O334" t="s" s="2">
         <v>43</v>
       </c>
@@ -40785,7 +40796,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40809,45 +40820,47 @@
         <v>43</v>
       </c>
       <c r="AM334" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F335" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G335" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H335" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I335" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J335" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>952</v>
+        <v>326</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="M335" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M335" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N335" t="s" s="2">
-        <v>954</v>
+        <v>156</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40872,11 +40885,13 @@
         <v>43</v>
       </c>
       <c r="W335" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X335" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X335" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y335" t="s" s="2">
-        <v>955</v>
+        <v>43</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40894,19 +40909,19 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>951</v>
+        <v>328</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI335" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ335" t="s" s="2">
         <v>43</v>
@@ -40918,7 +40933,7 @@
         <v>43</v>
       </c>
       <c r="AM335" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="336" hidden="true">
@@ -40946,7 +40961,7 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>728</v>
+        <v>180</v>
       </c>
       <c r="K336" t="s" s="2">
         <v>957</v>
@@ -40954,11 +40969,9 @@
       <c r="L336" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="M336" s="2"/>
+      <c r="N336" t="s" s="2">
         <v>959</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -40983,13 +40996,11 @@
         <v>43</v>
       </c>
       <c r="W336" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X336" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X336" s="2"/>
       <c r="Y336" t="s" s="2">
-        <v>43</v>
+        <v>960</v>
       </c>
       <c r="Z336" t="s" s="2">
         <v>43</v>
@@ -41059,7 +41070,7 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>180</v>
+        <v>728</v>
       </c>
       <c r="K337" t="s" s="2">
         <v>962</v>
@@ -41067,9 +41078,11 @@
       <c r="L337" t="s" s="2">
         <v>963</v>
       </c>
-      <c r="M337" s="2"/>
+      <c r="M337" t="s" s="2">
+        <v>964</v>
+      </c>
       <c r="N337" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41094,11 +41107,13 @@
         <v>43</v>
       </c>
       <c r="W337" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X337" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X337" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y337" t="s" s="2">
-        <v>801</v>
+        <v>43</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41145,7 +41160,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41168,17 +41183,17 @@
         <v>43</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>526</v>
+        <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41203,13 +41218,11 @@
         <v>43</v>
       </c>
       <c r="W338" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X338" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>43</v>
+        <v>801</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41227,7 +41240,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41256,7 +41269,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41279,17 +41292,17 @@
         <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>728</v>
+        <v>526</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41338,7 +41351,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41367,7 +41380,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41390,17 +41403,15 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>159</v>
+        <v>728</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="M340" t="s" s="2">
         <v>976</v>
       </c>
+      <c r="M340" s="2"/>
       <c r="N340" t="s" s="2">
         <v>977</v>
       </c>
@@ -41451,7 +41462,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41503,7 +41514,7 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K341" t="s" s="2">
         <v>979</v>
@@ -41540,13 +41551,13 @@
         <v>43</v>
       </c>
       <c r="W341" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X341" t="s" s="2">
-        <v>983</v>
+        <v>43</v>
       </c>
       <c r="Y341" t="s" s="2">
-        <v>984</v>
+        <v>43</v>
       </c>
       <c r="Z341" t="s" s="2">
         <v>43</v>
@@ -41593,7 +41604,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41616,19 +41627,19 @@
         <v>43</v>
       </c>
       <c r="J342" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K342" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="L342" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="M342" t="s" s="2">
         <v>986</v>
       </c>
-      <c r="K342" t="s" s="2">
+      <c r="N342" t="s" s="2">
         <v>987</v>
-      </c>
-      <c r="L342" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="M342" t="s" s="2">
-        <v>989</v>
-      </c>
-      <c r="N342" t="s" s="2">
-        <v>990</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41653,13 +41664,13 @@
         <v>43</v>
       </c>
       <c r="W342" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X342" t="s" s="2">
-        <v>43</v>
+        <v>988</v>
       </c>
       <c r="Y342" t="s" s="2">
-        <v>43</v>
+        <v>989</v>
       </c>
       <c r="Z342" t="s" s="2">
         <v>43</v>
@@ -41677,7 +41688,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41706,7 +41717,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41717,7 +41728,7 @@
         <v>41</v>
       </c>
       <c r="F343" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G343" t="s" s="2">
         <v>43</v>
@@ -41729,7 +41740,7 @@
         <v>43</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>317</v>
+        <v>991</v>
       </c>
       <c r="K343" t="s" s="2">
         <v>992</v>
@@ -41737,9 +41748,11 @@
       <c r="L343" t="s" s="2">
         <v>993</v>
       </c>
-      <c r="M343" s="2"/>
+      <c r="M343" t="s" s="2">
+        <v>994</v>
+      </c>
       <c r="N343" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41788,13 +41801,13 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>43</v>
@@ -41817,7 +41830,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41828,7 +41841,7 @@
         <v>41</v>
       </c>
       <c r="F344" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s" s="2">
         <v>43</v>
@@ -41840,16 +41853,18 @@
         <v>43</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>64</v>
+        <v>997</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>65</v>
+        <v>998</v>
       </c>
       <c r="M344" s="2"/>
-      <c r="N344" s="2"/>
+      <c r="N344" t="s" s="2">
+        <v>999</v>
+      </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
       </c>
@@ -41897,19 +41912,19 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>66</v>
+        <v>996</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI344" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ344" t="s" s="2">
         <v>43</v>
@@ -41921,23 +41936,23 @@
         <v>43</v>
       </c>
       <c r="AM344" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F345" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G345" t="s" s="2">
         <v>43</v>
@@ -41949,17 +41964,15 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M345" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M345" s="2"/>
       <c r="N345" s="2"/>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42008,19 +42021,19 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI345" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ345" t="s" s="2">
         <v>43</v>
@@ -42037,11 +42050,11 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -42054,26 +42067,24 @@
         <v>43</v>
       </c>
       <c r="H346" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I346" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J346" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="M346" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N346" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
         <v>43</v>
       </c>
@@ -42121,7 +42132,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -42145,45 +42156,47 @@
         <v>43</v>
       </c>
       <c r="AM346" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F347" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G347" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H347" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I347" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>426</v>
+        <v>70</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>999</v>
+        <v>326</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M347" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N347" t="s" s="2">
-        <v>1001</v>
+        <v>156</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42232,19 +42245,19 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>998</v>
+        <v>328</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI347" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ347" t="s" s="2">
         <v>43</v>
@@ -42256,12 +42269,12 @@
         <v>43</v>
       </c>
       <c r="AM347" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42284,17 +42297,17 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>126</v>
+        <v>426</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42319,13 +42332,13 @@
         <v>43</v>
       </c>
       <c r="W348" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>1006</v>
+        <v>43</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>1007</v>
+        <v>43</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42343,7 +42356,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42372,7 +42385,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42395,17 +42408,17 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="K349" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>1009</v>
-      </c>
-      <c r="L349" t="s" s="2">
-        <v>1010</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42430,13 +42443,13 @@
         <v>43</v>
       </c>
       <c r="W349" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X349" t="s" s="2">
-        <v>43</v>
+        <v>1011</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>43</v>
+        <v>1012</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42454,7 +42467,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42483,7 +42496,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42506,17 +42519,15 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>1014</v>
-      </c>
-      <c r="M350" t="s" s="2">
         <v>1015</v>
       </c>
+      <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
         <v>1016</v>
       </c>
@@ -42543,13 +42554,13 @@
         <v>43</v>
       </c>
       <c r="W350" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X350" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
@@ -42567,7 +42578,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42619,7 +42630,7 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="K351" t="s" s="2">
         <v>1018</v>
@@ -42656,13 +42667,13 @@
         <v>43</v>
       </c>
       <c r="W351" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X351" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y351" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z351" t="s" s="2">
         <v>43</v>
@@ -42720,7 +42731,7 @@
         <v>41</v>
       </c>
       <c r="F352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G352" t="s" s="2">
         <v>43</v>
@@ -42732,7 +42743,7 @@
         <v>43</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="K352" t="s" s="2">
         <v>1023</v>
@@ -42740,8 +42751,12 @@
       <c r="L352" t="s" s="2">
         <v>1024</v>
       </c>
-      <c r="M352" s="2"/>
-      <c r="N352" s="2"/>
+      <c r="M352" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>1026</v>
+      </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
       </c>
@@ -42795,7 +42810,7 @@
         <v>41</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>43</v>
@@ -42818,7 +42833,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42829,7 +42844,7 @@
         <v>41</v>
       </c>
       <c r="F353" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s" s="2">
         <v>43</v>
@@ -42841,13 +42856,13 @@
         <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>64</v>
+        <v>1028</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>65</v>
+        <v>1029</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -42898,19 +42913,19 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>66</v>
+        <v>1027</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>43</v>
@@ -42922,23 +42937,23 @@
         <v>43</v>
       </c>
       <c r="AM353" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F354" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G354" t="s" s="2">
         <v>43</v>
@@ -42950,17 +42965,15 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M354" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M354" s="2"/>
       <c r="N354" s="2"/>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43009,19 +43022,19 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI354" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ354" t="s" s="2">
         <v>43</v>
@@ -43038,11 +43051,11 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -43055,26 +43068,24 @@
         <v>43</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I355" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J355" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="M355" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N355" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N355" s="2"/>
       <c r="O355" t="s" s="2">
         <v>43</v>
       </c>
@@ -43122,7 +43133,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43146,47 +43157,47 @@
         <v>43</v>
       </c>
       <c r="AM355" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F356" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H356" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I356" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>685</v>
+        <v>326</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>686</v>
+        <v>327</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>687</v>
+        <v>73</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>1029</v>
+        <v>156</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43211,13 +43222,13 @@
         <v>43</v>
       </c>
       <c r="W356" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X356" t="s" s="2">
-        <v>689</v>
+        <v>43</v>
       </c>
       <c r="Y356" t="s" s="2">
-        <v>690</v>
+        <v>43</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43235,19 +43246,19 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>1028</v>
+        <v>328</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI356" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ356" t="s" s="2">
         <v>43</v>
@@ -43259,12 +43270,12 @@
         <v>43</v>
       </c>
       <c r="AM356" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43272,7 +43283,7 @@
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F357" t="s" s="2">
         <v>50</v>
@@ -43287,17 +43298,19 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>437</v>
+        <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>1031</v>
+        <v>685</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="M357" s="2"/>
+        <v>686</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>687</v>
+      </c>
       <c r="N357" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43322,13 +43335,13 @@
         <v>43</v>
       </c>
       <c r="W357" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>43</v>
+        <v>689</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>43</v>
+        <v>690</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43346,10 +43359,10 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="AF357" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG357" t="s" s="2">
         <v>50</v>
@@ -43375,7 +43388,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43398,17 +43411,15 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>52</v>
+        <v>437</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1036</v>
-      </c>
-      <c r="M358" t="s" s="2">
         <v>1037</v>
       </c>
+      <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
         <v>1038</v>
       </c>
@@ -43459,7 +43470,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43624,7 +43635,7 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K360" t="s" s="2">
         <v>1045</v>
@@ -43632,9 +43643,11 @@
       <c r="L360" t="s" s="2">
         <v>1046</v>
       </c>
-      <c r="M360" s="2"/>
+      <c r="M360" t="s" s="2">
+        <v>1047</v>
+      </c>
       <c r="N360" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43659,13 +43672,13 @@
         <v>43</v>
       </c>
       <c r="W360" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X360" t="s" s="2">
-        <v>1048</v>
+        <v>43</v>
       </c>
       <c r="Y360" t="s" s="2">
-        <v>1049</v>
+        <v>43</v>
       </c>
       <c r="Z360" t="s" s="2">
         <v>43</v>
@@ -43712,7 +43725,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43738,14 +43751,14 @@
         <v>180</v>
       </c>
       <c r="K361" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="L361" t="s" s="2">
         <v>1051</v>
-      </c>
-      <c r="L361" t="s" s="2">
-        <v>1052</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43773,11 +43786,11 @@
         <v>116</v>
       </c>
       <c r="X361" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="Y361" t="s" s="2">
         <v>1054</v>
       </c>
-      <c r="Y361" t="s" s="2">
-        <v>1055</v>
-      </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
       </c>
@@ -43794,7 +43807,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43823,7 +43836,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43849,14 +43862,14 @@
         <v>180</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="L362" t="s" s="2">
-        <v>1058</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" t="s" s="2">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43905,7 +43918,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43945,7 +43958,7 @@
         <v>41</v>
       </c>
       <c r="F363" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G363" t="s" s="2">
         <v>43</v>
@@ -43957,7 +43970,7 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="K363" t="s" s="2">
         <v>1062</v>
@@ -43966,7 +43979,9 @@
         <v>1063</v>
       </c>
       <c r="M363" s="2"/>
-      <c r="N363" s="2"/>
+      <c r="N363" t="s" s="2">
+        <v>1058</v>
+      </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
       </c>
@@ -43990,13 +44005,13 @@
         <v>43</v>
       </c>
       <c r="W363" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X363" t="s" s="2">
-        <v>43</v>
+        <v>1064</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>43</v>
+        <v>1065</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44020,7 +44035,7 @@
         <v>41</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>43</v>
@@ -44043,7 +44058,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44054,7 +44069,7 @@
         <v>41</v>
       </c>
       <c r="F364" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G364" t="s" s="2">
         <v>43</v>
@@ -44066,13 +44081,13 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>64</v>
+        <v>1067</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>65</v>
+        <v>1068</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -44123,19 +44138,19 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>66</v>
+        <v>1066</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI364" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ364" t="s" s="2">
         <v>43</v>
@@ -44147,23 +44162,23 @@
         <v>43</v>
       </c>
       <c r="AM364" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F365" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G365" t="s" s="2">
         <v>43</v>
@@ -44175,17 +44190,15 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M365" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M365" s="2"/>
       <c r="N365" s="2"/>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44234,19 +44247,19 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI365" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ365" t="s" s="2">
         <v>43</v>
@@ -44263,11 +44276,11 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
-        <v>325</v>
+        <v>69</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -44280,26 +44293,24 @@
         <v>43</v>
       </c>
       <c r="H366" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I366" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>326</v>
+        <v>71</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="M366" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N366" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N366" s="2"/>
       <c r="O366" t="s" s="2">
         <v>43</v>
       </c>
@@ -44347,7 +44358,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44371,47 +44382,47 @@
         <v>43</v>
       </c>
       <c r="AM366" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F367" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G367" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H367" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I367" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>685</v>
+        <v>326</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1068</v>
+        <v>327</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1069</v>
+        <v>73</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1070</v>
+        <v>156</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44436,13 +44447,13 @@
         <v>43</v>
       </c>
       <c r="W367" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X367" t="s" s="2">
-        <v>1071</v>
+        <v>43</v>
       </c>
       <c r="Y367" t="s" s="2">
-        <v>1072</v>
+        <v>43</v>
       </c>
       <c r="Z367" t="s" s="2">
         <v>43</v>
@@ -44460,19 +44471,19 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>1067</v>
+        <v>328</v>
       </c>
       <c r="AF367" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>43</v>
@@ -44484,12 +44495,12 @@
         <v>43</v>
       </c>
       <c r="AM367" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44497,7 +44508,7 @@
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F368" t="s" s="2">
         <v>50</v>
@@ -44512,17 +44523,19 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="M368" t="s" s="2">
         <v>1074</v>
       </c>
-      <c r="K368" t="s" s="2">
+      <c r="N368" t="s" s="2">
         <v>1075</v>
-      </c>
-      <c r="L368" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="M368" s="2"/>
-      <c r="N368" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44547,13 +44560,13 @@
         <v>43</v>
       </c>
       <c r="W368" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X368" t="s" s="2">
-        <v>43</v>
+        <v>1076</v>
       </c>
       <c r="Y368" t="s" s="2">
-        <v>43</v>
+        <v>1077</v>
       </c>
       <c r="Z368" t="s" s="2">
         <v>43</v>
@@ -44571,10 +44584,10 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF368" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG368" t="s" s="2">
         <v>50</v>
@@ -44709,8 +44722,119 @@
         <v>43</v>
       </c>
     </row>
+    <row r="370" hidden="true">
+      <c r="A370" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="B370" s="2"/>
+      <c r="C370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F370" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M370" s="2"/>
+      <c r="N370" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="O370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P370" s="2"/>
+      <c r="Q370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL370" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM370" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM369">
+  <autoFilter ref="A1:AM370">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -44720,7 +44844,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI368">
+  <conditionalFormatting sqref="A2:AI369">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -772,7 +772,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -157,7 +157,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}EOB-prof-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code in 
+('performing' | 'pcp' | 'referring' | 'supervising')) implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='site') implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1174,7 +1174,7 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
@@ -1423,7 +1423,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProfessionalAndNonClinicianProviderRoleVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProfessionalAndNonClinicianProviderRole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1502,7 +1502,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -1641,7 +1641,7 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatus</t>
   </si>
   <si>
     <t>referringnetworkcontractingstatus</t>
@@ -1756,7 +1756,7 @@
     <t>diagnosisCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CMVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CM</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>
@@ -1894,7 +1894,7 @@
     <t>procedureCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCSVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
@@ -2207,7 +2207,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2225,7 +2225,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>
@@ -2282,7 +2282,7 @@
     <t>locationCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CMSPlaceOfServiceVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CMSPlaceOfService</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.quantity</t>
@@ -2454,7 +2454,7 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2514,7 +2514,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodes</t>
   </si>
   <si>
     <t>denialreason</t>
@@ -2531,7 +2531,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReasonVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReason</t>
   </si>
   <si>
     <t>inoutnetwork</t>
@@ -2540,7 +2540,7 @@
     <t>Benefit Payment Status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatus</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.detail</t>
@@ -2966,7 +2966,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3014,7 +3014,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3586,7 +3586,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.4921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="80.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1174,13 +1174,13 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCode</t>
+    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-PractitionerRole|http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Organization|http://hl7.org/fhir/us/carin-bb/StructureDefinition/CARIN-BB-Patient)
 </t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13332" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13332" uniqueCount="1099">
   <si>
     <t>Path</t>
   </si>
@@ -157,10 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}EOB-prof-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code in 
-('performing' or 'pcp' or 'referring' or 'supervising')) implies 
-ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='site') implies 
-ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1343,6 +1340,13 @@
     <t>Common to identify the responsible and supporting practitioners.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+EOB-prof-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+('performing' or 'pcp' or 'referring' or 'supervising')) implies 
+ careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='site') implies 
+ careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
+  </si>
+  <si>
     <t>ExplanationOfBenefit.careTeam.id</t>
   </si>
   <si>
@@ -1459,9 +1463,6 @@
   <si>
     <t xml:space="preserve">pattern:category}
 </t>
-  </si>
-  <si>
-    <t>Slice based on value pattern</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.id</t>
@@ -1939,6 +1940,10 @@
     <t>At least one insurer is required for a claim to be a claim.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+EOB-insurance-focal:EOB.insurance:  at most one with focal = true {insurance.select (focal = true).count() &lt; 2}</t>
+  </si>
+  <si>
     <t>Coverage</t>
   </si>
   <si>
@@ -2427,6 +2432,9 @@
   </si>
   <si>
     <t>The adjudication results conveys the insurer's assessment of the item provided in the claim under the terms of the patient's insurance coverage.</t>
+  </si>
+  <si>
+    <t>Slice based on value pattern</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.id</t>
@@ -11752,7 +11760,7 @@
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>62</v>
+        <v>423</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
@@ -11769,7 +11777,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11878,7 +11886,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11989,7 +11997,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -12102,7 +12110,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -12125,17 +12133,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -12184,7 +12192,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -12213,7 +12221,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12236,17 +12244,17 @@
         <v>43</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12295,7 +12303,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -12313,7 +12321,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -12324,7 +12332,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12347,19 +12355,19 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12408,7 +12416,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12437,7 +12445,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12463,16 +12471,16 @@
         <v>180</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -12501,7 +12509,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -12519,7 +12527,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12548,7 +12556,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12574,14 +12582,14 @@
         <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12609,10 +12617,10 @@
         <v>116</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>43</v>
@@ -12630,7 +12638,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12659,7 +12667,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12685,16 +12693,16 @@
         <v>317</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12731,10 +12739,10 @@
         <v>43</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>461</v>
+        <v>164</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>43</v>
@@ -12743,7 +12751,7 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -13128,7 +13136,7 @@
         <v>43</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>466</v>
@@ -13777,7 +13785,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>499</v>
@@ -13805,16 +13813,16 @@
         <v>317</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13863,7 +13871,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -14248,7 +14256,7 @@
         <v>43</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>466</v>
@@ -15341,7 +15349,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>520</v>
@@ -15369,16 +15377,16 @@
         <v>317</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15427,7 +15435,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -15812,7 +15820,7 @@
         <v>43</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>466</v>
@@ -16459,7 +16467,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>522</v>
@@ -16487,16 +16495,16 @@
         <v>317</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16545,7 +16553,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16930,7 +16938,7 @@
         <v>43</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>466</v>
@@ -17577,7 +17585,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>524</v>
@@ -17605,16 +17613,16 @@
         <v>317</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17663,7 +17671,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -18048,7 +18056,7 @@
         <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>466</v>
@@ -18695,7 +18703,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>526</v>
@@ -18723,16 +18731,16 @@
         <v>317</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18781,7 +18789,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -19166,7 +19174,7 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>466</v>
@@ -20282,7 +20290,7 @@
         <v>43</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>537</v>
@@ -21394,7 +21402,7 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>578</v>
@@ -21949,7 +21957,7 @@
         <v>43</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>602</v>
@@ -22133,7 +22141,7 @@
         <v>43</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>62</v>
+        <v>610</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>43</v>
@@ -22142,7 +22150,7 @@
         <v>43</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>43</v>
@@ -22150,7 +22158,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22259,7 +22267,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22370,7 +22378,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22483,7 +22491,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22506,19 +22514,19 @@
         <v>51</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22567,7 +22575,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>50</v>
@@ -22596,7 +22604,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22619,17 +22627,17 @@
         <v>51</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22678,7 +22686,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>50</v>
@@ -22707,7 +22715,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22733,16 +22741,16 @@
         <v>52</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22791,7 +22799,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22820,7 +22828,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22846,14 +22854,14 @@
         <v>317</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22902,7 +22910,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22931,7 +22939,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23040,7 +23048,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23151,7 +23159,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23264,7 +23272,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23290,16 +23298,16 @@
         <v>528</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23348,7 +23356,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23377,7 +23385,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23403,14 +23411,14 @@
         <v>180</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23438,10 +23446,10 @@
         <v>108</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -23459,7 +23467,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23488,7 +23496,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23511,17 +23519,17 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23570,7 +23578,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23599,7 +23607,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23625,14 +23633,14 @@
         <v>317</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23681,7 +23689,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23710,7 +23718,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23819,7 +23827,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23930,7 +23938,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24043,7 +24051,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24066,17 +24074,17 @@
         <v>43</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -24125,7 +24133,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>50</v>
@@ -24154,7 +24162,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24177,17 +24185,17 @@
         <v>43</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -24236,7 +24244,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -24265,7 +24273,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24288,17 +24296,17 @@
         <v>43</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24347,7 +24355,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24376,7 +24384,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24399,17 +24407,17 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24458,7 +24466,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24487,7 +24495,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24510,17 +24518,17 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24569,7 +24577,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24598,7 +24606,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24624,14 +24632,14 @@
         <v>180</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24659,10 +24667,10 @@
         <v>116</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>43</v>
@@ -24680,7 +24688,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24709,7 +24717,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24735,16 +24743,16 @@
         <v>180</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24772,10 +24780,10 @@
         <v>116</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>43</v>
@@ -24793,7 +24801,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24822,11 +24830,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24848,16 +24856,16 @@
         <v>180</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24886,7 +24894,7 @@
       </c>
       <c r="X191" s="2"/>
       <c r="Y191" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
@@ -24904,7 +24912,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24933,7 +24941,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24959,16 +24967,16 @@
         <v>180</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24997,7 +25005,7 @@
       </c>
       <c r="X192" s="2"/>
       <c r="Y192" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -25015,7 +25023,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -25044,7 +25052,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25070,16 +25078,16 @@
         <v>180</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25107,10 +25115,10 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
@@ -25128,7 +25136,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25157,7 +25165,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25183,14 +25191,14 @@
         <v>483</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25239,7 +25247,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25268,7 +25276,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25294,14 +25302,14 @@
         <v>180</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25329,10 +25337,10 @@
         <v>116</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
@@ -25348,7 +25356,7 @@
         <v>548</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25377,10 +25385,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>43</v>
@@ -25405,14 +25413,14 @@
         <v>180</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25441,7 +25449,7 @@
       </c>
       <c r="X196" s="2"/>
       <c r="Y196" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>43</v>
@@ -25459,7 +25467,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25488,7 +25496,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25511,17 +25519,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25570,7 +25578,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25599,7 +25607,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25622,17 +25630,17 @@
         <v>43</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25681,7 +25689,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25710,7 +25718,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25733,19 +25741,19 @@
         <v>43</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25794,7 +25802,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25823,7 +25831,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25846,19 +25854,19 @@
         <v>43</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25907,7 +25915,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25936,7 +25944,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26018,7 +26026,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -26047,7 +26055,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26073,16 +26081,16 @@
         <v>180</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26110,10 +26118,10 @@
         <v>116</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Z202" t="s" s="2">
         <v>43</v>
@@ -26131,7 +26139,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26160,7 +26168,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26186,14 +26194,14 @@
         <v>180</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26221,10 +26229,10 @@
         <v>116</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Z203" t="s" s="2">
         <v>43</v>
@@ -26242,7 +26250,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26271,7 +26279,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26294,17 +26302,17 @@
         <v>43</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26353,7 +26361,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26382,7 +26390,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26405,17 +26413,17 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26464,7 +26472,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26493,7 +26501,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26519,14 +26527,14 @@
         <v>317</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26563,10 +26571,10 @@
         <v>43</v>
       </c>
       <c r="AA206" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>461</v>
+        <v>772</v>
       </c>
       <c r="AC206" t="s" s="2">
         <v>43</v>
@@ -26575,7 +26583,7 @@
         <v>548</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26604,7 +26612,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26713,7 +26721,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26824,7 +26832,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26937,7 +26945,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26963,16 +26971,16 @@
         <v>180</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -27001,7 +27009,7 @@
       </c>
       <c r="X210" s="2"/>
       <c r="Y210" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="Z210" t="s" s="2">
         <v>43</v>
@@ -27019,7 +27027,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -27048,7 +27056,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27074,16 +27082,16 @@
         <v>180</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27111,10 +27119,10 @@
         <v>116</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -27132,7 +27140,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27161,7 +27169,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27184,19 +27192,19 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27245,7 +27253,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27274,7 +27282,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27297,19 +27305,19 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27358,7 +27366,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27387,10 +27395,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C214" t="s" s="2">
         <v>43</v>
@@ -27415,14 +27423,14 @@
         <v>317</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27471,7 +27479,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27500,7 +27508,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27609,7 +27617,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27720,7 +27728,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27833,7 +27841,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27859,16 +27867,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27897,7 +27905,7 @@
       </c>
       <c r="X218" s="2"/>
       <c r="Y218" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27915,7 +27923,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>50</v>
@@ -27944,7 +27952,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27970,16 +27978,16 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -28007,10 +28015,10 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -28028,7 +28036,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28057,7 +28065,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28080,19 +28088,19 @@
         <v>43</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28141,7 +28149,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28170,7 +28178,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28193,19 +28201,19 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28254,7 +28262,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28283,10 +28291,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C222" t="s" s="2">
         <v>43</v>
@@ -28311,14 +28319,14 @@
         <v>317</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28367,7 +28375,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28396,7 +28404,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28505,7 +28513,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28616,7 +28624,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28729,7 +28737,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28755,16 +28763,16 @@
         <v>180</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28774,7 +28782,7 @@
         <v>43</v>
       </c>
       <c r="R226" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>43</v>
@@ -28793,7 +28801,7 @@
       </c>
       <c r="X226" s="2"/>
       <c r="Y226" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
@@ -28811,7 +28819,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>50</v>
@@ -28840,7 +28848,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28866,16 +28874,16 @@
         <v>180</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28904,7 +28912,7 @@
       </c>
       <c r="X227" s="2"/>
       <c r="Y227" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
@@ -28922,7 +28930,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28951,7 +28959,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28974,19 +28982,19 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -29035,7 +29043,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29064,7 +29072,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29087,19 +29095,19 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29148,7 +29156,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29177,10 +29185,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>43</v>
@@ -29205,14 +29213,14 @@
         <v>317</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29261,7 +29269,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29290,7 +29298,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29399,7 +29407,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29510,7 +29518,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29623,7 +29631,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29649,16 +29657,16 @@
         <v>180</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29687,7 +29695,7 @@
       </c>
       <c r="X234" s="2"/>
       <c r="Y234" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29705,7 +29713,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29734,7 +29742,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29760,16 +29768,16 @@
         <v>180</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29797,10 +29805,10 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29818,7 +29826,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29847,7 +29855,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29870,19 +29878,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29931,7 +29939,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29960,7 +29968,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29983,19 +29991,19 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30044,7 +30052,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30073,10 +30081,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>43</v>
@@ -30101,14 +30109,14 @@
         <v>317</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30157,7 +30165,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30186,7 +30194,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30295,7 +30303,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30406,7 +30414,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30519,7 +30527,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30545,16 +30553,16 @@
         <v>180</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30564,7 +30572,7 @@
         <v>43</v>
       </c>
       <c r="R242" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="S242" t="s" s="2">
         <v>43</v>
@@ -30583,7 +30591,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30601,7 +30609,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>50</v>
@@ -30630,7 +30638,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30656,16 +30664,16 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30693,10 +30701,10 @@
         <v>116</v>
       </c>
       <c r="X243" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30714,7 +30722,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30743,7 +30751,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30766,19 +30774,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30827,7 +30835,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30856,7 +30864,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30879,19 +30887,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30940,7 +30948,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30969,7 +30977,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30995,10 +31003,10 @@
         <v>317</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
@@ -31049,7 +31057,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31078,7 +31086,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31187,7 +31195,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31298,7 +31306,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31411,7 +31419,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31434,17 +31442,17 @@
         <v>43</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31493,7 +31501,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>50</v>
@@ -31522,7 +31530,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31548,14 +31556,14 @@
         <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31583,10 +31591,10 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31604,7 +31612,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31633,7 +31641,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31659,16 +31667,16 @@
         <v>180</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31696,10 +31704,10 @@
         <v>116</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31717,7 +31725,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31746,11 +31754,11 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31772,16 +31780,16 @@
         <v>180</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31809,28 +31817,28 @@
         <v>116</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Y253" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA253" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB253" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC253" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD253" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE253" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="Z253" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA253" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB253" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC253" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD253" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE253" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>50</v>
@@ -31859,7 +31867,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31885,16 +31893,16 @@
         <v>180</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31922,28 +31930,28 @@
         <v>116</v>
       </c>
       <c r="X254" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="Y254" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA254" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB254" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC254" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE254" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="Y254" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="Z254" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA254" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB254" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC254" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD254" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE254" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31972,7 +31980,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31998,16 +32006,16 @@
         <v>180</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -32035,10 +32043,10 @@
         <v>116</v>
       </c>
       <c r="X255" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z255" t="s" s="2">
         <v>43</v>
@@ -32056,7 +32064,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32085,7 +32093,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32108,17 +32116,17 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -32167,7 +32175,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32196,7 +32204,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32219,17 +32227,17 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M257" s="2"/>
       <c r="N257" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32278,7 +32286,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32307,7 +32315,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32330,19 +32338,19 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32391,7 +32399,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32420,7 +32428,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32443,19 +32451,19 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32504,7 +32512,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32533,7 +32541,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32615,7 +32623,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32644,7 +32652,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32667,17 +32675,17 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32726,7 +32734,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32755,7 +32763,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32781,10 +32789,10 @@
         <v>43</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -32835,7 +32843,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32864,7 +32872,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32890,10 +32898,10 @@
         <v>317</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -32944,7 +32952,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32973,7 +32981,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33082,7 +33090,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33193,7 +33201,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33306,7 +33314,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33329,17 +33337,17 @@
         <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33388,7 +33396,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33417,7 +33425,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33443,14 +33451,14 @@
         <v>180</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33478,10 +33486,10 @@
         <v>116</v>
       </c>
       <c r="X268" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
@@ -33499,7 +33507,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33528,7 +33536,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33554,16 +33562,16 @@
         <v>180</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33591,10 +33599,10 @@
         <v>116</v>
       </c>
       <c r="X269" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
@@ -33612,7 +33620,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33641,11 +33649,11 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33667,16 +33675,16 @@
         <v>180</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33704,10 +33712,10 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33725,7 +33733,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33754,7 +33762,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33780,16 +33788,16 @@
         <v>180</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33817,10 +33825,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33838,7 +33846,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33867,7 +33875,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33893,16 +33901,16 @@
         <v>180</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33930,10 +33938,10 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
@@ -33951,7 +33959,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33980,7 +33988,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34003,17 +34011,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -34062,7 +34070,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34091,7 +34099,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34114,17 +34122,17 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34173,7 +34181,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34202,7 +34210,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34225,19 +34233,19 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34286,7 +34294,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34315,7 +34323,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34338,19 +34346,19 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34399,7 +34407,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34428,7 +34436,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34510,7 +34518,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34539,7 +34547,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34562,17 +34570,17 @@
         <v>43</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34621,7 +34629,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34650,7 +34658,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34676,10 +34684,10 @@
         <v>43</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -34730,7 +34738,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34759,7 +34767,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34785,14 +34793,14 @@
         <v>317</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34841,7 +34849,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34870,7 +34878,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34979,7 +34987,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35090,7 +35098,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35203,7 +35211,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35226,17 +35234,17 @@
         <v>43</v>
       </c>
       <c r="J284" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35285,7 +35293,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35314,7 +35322,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35337,17 +35345,17 @@
         <v>43</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35396,7 +35404,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35425,7 +35433,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35448,17 +35456,17 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35507,7 +35515,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35536,7 +35544,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35559,17 +35567,17 @@
         <v>43</v>
       </c>
       <c r="J287" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35618,7 +35626,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>41</v>
@@ -35647,11 +35655,11 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -35673,16 +35681,16 @@
         <v>180</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35710,10 +35718,10 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35731,7 +35739,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>50</v>
@@ -35760,7 +35768,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35786,16 +35794,16 @@
         <v>180</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35823,10 +35831,10 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35844,7 +35852,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35873,7 +35881,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35899,16 +35907,16 @@
         <v>180</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35936,10 +35944,10 @@
         <v>116</v>
       </c>
       <c r="X290" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Y290" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z290" t="s" s="2">
         <v>43</v>
@@ -35957,7 +35965,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35986,7 +35994,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36012,14 +36020,14 @@
         <v>483</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36068,7 +36076,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36097,7 +36105,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36120,17 +36128,17 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36158,10 +36166,10 @@
         <v>116</v>
       </c>
       <c r="X292" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Y292" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="Z292" t="s" s="2">
         <v>43</v>
@@ -36179,7 +36187,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36208,7 +36216,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36231,17 +36239,17 @@
         <v>43</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36290,7 +36298,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36319,7 +36327,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36342,17 +36350,17 @@
         <v>43</v>
       </c>
       <c r="J294" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36401,7 +36409,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36430,7 +36438,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36453,19 +36461,19 @@
         <v>43</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36514,7 +36522,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36543,7 +36551,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36566,19 +36574,19 @@
         <v>43</v>
       </c>
       <c r="J296" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36627,7 +36635,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36656,7 +36664,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36682,16 +36690,16 @@
         <v>180</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36719,10 +36727,10 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Y297" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
@@ -36740,7 +36748,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36769,7 +36777,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36795,14 +36803,14 @@
         <v>180</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M298" s="2"/>
       <c r="N298" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36830,10 +36838,10 @@
         <v>116</v>
       </c>
       <c r="X298" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="Y298" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Z298" t="s" s="2">
         <v>43</v>
@@ -36851,7 +36859,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36880,7 +36888,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36903,17 +36911,17 @@
         <v>43</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36962,7 +36970,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36991,7 +36999,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37017,10 +37025,10 @@
         <v>43</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -37071,7 +37079,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37100,7 +37108,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37126,10 +37134,10 @@
         <v>317</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -37180,7 +37188,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37209,7 +37217,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37318,7 +37326,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37429,7 +37437,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37542,11 +37550,11 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37568,16 +37576,16 @@
         <v>180</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37605,10 +37613,10 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37626,7 +37634,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>50</v>
@@ -37655,7 +37663,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37681,16 +37689,16 @@
         <v>180</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37718,10 +37726,10 @@
         <v>116</v>
       </c>
       <c r="X306" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
@@ -37739,7 +37747,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37768,7 +37776,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37791,17 +37799,17 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37850,7 +37858,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37879,7 +37887,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37902,17 +37910,17 @@
         <v>43</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37961,7 +37969,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37990,7 +37998,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38013,19 +38021,19 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38074,7 +38082,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38103,7 +38111,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38126,19 +38134,19 @@
         <v>43</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38187,7 +38195,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38216,7 +38224,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38239,17 +38247,17 @@
         <v>43</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38298,7 +38306,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38327,7 +38335,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38353,10 +38361,10 @@
         <v>43</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -38407,7 +38415,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38436,7 +38444,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38462,10 +38470,10 @@
         <v>317</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
@@ -38516,7 +38524,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38545,7 +38553,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38654,7 +38662,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38765,7 +38773,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38878,11 +38886,11 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38904,16 +38912,16 @@
         <v>180</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38941,10 +38949,10 @@
         <v>116</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>43</v>
@@ -38962,7 +38970,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>50</v>
@@ -38991,7 +38999,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39017,16 +39025,16 @@
         <v>180</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39054,10 +39062,10 @@
         <v>116</v>
       </c>
       <c r="X318" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="Y318" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="Z318" t="s" s="2">
         <v>43</v>
@@ -39075,7 +39083,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39104,7 +39112,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39127,17 +39135,17 @@
         <v>43</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39186,7 +39194,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39215,7 +39223,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39238,17 +39246,17 @@
         <v>43</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39297,7 +39305,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39326,7 +39334,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39349,19 +39357,19 @@
         <v>43</v>
       </c>
       <c r="J321" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39410,7 +39418,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39439,7 +39447,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39462,19 +39470,19 @@
         <v>43</v>
       </c>
       <c r="J322" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39523,7 +39531,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39552,7 +39560,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39575,17 +39583,17 @@
         <v>43</v>
       </c>
       <c r="J323" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39634,7 +39642,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39663,7 +39671,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39689,10 +39697,10 @@
         <v>43</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
@@ -39743,7 +39751,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39772,7 +39780,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39798,14 +39806,14 @@
         <v>317</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39854,7 +39862,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39883,7 +39891,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39992,7 +40000,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40018,10 +40026,10 @@
         <v>70</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
@@ -40099,10 +40107,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C328" t="s" s="2">
         <v>43</v>
@@ -40124,13 +40132,13 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="K328" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="K328" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>931</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -40190,7 +40198,7 @@
         <v>42</v>
       </c>
       <c r="AH328" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="AI328" t="s" s="2">
         <v>78</v>
@@ -40210,7 +40218,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40323,7 +40331,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40349,16 +40357,16 @@
         <v>180</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40387,7 +40395,7 @@
       </c>
       <c r="X330" s="2"/>
       <c r="Y330" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40405,7 +40413,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>50</v>
@@ -40434,7 +40442,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40460,16 +40468,16 @@
         <v>180</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40497,10 +40505,10 @@
         <v>116</v>
       </c>
       <c r="X331" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="Y331" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="Z331" t="s" s="2">
         <v>43</v>
@@ -40518,7 +40526,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40547,7 +40555,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40570,19 +40578,19 @@
         <v>43</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40631,7 +40639,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40660,7 +40668,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40683,19 +40691,19 @@
         <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40744,7 +40752,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40773,7 +40781,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40799,16 +40807,16 @@
         <v>317</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40857,7 +40865,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40886,7 +40894,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40995,7 +41003,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41106,7 +41114,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41219,7 +41227,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41245,16 +41253,16 @@
         <v>180</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41283,7 +41291,7 @@
       </c>
       <c r="X338" s="2"/>
       <c r="Y338" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="Z338" t="s" s="2">
         <v>43</v>
@@ -41301,7 +41309,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>50</v>
@@ -41330,7 +41338,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41353,17 +41361,17 @@
         <v>51</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41412,7 +41420,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>50</v>
@@ -41441,7 +41449,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41467,14 +41475,14 @@
         <v>317</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="M340" s="2"/>
       <c r="N340" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41523,7 +41531,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41552,7 +41560,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41661,7 +41669,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41772,7 +41780,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41885,7 +41893,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41911,14 +41919,14 @@
         <v>180</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41947,7 +41955,7 @@
       </c>
       <c r="X344" s="2"/>
       <c r="Y344" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="Z344" t="s" s="2">
         <v>43</v>
@@ -41965,7 +41973,7 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
@@ -41994,7 +42002,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42017,19 +42025,19 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42078,7 +42086,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42107,7 +42115,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42133,14 +42141,14 @@
         <v>180</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="M346" s="2"/>
       <c r="N346" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42168,10 +42176,10 @@
         <v>116</v>
       </c>
       <c r="X346" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -42189,7 +42197,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -42218,7 +42226,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42244,14 +42252,14 @@
         <v>528</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42300,7 +42308,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42329,7 +42337,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42352,17 +42360,17 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42411,7 +42419,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42440,7 +42448,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42466,16 +42474,16 @@
         <v>159</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42524,7 +42532,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42553,7 +42561,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42579,16 +42587,16 @@
         <v>180</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42616,10 +42624,10 @@
         <v>116</v>
       </c>
       <c r="X350" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
@@ -42637,7 +42645,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42666,7 +42674,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42689,19 +42697,19 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42750,7 +42758,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42779,7 +42787,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42805,14 +42813,14 @@
         <v>317</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" t="s" s="2">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42861,7 +42869,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42890,7 +42898,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42999,7 +43007,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43110,7 +43118,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43223,7 +43231,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43246,17 +43254,17 @@
         <v>43</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="M356" s="2"/>
       <c r="N356" t="s" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43305,7 +43313,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
@@ -43334,7 +43342,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43360,14 +43368,14 @@
         <v>126</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43395,10 +43403,10 @@
         <v>174</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43416,7 +43424,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43445,7 +43453,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43471,14 +43479,14 @@
         <v>52</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43527,7 +43535,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43556,7 +43564,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43582,16 +43590,16 @@
         <v>180</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43640,7 +43648,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43669,7 +43677,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43695,16 +43703,16 @@
         <v>207</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43753,7 +43761,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43782,7 +43790,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43808,10 +43816,10 @@
         <v>317</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
@@ -43862,7 +43870,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43891,7 +43899,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -44000,7 +44008,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44111,7 +44119,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44224,7 +44232,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44250,16 +44258,16 @@
         <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44287,10 +44295,10 @@
         <v>116</v>
       </c>
       <c r="X365" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Y365" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44308,7 +44316,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>50</v>
@@ -44337,7 +44345,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44360,17 +44368,17 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="M366" s="2"/>
       <c r="N366" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44419,7 +44427,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44448,7 +44456,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44474,16 +44482,16 @@
         <v>52</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44532,7 +44540,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44561,7 +44569,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44587,16 +44595,16 @@
         <v>52</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44645,7 +44653,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44674,7 +44682,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44700,14 +44708,14 @@
         <v>180</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44735,10 +44743,10 @@
         <v>116</v>
       </c>
       <c r="X369" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="Y369" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="Z369" t="s" s="2">
         <v>43</v>
@@ -44756,7 +44764,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44785,7 +44793,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44811,14 +44819,14 @@
         <v>180</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="M370" s="2"/>
       <c r="N370" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44846,10 +44854,10 @@
         <v>116</v>
       </c>
       <c r="X370" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44867,7 +44875,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44896,7 +44904,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44922,14 +44930,14 @@
         <v>180</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44957,10 +44965,10 @@
         <v>116</v>
       </c>
       <c r="X371" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="Y371" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="Z371" t="s" s="2">
         <v>43</v>
@@ -44978,7 +44986,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -45007,7 +45015,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45033,10 +45041,10 @@
         <v>317</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" s="2"/>
@@ -45087,7 +45095,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45116,7 +45124,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45225,7 +45233,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45336,7 +45344,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45449,7 +45457,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45475,16 +45483,16 @@
         <v>180</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45512,10 +45520,10 @@
         <v>116</v>
       </c>
       <c r="X376" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="Y376" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45533,7 +45541,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>50</v>
@@ -45562,7 +45570,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45585,17 +45593,17 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="M377" s="2"/>
       <c r="N377" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45644,7 +45652,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45673,7 +45681,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45696,17 +45704,17 @@
         <v>43</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="M378" s="2"/>
       <c r="N378" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45755,7 +45763,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -2195,7 +2195,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSProcedureCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2213,7 +2213,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CPTHCPCSModifierCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureModifiers</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$382</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13509" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13476" uniqueCount="1091">
   <si>
     <t>Path</t>
   </si>
@@ -2917,23 +2917,6 @@
     <t>ExplanationOfBenefit.adjudication.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>adjudication-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
   </si>
   <si>
@@ -2964,7 +2947,7 @@
     <t>To provide the requestor with financial totals by category for the adjudication.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:null}
+    <t xml:space="preserve">value:category}
 </t>
   </si>
   <si>
@@ -3570,7 +3553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM383"/>
+  <dimension ref="A1:AM382"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -39885,11 +39868,11 @@
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F326" t="s" s="2">
         <v>42</v>
@@ -39907,12 +39890,14 @@
         <v>70</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>929</v>
+        <v>71</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="M326" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M326" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N326" s="2"/>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39949,14 +39934,16 @@
         <v>43</v>
       </c>
       <c r="AA326" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB326" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB326" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC326" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD326" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
         <v>77</v>
@@ -39983,46 +39970,48 @@
         <v>43</v>
       </c>
       <c r="AM326" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="B327" t="s" s="2">
-        <v>931</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F327" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G327" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H327" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H327" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I327" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>932</v>
+        <v>70</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>929</v>
+        <v>326</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="M327" s="2"/>
-      <c r="N327" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M327" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N327" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
       </c>
@@ -40070,7 +40059,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40079,7 +40068,7 @@
         <v>42</v>
       </c>
       <c r="AH327" t="s" s="2">
-        <v>933</v>
+        <v>43</v>
       </c>
       <c r="AI327" t="s" s="2">
         <v>78</v>
@@ -40094,47 +40083,47 @@
         <v>43</v>
       </c>
       <c r="AM327" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F328" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G328" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H328" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I328" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>326</v>
+        <v>774</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>327</v>
+        <v>775</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>73</v>
+        <v>776</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>156</v>
+        <v>777</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40159,13 +40148,11 @@
         <v>43</v>
       </c>
       <c r="W328" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X328" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X328" s="2"/>
       <c r="Y328" t="s" s="2">
-        <v>43</v>
+        <v>778</v>
       </c>
       <c r="Z328" t="s" s="2">
         <v>43</v>
@@ -40183,19 +40170,19 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>328</v>
+        <v>773</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI328" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ328" t="s" s="2">
         <v>43</v>
@@ -40207,12 +40194,12 @@
         <v>43</v>
       </c>
       <c r="AM328" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40220,7 +40207,7 @@
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F329" t="s" s="2">
         <v>50</v>
@@ -40238,16 +40225,16 @@
         <v>180</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40272,11 +40259,13 @@
         <v>43</v>
       </c>
       <c r="W329" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X329" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>784</v>
+      </c>
       <c r="Y329" t="s" s="2">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -40294,10 +40283,10 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG329" t="s" s="2">
         <v>50</v>
@@ -40323,7 +40312,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40346,19 +40335,19 @@
         <v>43</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>180</v>
+        <v>728</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40383,13 +40372,13 @@
         <v>43</v>
       </c>
       <c r="W330" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>784</v>
+        <v>43</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>785</v>
+        <v>43</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40407,7 +40396,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40436,7 +40425,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40459,19 +40448,19 @@
         <v>43</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40520,7 +40509,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40549,7 +40538,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40560,7 +40549,7 @@
         <v>41</v>
       </c>
       <c r="F332" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G332" t="s" s="2">
         <v>43</v>
@@ -40569,22 +40558,22 @@
         <v>43</v>
       </c>
       <c r="I332" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>733</v>
+        <v>317</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>792</v>
+        <v>935</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>793</v>
+        <v>936</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>794</v>
+        <v>937</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>795</v>
+        <v>938</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40621,25 +40610,25 @@
         <v>43</v>
       </c>
       <c r="AA332" t="s" s="2">
-        <v>43</v>
+        <v>939</v>
       </c>
       <c r="AB332" t="s" s="2">
-        <v>43</v>
+        <v>769</v>
       </c>
       <c r="AC332" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD332" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>791</v>
+        <v>934</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>43</v>
@@ -40662,7 +40651,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40673,7 +40662,7 @@
         <v>41</v>
       </c>
       <c r="F333" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G333" t="s" s="2">
         <v>43</v>
@@ -40682,23 +40671,19 @@
         <v>43</v>
       </c>
       <c r="I333" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>940</v>
+        <v>64</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="M333" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="N333" t="s" s="2">
-        <v>943</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M333" s="2"/>
+      <c r="N333" s="2"/>
       <c r="O333" t="s" s="2">
         <v>43</v>
       </c>
@@ -40734,31 +40719,31 @@
         <v>43</v>
       </c>
       <c r="AA333" t="s" s="2">
-        <v>944</v>
+        <v>43</v>
       </c>
       <c r="AB333" t="s" s="2">
-        <v>769</v>
+        <v>43</v>
       </c>
       <c r="AC333" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD333" t="s" s="2">
-        <v>719</v>
+        <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>939</v>
+        <v>66</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI333" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ333" t="s" s="2">
         <v>43</v>
@@ -40770,23 +40755,23 @@
         <v>43</v>
       </c>
       <c r="AM333" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F334" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s" s="2">
         <v>43</v>
@@ -40798,15 +40783,17 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M334" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M334" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N334" s="2"/>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40855,19 +40842,19 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI334" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ334" t="s" s="2">
         <v>43</v>
@@ -40884,11 +40871,11 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40901,24 +40888,26 @@
         <v>43</v>
       </c>
       <c r="H335" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I335" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J335" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M335" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N335" s="2"/>
+      <c r="N335" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
       </c>
@@ -40966,7 +40955,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40990,47 +40979,47 @@
         <v>43</v>
       </c>
       <c r="AM335" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="336" hidden="true">
+    <row r="336">
       <c r="A336" t="s" s="2">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F336" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G336" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H336" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I336" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>326</v>
+        <v>774</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>327</v>
+        <v>944</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>73</v>
+        <v>776</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>156</v>
+        <v>945</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41055,13 +41044,11 @@
         <v>43</v>
       </c>
       <c r="W336" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X336" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X336" s="2"/>
       <c r="Y336" t="s" s="2">
-        <v>43</v>
+        <v>778</v>
       </c>
       <c r="Z336" t="s" s="2">
         <v>43</v>
@@ -41079,19 +41066,19 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>328</v>
+        <v>943</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI336" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ336" t="s" s="2">
         <v>43</v>
@@ -41103,12 +41090,12 @@
         <v>43</v>
       </c>
       <c r="AM336" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41122,7 +41109,7 @@
         <v>50</v>
       </c>
       <c r="G337" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H337" t="s" s="2">
         <v>43</v>
@@ -41131,19 +41118,17 @@
         <v>51</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>180</v>
+        <v>728</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>774</v>
+        <v>947</v>
       </c>
       <c r="L337" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="M337" s="2"/>
+      <c r="N337" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="M337" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41168,11 +41153,13 @@
         <v>43</v>
       </c>
       <c r="W337" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X337" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X337" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y337" t="s" s="2">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41190,7 +41177,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>50</v>
@@ -41217,23 +41204,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="338" hidden="true">
+    <row r="338">
       <c r="A338" t="s" s="2">
-        <v>951</v>
-      </c>
-      <c r="B338" s="2"/>
+        <v>934</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>796</v>
+      </c>
       <c r="C338" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F338" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G338" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H338" t="s" s="2">
         <v>43</v>
@@ -41242,17 +41231,19 @@
         <v>51</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>728</v>
+        <v>317</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>952</v>
+        <v>797</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="M338" s="2"/>
+        <v>936</v>
+      </c>
+      <c r="M338" t="s" s="2">
+        <v>937</v>
+      </c>
       <c r="N338" t="s" s="2">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41301,13 +41292,13 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>43</v>
@@ -41328,13 +41319,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>939</v>
-      </c>
-      <c r="B339" t="s" s="2">
-        <v>796</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
         <v>43</v>
       </c>
@@ -41343,32 +41332,28 @@
         <v>41</v>
       </c>
       <c r="F339" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G339" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H339" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I339" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>797</v>
+        <v>64</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="M339" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="N339" t="s" s="2">
-        <v>943</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M339" s="2"/>
+      <c r="N339" s="2"/>
       <c r="O339" t="s" s="2">
         <v>43</v>
       </c>
@@ -41416,19 +41401,19 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>939</v>
+        <v>66</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI339" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ339" t="s" s="2">
         <v>43</v>
@@ -41440,23 +41425,23 @@
         <v>43</v>
       </c>
       <c r="AM339" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F340" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s" s="2">
         <v>43</v>
@@ -41468,15 +41453,17 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M340" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M340" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N340" s="2"/>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41525,19 +41512,19 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI340" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ340" t="s" s="2">
         <v>43</v>
@@ -41554,11 +41541,11 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -41571,24 +41558,26 @@
         <v>43</v>
       </c>
       <c r="H341" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I341" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J341" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M341" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N341" s="2"/>
+      <c r="N341" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
       </c>
@@ -41636,7 +41625,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41660,47 +41649,47 @@
         <v>43</v>
       </c>
       <c r="AM341" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F342" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G342" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I342" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>326</v>
+        <v>774</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>327</v>
+        <v>944</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>73</v>
+        <v>776</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>156</v>
+        <v>945</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41725,13 +41714,11 @@
         <v>43</v>
       </c>
       <c r="W342" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X342" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X342" s="2"/>
       <c r="Y342" t="s" s="2">
-        <v>43</v>
+        <v>798</v>
       </c>
       <c r="Z342" t="s" s="2">
         <v>43</v>
@@ -41749,19 +41736,19 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>328</v>
+        <v>943</v>
       </c>
       <c r="AF342" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>43</v>
@@ -41773,12 +41760,12 @@
         <v>43</v>
       </c>
       <c r="AM342" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41801,19 +41788,17 @@
         <v>51</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>180</v>
+        <v>728</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>774</v>
+        <v>947</v>
       </c>
       <c r="L343" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="M343" s="2"/>
+      <c r="N343" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="M343" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="N343" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41838,11 +41823,13 @@
         <v>43</v>
       </c>
       <c r="W343" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X343" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X343" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y343" t="s" s="2">
-        <v>798</v>
+        <v>43</v>
       </c>
       <c r="Z343" t="s" s="2">
         <v>43</v>
@@ -41860,7 +41847,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>50</v>
@@ -41887,9 +41874,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="344" hidden="true">
+    <row r="344">
       <c r="A344" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41897,32 +41884,32 @@
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F344" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G344" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H344" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I344" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>728</v>
+        <v>317</v>
       </c>
       <c r="K344" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="L344" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="L344" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41971,10 +41958,10 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>50</v>
@@ -41998,9 +41985,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42014,7 +42001,7 @@
         <v>50</v>
       </c>
       <c r="G345" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H345" t="s" s="2">
         <v>43</v>
@@ -42023,18 +42010,16 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>956</v>
+        <v>64</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>957</v>
+        <v>65</v>
       </c>
       <c r="M345" s="2"/>
-      <c r="N345" t="s" s="2">
-        <v>958</v>
-      </c>
+      <c r="N345" s="2"/>
       <c r="O345" t="s" s="2">
         <v>43</v>
       </c>
@@ -42082,7 +42067,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>955</v>
+        <v>66</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42094,7 +42079,7 @@
         <v>43</v>
       </c>
       <c r="AI345" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ345" t="s" s="2">
         <v>43</v>
@@ -42106,23 +42091,23 @@
         <v>43</v>
       </c>
       <c r="AM345" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G346" t="s" s="2">
         <v>43</v>
@@ -42134,15 +42119,17 @@
         <v>43</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M346" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42191,19 +42178,19 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI346" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ346" t="s" s="2">
         <v>43</v>
@@ -42220,11 +42207,11 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -42237,24 +42224,26 @@
         <v>43</v>
       </c>
       <c r="H347" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I347" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J347" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M347" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N347" s="2"/>
+      <c r="N347" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
       </c>
@@ -42302,7 +42291,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42326,47 +42315,45 @@
         <v>43</v>
       </c>
       <c r="AM347" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F348" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G348" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H348" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I348" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>326</v>
+        <v>958</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M348" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="M348" s="2"/>
       <c r="N348" t="s" s="2">
-        <v>156</v>
+        <v>960</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42391,13 +42378,11 @@
         <v>43</v>
       </c>
       <c r="W348" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X348" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X348" s="2"/>
       <c r="Y348" t="s" s="2">
-        <v>43</v>
+        <v>961</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42415,19 +42400,19 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>328</v>
+        <v>957</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI348" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ348" t="s" s="2">
         <v>43</v>
@@ -42439,7 +42424,7 @@
         <v>43</v>
       </c>
       <c r="AM348" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="349" hidden="true">
@@ -42467,7 +42452,7 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>180</v>
+        <v>728</v>
       </c>
       <c r="K349" t="s" s="2">
         <v>963</v>
@@ -42475,9 +42460,11 @@
       <c r="L349" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="M349" s="2"/>
+      <c r="M349" t="s" s="2">
+        <v>965</v>
+      </c>
       <c r="N349" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42502,11 +42489,13 @@
         <v>43</v>
       </c>
       <c r="W349" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X349" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y349" t="s" s="2">
-        <v>966</v>
+        <v>43</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42576,7 +42565,7 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>728</v>
+        <v>180</v>
       </c>
       <c r="K350" t="s" s="2">
         <v>968</v>
@@ -42584,11 +42573,9 @@
       <c r="L350" t="s" s="2">
         <v>969</v>
       </c>
-      <c r="M350" t="s" s="2">
+      <c r="M350" s="2"/>
+      <c r="N350" t="s" s="2">
         <v>970</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>971</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42613,13 +42600,13 @@
         <v>43</v>
       </c>
       <c r="W350" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X350" t="s" s="2">
-        <v>43</v>
+        <v>971</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>43</v>
+        <v>972</v>
       </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
@@ -42666,7 +42653,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42689,17 +42676,17 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>180</v>
+        <v>528</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42724,13 +42711,13 @@
         <v>43</v>
       </c>
       <c r="W351" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X351" t="s" s="2">
-        <v>976</v>
+        <v>43</v>
       </c>
       <c r="Y351" t="s" s="2">
-        <v>977</v>
+        <v>43</v>
       </c>
       <c r="Z351" t="s" s="2">
         <v>43</v>
@@ -42748,7 +42735,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42777,7 +42764,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42800,17 +42787,17 @@
         <v>43</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>528</v>
+        <v>728</v>
       </c>
       <c r="K352" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="L352" t="s" s="2">
         <v>979</v>
-      </c>
-      <c r="L352" t="s" s="2">
-        <v>980</v>
       </c>
       <c r="M352" s="2"/>
       <c r="N352" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42859,7 +42846,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42888,7 +42875,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42911,15 +42898,17 @@
         <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>728</v>
+        <v>159</v>
       </c>
       <c r="K353" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="L353" t="s" s="2">
         <v>983</v>
       </c>
-      <c r="L353" t="s" s="2">
+      <c r="M353" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="M353" s="2"/>
       <c r="N353" t="s" s="2">
         <v>985</v>
       </c>
@@ -42970,7 +42959,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -43022,7 +43011,7 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K354" t="s" s="2">
         <v>987</v>
@@ -43059,13 +43048,13 @@
         <v>43</v>
       </c>
       <c r="W354" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X354" t="s" s="2">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="Y354" t="s" s="2">
-        <v>43</v>
+        <v>992</v>
       </c>
       <c r="Z354" t="s" s="2">
         <v>43</v>
@@ -43112,7 +43101,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43135,19 +43124,19 @@
         <v>43</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>180</v>
+        <v>994</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43172,13 +43161,13 @@
         <v>43</v>
       </c>
       <c r="W355" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X355" t="s" s="2">
-        <v>996</v>
+        <v>43</v>
       </c>
       <c r="Y355" t="s" s="2">
-        <v>997</v>
+        <v>43</v>
       </c>
       <c r="Z355" t="s" s="2">
         <v>43</v>
@@ -43196,7 +43185,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43225,7 +43214,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43236,7 +43225,7 @@
         <v>41</v>
       </c>
       <c r="F356" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s" s="2">
         <v>43</v>
@@ -43248,7 +43237,7 @@
         <v>43</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>999</v>
+        <v>317</v>
       </c>
       <c r="K356" t="s" s="2">
         <v>1000</v>
@@ -43256,11 +43245,9 @@
       <c r="L356" t="s" s="2">
         <v>1001</v>
       </c>
-      <c r="M356" t="s" s="2">
+      <c r="M356" s="2"/>
+      <c r="N356" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43309,13 +43296,13 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>43</v>
@@ -43338,7 +43325,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43349,7 +43336,7 @@
         <v>41</v>
       </c>
       <c r="F357" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G357" t="s" s="2">
         <v>43</v>
@@ -43361,18 +43348,16 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>1005</v>
+        <v>64</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1006</v>
+        <v>65</v>
       </c>
       <c r="M357" s="2"/>
-      <c r="N357" t="s" s="2">
-        <v>1007</v>
-      </c>
+      <c r="N357" s="2"/>
       <c r="O357" t="s" s="2">
         <v>43</v>
       </c>
@@ -43420,19 +43405,19 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1004</v>
+        <v>66</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI357" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ357" t="s" s="2">
         <v>43</v>
@@ -43444,23 +43429,23 @@
         <v>43</v>
       </c>
       <c r="AM357" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F358" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G358" t="s" s="2">
         <v>43</v>
@@ -43472,15 +43457,17 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M358" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N358" s="2"/>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43529,19 +43516,19 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>43</v>
@@ -43558,11 +43545,11 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
@@ -43575,24 +43562,26 @@
         <v>43</v>
       </c>
       <c r="H359" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I359" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J359" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M359" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N359" s="2"/>
+      <c r="N359" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
       </c>
@@ -43640,7 +43629,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43664,47 +43653,45 @@
         <v>43</v>
       </c>
       <c r="AM359" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G360" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I360" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>70</v>
+        <v>428</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>326</v>
+        <v>1007</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M360" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1008</v>
+      </c>
+      <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>156</v>
+        <v>1009</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43753,19 +43740,19 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>328</v>
+        <v>1006</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>43</v>
@@ -43777,12 +43764,12 @@
         <v>43</v>
       </c>
       <c r="AM360" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43805,17 +43792,17 @@
         <v>43</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>428</v>
+        <v>126</v>
       </c>
       <c r="K361" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="L361" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="L361" t="s" s="2">
-        <v>1013</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43840,13 +43827,13 @@
         <v>43</v>
       </c>
       <c r="W361" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X361" t="s" s="2">
-        <v>43</v>
+        <v>1014</v>
       </c>
       <c r="Y361" t="s" s="2">
-        <v>43</v>
+        <v>1015</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -43864,7 +43851,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43893,7 +43880,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43916,17 +43903,17 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43951,13 +43938,13 @@
         <v>43</v>
       </c>
       <c r="W362" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X362" t="s" s="2">
-        <v>1019</v>
+        <v>43</v>
       </c>
       <c r="Y362" t="s" s="2">
-        <v>1020</v>
+        <v>43</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -43975,7 +43962,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -44004,7 +43991,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44027,15 +44014,17 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="L363" t="s" s="2">
+      <c r="M363" t="s" s="2">
         <v>1023</v>
       </c>
-      <c r="M363" s="2"/>
       <c r="N363" t="s" s="2">
         <v>1024</v>
       </c>
@@ -44062,13 +44051,13 @@
         <v>43</v>
       </c>
       <c r="W363" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X363" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44086,7 +44075,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44138,7 +44127,7 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K364" t="s" s="2">
         <v>1026</v>
@@ -44175,13 +44164,13 @@
         <v>43</v>
       </c>
       <c r="W364" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X364" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z364" t="s" s="2">
         <v>43</v>
@@ -44239,7 +44228,7 @@
         <v>41</v>
       </c>
       <c r="F365" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G365" t="s" s="2">
         <v>43</v>
@@ -44251,7 +44240,7 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="K365" t="s" s="2">
         <v>1031</v>
@@ -44259,12 +44248,8 @@
       <c r="L365" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="M365" t="s" s="2">
-        <v>1033</v>
-      </c>
-      <c r="N365" t="s" s="2">
-        <v>1034</v>
-      </c>
+      <c r="M365" s="2"/>
+      <c r="N365" s="2"/>
       <c r="O365" t="s" s="2">
         <v>43</v>
       </c>
@@ -44318,7 +44303,7 @@
         <v>41</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>43</v>
@@ -44341,7 +44326,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44352,7 +44337,7 @@
         <v>41</v>
       </c>
       <c r="F366" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G366" t="s" s="2">
         <v>43</v>
@@ -44364,13 +44349,13 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>1036</v>
+        <v>64</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>1037</v>
+        <v>65</v>
       </c>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
@@ -44421,19 +44406,19 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>1035</v>
+        <v>66</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI366" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ366" t="s" s="2">
         <v>43</v>
@@ -44445,23 +44430,23 @@
         <v>43</v>
       </c>
       <c r="AM366" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F367" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G367" t="s" s="2">
         <v>43</v>
@@ -44473,15 +44458,17 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M367" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N367" s="2"/>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44530,19 +44517,19 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>43</v>
@@ -44559,11 +44546,11 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -44576,24 +44563,26 @@
         <v>43</v>
       </c>
       <c r="H368" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I368" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J368" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M368" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N368" s="2"/>
+      <c r="N368" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
       </c>
@@ -44641,7 +44630,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44665,47 +44654,47 @@
         <v>43</v>
       </c>
       <c r="AM368" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F369" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G369" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H369" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I369" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>326</v>
+        <v>682</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>327</v>
+        <v>683</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>73</v>
+        <v>684</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>156</v>
+        <v>1037</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44730,13 +44719,13 @@
         <v>43</v>
       </c>
       <c r="W369" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X369" t="s" s="2">
-        <v>43</v>
+        <v>686</v>
       </c>
       <c r="Y369" t="s" s="2">
-        <v>43</v>
+        <v>687</v>
       </c>
       <c r="Z369" t="s" s="2">
         <v>43</v>
@@ -44754,19 +44743,19 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>328</v>
+        <v>1036</v>
       </c>
       <c r="AF369" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI369" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ369" t="s" s="2">
         <v>43</v>
@@ -44778,12 +44767,12 @@
         <v>43</v>
       </c>
       <c r="AM369" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44791,7 +44780,7 @@
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F370" t="s" s="2">
         <v>50</v>
@@ -44806,19 +44795,17 @@
         <v>43</v>
       </c>
       <c r="J370" t="s" s="2">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>682</v>
+        <v>1039</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="M370" s="2"/>
       <c r="N370" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44843,13 +44830,13 @@
         <v>43</v>
       </c>
       <c r="W370" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X370" t="s" s="2">
-        <v>686</v>
+        <v>43</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>687</v>
+        <v>43</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44867,10 +44854,10 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="AF370" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG370" t="s" s="2">
         <v>50</v>
@@ -44896,7 +44883,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44919,15 +44906,17 @@
         <v>43</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="L371" t="s" s="2">
+      <c r="M371" t="s" s="2">
         <v>1045</v>
       </c>
-      <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
         <v>1046</v>
       </c>
@@ -44978,7 +44967,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -45143,7 +45132,7 @@
         <v>43</v>
       </c>
       <c r="J373" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
         <v>1053</v>
@@ -45151,11 +45140,9 @@
       <c r="L373" t="s" s="2">
         <v>1054</v>
       </c>
-      <c r="M373" t="s" s="2">
+      <c r="M373" s="2"/>
+      <c r="N373" t="s" s="2">
         <v>1055</v>
-      </c>
-      <c r="N373" t="s" s="2">
-        <v>1056</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45180,13 +45167,13 @@
         <v>43</v>
       </c>
       <c r="W373" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X373" t="s" s="2">
-        <v>43</v>
+        <v>1056</v>
       </c>
       <c r="Y373" t="s" s="2">
-        <v>43</v>
+        <v>1057</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45233,7 +45220,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45259,14 +45246,14 @@
         <v>180</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45294,10 +45281,10 @@
         <v>116</v>
       </c>
       <c r="X374" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
@@ -45315,7 +45302,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45344,7 +45331,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45370,14 +45357,14 @@
         <v>180</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45426,7 +45413,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45466,7 +45453,7 @@
         <v>41</v>
       </c>
       <c r="F376" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G376" t="s" s="2">
         <v>43</v>
@@ -45478,7 +45465,7 @@
         <v>43</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="K376" t="s" s="2">
         <v>1070</v>
@@ -45487,9 +45474,7 @@
         <v>1071</v>
       </c>
       <c r="M376" s="2"/>
-      <c r="N376" t="s" s="2">
-        <v>1066</v>
-      </c>
+      <c r="N376" s="2"/>
       <c r="O376" t="s" s="2">
         <v>43</v>
       </c>
@@ -45513,13 +45498,13 @@
         <v>43</v>
       </c>
       <c r="W376" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X376" t="s" s="2">
-        <v>1072</v>
+        <v>43</v>
       </c>
       <c r="Y376" t="s" s="2">
-        <v>1073</v>
+        <v>43</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45543,7 +45528,7 @@
         <v>41</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>43</v>
@@ -45566,7 +45551,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45577,7 +45562,7 @@
         <v>41</v>
       </c>
       <c r="F377" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G377" t="s" s="2">
         <v>43</v>
@@ -45589,13 +45574,13 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>1075</v>
+        <v>64</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>1076</v>
+        <v>65</v>
       </c>
       <c r="M377" s="2"/>
       <c r="N377" s="2"/>
@@ -45646,19 +45631,19 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>1074</v>
+        <v>66</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ377" t="s" s="2">
         <v>43</v>
@@ -45670,23 +45655,23 @@
         <v>43</v>
       </c>
       <c r="AM377" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G378" t="s" s="2">
         <v>43</v>
@@ -45698,15 +45683,17 @@
         <v>43</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M378" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N378" s="2"/>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45755,19 +45742,19 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>43</v>
@@ -45784,11 +45771,11 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45801,24 +45788,26 @@
         <v>43</v>
       </c>
       <c r="H379" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I379" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J379" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M379" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N379" s="2"/>
+      <c r="N379" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
       </c>
@@ -45866,7 +45855,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45890,47 +45879,47 @@
         <v>43</v>
       </c>
       <c r="AM379" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F380" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G380" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H380" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I380" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>326</v>
+        <v>682</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>327</v>
+        <v>1076</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>73</v>
+        <v>1077</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>156</v>
+        <v>1078</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45955,13 +45944,13 @@
         <v>43</v>
       </c>
       <c r="W380" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X380" t="s" s="2">
-        <v>43</v>
+        <v>1079</v>
       </c>
       <c r="Y380" t="s" s="2">
-        <v>43</v>
+        <v>1080</v>
       </c>
       <c r="Z380" t="s" s="2">
         <v>43</v>
@@ -45979,19 +45968,19 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>328</v>
+        <v>1075</v>
       </c>
       <c r="AF380" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI380" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ380" t="s" s="2">
         <v>43</v>
@@ -46003,12 +45992,12 @@
         <v>43</v>
       </c>
       <c r="AM380" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46016,7 +46005,7 @@
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F381" t="s" s="2">
         <v>50</v>
@@ -46031,19 +46020,17 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>180</v>
+        <v>1082</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>682</v>
+        <v>1083</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>1081</v>
-      </c>
-      <c r="M381" t="s" s="2">
-        <v>1082</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46068,13 +46055,13 @@
         <v>43</v>
       </c>
       <c r="W381" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X381" t="s" s="2">
-        <v>1084</v>
+        <v>43</v>
       </c>
       <c r="Y381" t="s" s="2">
-        <v>1085</v>
+        <v>43</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46092,10 +46079,10 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AF381" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG381" t="s" s="2">
         <v>50</v>
@@ -46230,119 +46217,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="383" hidden="true">
-      <c r="A383" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="B383" s="2"/>
-      <c r="C383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D383" s="2"/>
-      <c r="E383" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F383" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J383" t="s" s="2">
-        <v>1092</v>
-      </c>
-      <c r="K383" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="L383" t="s" s="2">
-        <v>1094</v>
-      </c>
-      <c r="M383" s="2"/>
-      <c r="N383" t="s" s="2">
-        <v>1095</v>
-      </c>
-      <c r="O383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P383" s="2"/>
-      <c r="Q383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE383" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="AF383" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG383" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI383" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL383" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM383" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM383">
+  <autoFilter ref="A1:AM382">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -46352,7 +46228,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI382">
+  <conditionalFormatting sqref="A2:AI381">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1315,9 +1315,9 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-prof-careTeam-practitioner:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+EOB-prof-careTeam-practitioner:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
 ('performing' or 'pcp' or 'referring' or 'supervising')) implies 
- careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Institutional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='site') implies 
+ careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='site') implies 
  careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1410,7 +1410,7 @@
     <t>Need to specify which qualification a provider is delivering the product or service under.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NUCCHealthcareProviderTaxonomy</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1312,9 +1312,9 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-prof-careTeam-practitioner:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
-('performing' or 'pcp' or 'referring' or 'supervising')) implies 
- careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='site') implies 
+EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}EOB-prof-careTeam-practitioner:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+('performing' or 'primary' or 'referring' or 'supervising')) implies 
+ careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Professional EOB:  Careteam roles refer to an organization {( careTeam.role.coding.code='site') implies 
  careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12874" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12875" uniqueCount="1094">
   <si>
     <t>Path</t>
   </si>
@@ -1312,7 +1312,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}EOB-prof-careTeam-practitioner:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+EOB-prof-careTeam-practitioner:Professional EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
 ('performing' or 'primary' or 'referring' or 'supervising')) implies 
  careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-prof-careTeam-organization:Professional EOB:  Careteam roles refer to an organization {( careTeam.role.coding.code='site') implies 
  careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
@@ -1407,7 +1407,10 @@
     <t>Need to specify which qualification a provider is delivering the product or service under.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty</t>
+    <t>Provider professional qualifications.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provider-qualification</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo</t>
@@ -11575,11 +11578,13 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -11626,7 +11631,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11652,16 +11657,16 @@
         <v>311</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -11698,10 +11703,10 @@
         <v>43</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>43</v>
@@ -11710,7 +11715,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -11739,7 +11744,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11848,7 +11853,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11959,7 +11964,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -12072,7 +12077,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -12098,14 +12103,14 @@
         <v>421</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -12154,7 +12159,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -12183,7 +12188,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12209,16 +12214,16 @@
         <v>178</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12246,10 +12251,10 @@
         <v>116</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
@@ -12267,7 +12272,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -12296,7 +12301,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12322,16 +12327,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12359,10 +12364,10 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
@@ -12380,7 +12385,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12409,7 +12414,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12432,13 +12437,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12489,7 +12494,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12518,7 +12523,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12541,19 +12546,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12602,7 +12607,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12631,7 +12636,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12657,16 +12662,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12694,10 +12699,10 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
@@ -12715,7 +12720,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12744,10 +12749,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>43</v>
@@ -12772,16 +12777,16 @@
         <v>311</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -12830,7 +12835,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -12859,7 +12864,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12968,7 +12973,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -13079,7 +13084,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13192,7 +13197,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13218,14 +13223,14 @@
         <v>421</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13274,7 +13279,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13303,7 +13308,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13329,16 +13334,16 @@
         <v>178</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13348,7 +13353,7 @@
         <v>43</v>
       </c>
       <c r="R88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>43</v>
@@ -13366,10 +13371,10 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -13387,7 +13392,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13416,7 +13421,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13525,7 +13530,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13636,7 +13641,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13662,16 +13667,16 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13720,7 +13725,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13741,15 +13746,15 @@
         <v>43</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13775,16 +13780,16 @@
         <v>52</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13833,7 +13838,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13854,15 +13859,15 @@
         <v>43</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13888,16 +13893,16 @@
         <v>178</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -13926,7 +13931,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>43</v>
@@ -13944,7 +13949,7 @@
         <v>43</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -13973,7 +13978,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13996,13 +14001,13 @@
         <v>43</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -14053,7 +14058,7 @@
         <v>43</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -14082,7 +14087,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14105,19 +14110,19 @@
         <v>43</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>43</v>
@@ -14166,7 +14171,7 @@
         <v>43</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -14195,7 +14200,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14221,16 +14226,16 @@
         <v>104</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14258,10 +14263,10 @@
         <v>116</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>43</v>
@@ -14279,7 +14284,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -14308,10 +14313,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>43</v>
@@ -14336,16 +14341,16 @@
         <v>311</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14394,7 +14399,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -14423,7 +14428,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14532,7 +14537,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14643,7 +14648,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14756,7 +14761,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14782,14 +14787,14 @@
         <v>421</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14838,7 +14843,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>50</v>
@@ -14867,7 +14872,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14893,16 +14898,16 @@
         <v>178</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14912,7 +14917,7 @@
         <v>43</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>43</v>
@@ -14930,10 +14935,10 @@
         <v>116</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
@@ -14951,7 +14956,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>50</v>
@@ -14980,7 +14985,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15006,16 +15011,16 @@
         <v>178</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>43</v>
@@ -15044,7 +15049,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>43</v>
@@ -15062,7 +15067,7 @@
         <v>43</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -15091,7 +15096,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15114,13 +15119,13 @@
         <v>43</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -15171,7 +15176,7 @@
         <v>43</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -15200,7 +15205,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15223,19 +15228,19 @@
         <v>43</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>43</v>
@@ -15284,7 +15289,7 @@
         <v>43</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -15313,7 +15318,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15339,16 +15344,16 @@
         <v>104</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15376,10 +15381,10 @@
         <v>116</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>43</v>
@@ -15397,7 +15402,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -15426,10 +15431,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>43</v>
@@ -15454,16 +15459,16 @@
         <v>311</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15512,7 +15517,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -15541,7 +15546,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15650,7 +15655,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15761,7 +15766,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15874,7 +15879,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15900,14 +15905,14 @@
         <v>421</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -15956,7 +15961,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>50</v>
@@ -15985,7 +15990,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16011,16 +16016,16 @@
         <v>178</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -16030,7 +16035,7 @@
         <v>43</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>43</v>
@@ -16048,10 +16053,10 @@
         <v>116</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -16069,7 +16074,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>50</v>
@@ -16098,7 +16103,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16124,16 +16129,16 @@
         <v>178</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -16161,10 +16166,10 @@
         <v>116</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>43</v>
@@ -16182,7 +16187,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -16211,7 +16216,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16234,13 +16239,13 @@
         <v>43</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -16291,7 +16296,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16320,7 +16325,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16343,19 +16348,19 @@
         <v>43</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16404,7 +16409,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16433,7 +16438,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16459,16 +16464,16 @@
         <v>104</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16496,10 +16501,10 @@
         <v>116</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>43</v>
@@ -16517,7 +16522,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16546,10 +16551,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>43</v>
@@ -16574,16 +16579,16 @@
         <v>311</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>43</v>
@@ -16632,7 +16637,7 @@
         <v>43</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -16661,7 +16666,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16770,7 +16775,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16881,7 +16886,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16994,7 +16999,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17020,14 +17025,14 @@
         <v>421</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -17076,7 +17081,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>50</v>
@@ -17105,7 +17110,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17131,16 +17136,16 @@
         <v>178</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -17150,7 +17155,7 @@
         <v>43</v>
       </c>
       <c r="R122" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>43</v>
@@ -17168,10 +17173,10 @@
         <v>116</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
@@ -17189,7 +17194,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>50</v>
@@ -17218,7 +17223,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17244,16 +17249,16 @@
         <v>178</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17281,10 +17286,10 @@
         <v>116</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>43</v>
@@ -17302,7 +17307,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17331,7 +17336,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17354,13 +17359,13 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -17411,7 +17416,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17440,7 +17445,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17463,19 +17468,19 @@
         <v>43</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17512,17 +17517,17 @@
         <v>43</v>
       </c>
       <c r="AA125" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AB125" s="2"/>
       <c r="AC125" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD125" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17551,10 +17556,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>43</v>
@@ -17579,16 +17584,16 @@
         <v>212</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17637,7 +17642,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17666,7 +17671,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17692,16 +17697,16 @@
         <v>104</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17729,10 +17734,10 @@
         <v>116</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>43</v>
@@ -17750,7 +17755,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -17779,7 +17784,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17805,14 +17810,14 @@
         <v>311</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17861,7 +17866,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17890,7 +17895,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17999,7 +18004,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18110,7 +18115,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18223,7 +18228,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18249,16 +18254,16 @@
         <v>421</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18307,7 +18312,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>50</v>
@@ -18336,7 +18341,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18362,14 +18367,14 @@
         <v>178</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18398,7 +18403,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18416,7 +18421,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18445,7 +18450,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18471,16 +18476,16 @@
         <v>178</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18509,7 +18514,7 @@
       </c>
       <c r="X134" s="2"/>
       <c r="Y134" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>43</v>
@@ -18527,7 +18532,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18556,7 +18561,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18582,14 +18587,14 @@
         <v>178</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18617,10 +18622,10 @@
         <v>116</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>43</v>
@@ -18638,7 +18643,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18667,7 +18672,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18693,16 +18698,16 @@
         <v>178</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18730,10 +18735,10 @@
         <v>116</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>43</v>
@@ -18751,7 +18756,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18780,7 +18785,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18806,14 +18811,14 @@
         <v>311</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18862,7 +18867,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18891,7 +18896,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19000,7 +19005,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19111,7 +19116,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19224,7 +19229,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19250,14 +19255,14 @@
         <v>421</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19306,7 +19311,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>50</v>
@@ -19335,7 +19340,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19361,14 +19366,14 @@
         <v>178</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19396,10 +19401,10 @@
         <v>116</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
@@ -19417,7 +19422,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19446,7 +19451,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19472,14 +19477,14 @@
         <v>265</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>43</v>
@@ -19528,7 +19533,7 @@
         <v>43</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -19557,7 +19562,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19580,17 +19585,17 @@
         <v>43</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>43</v>
@@ -19618,10 +19623,10 @@
         <v>116</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>43</v>
@@ -19639,7 +19644,7 @@
         <v>43</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>50</v>
@@ -19668,7 +19673,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19691,17 +19696,17 @@
         <v>43</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19750,7 +19755,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
@@ -19779,7 +19784,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19805,14 +19810,14 @@
         <v>421</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19861,7 +19866,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19890,7 +19895,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19916,16 +19921,16 @@
         <v>311</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19974,7 +19979,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>50</v>
@@ -19986,7 +19991,7 @@
         <v>43</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>43</v>
@@ -19995,7 +20000,7 @@
         <v>43</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>43</v>
@@ -20003,7 +20008,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20112,7 +20117,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20223,7 +20228,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20336,7 +20341,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20362,16 +20367,16 @@
         <v>431</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>43</v>
@@ -20420,7 +20425,7 @@
         <v>43</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>50</v>
@@ -20449,7 +20454,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20472,17 +20477,17 @@
         <v>51</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>253</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>43</v>
@@ -20531,7 +20536,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>50</v>
@@ -20560,7 +20565,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20586,16 +20591,16 @@
         <v>52</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20644,7 +20649,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>41</v>
@@ -20673,7 +20678,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20699,14 +20704,14 @@
         <v>311</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20755,7 +20760,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20784,7 +20789,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20893,7 +20898,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21004,7 +21009,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21117,7 +21122,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21140,19 +21145,19 @@
         <v>43</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -21201,7 +21206,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -21230,7 +21235,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21256,14 +21261,14 @@
         <v>178</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21291,10 +21296,10 @@
         <v>108</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>43</v>
@@ -21312,7 +21317,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21341,7 +21346,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21364,17 +21369,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21423,7 +21428,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21452,7 +21457,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21478,14 +21483,14 @@
         <v>311</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21534,7 +21539,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21563,7 +21568,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21672,7 +21677,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21783,7 +21788,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21896,7 +21901,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21922,14 +21927,14 @@
         <v>421</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>43</v>
@@ -21978,7 +21983,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>50</v>
@@ -22007,7 +22012,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22033,14 +22038,14 @@
         <v>421</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>43</v>
@@ -22089,7 +22094,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -22118,7 +22123,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22144,14 +22149,14 @@
         <v>421</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -22200,7 +22205,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>41</v>
@@ -22229,7 +22234,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22255,14 +22260,14 @@
         <v>421</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -22311,7 +22316,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>41</v>
@@ -22340,7 +22345,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22366,14 +22371,14 @@
         <v>421</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22422,7 +22427,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22451,7 +22456,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22477,14 +22482,14 @@
         <v>178</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22512,10 +22517,10 @@
         <v>116</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>43</v>
@@ -22533,7 +22538,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22562,7 +22567,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22588,16 +22593,16 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22625,10 +22630,10 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
@@ -22646,7 +22651,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22675,11 +22680,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22701,16 +22706,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22739,7 +22744,7 @@
       </c>
       <c r="X172" s="2"/>
       <c r="Y172" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
@@ -22757,7 +22762,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>50</v>
@@ -22786,7 +22791,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22812,16 +22817,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22850,7 +22855,7 @@
       </c>
       <c r="X173" s="2"/>
       <c r="Y173" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
@@ -22868,7 +22873,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>41</v>
@@ -22897,7 +22902,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22923,16 +22928,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22960,10 +22965,10 @@
         <v>116</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
@@ -22981,7 +22986,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -23010,7 +23015,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23036,14 +23041,14 @@
         <v>205</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -23080,17 +23085,17 @@
         <v>43</v>
       </c>
       <c r="AA175" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AB175" s="2"/>
       <c r="AC175" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD175" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -23119,10 +23124,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>43</v>
@@ -23147,14 +23152,14 @@
         <v>205</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -23203,7 +23208,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -23232,7 +23237,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23255,17 +23260,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23293,26 +23298,26 @@
         <v>116</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA177" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AB177" s="2"/>
       <c r="AC177" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD177" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23341,10 +23346,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>43</v>
@@ -23369,14 +23374,14 @@
         <v>178</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23405,7 +23410,7 @@
       </c>
       <c r="X178" s="2"/>
       <c r="Y178" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -23423,7 +23428,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23452,7 +23457,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23475,17 +23480,17 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23534,7 +23539,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23563,7 +23568,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23586,17 +23591,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23645,7 +23650,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23674,7 +23679,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23697,19 +23702,19 @@
         <v>43</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23758,7 +23763,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23787,7 +23792,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23810,19 +23815,19 @@
         <v>43</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23871,7 +23876,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23900,7 +23905,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23923,17 +23928,17 @@
         <v>43</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23982,7 +23987,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -24011,7 +24016,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24037,16 +24042,16 @@
         <v>178</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>43</v>
@@ -24074,10 +24079,10 @@
         <v>116</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>43</v>
@@ -24095,7 +24100,7 @@
         <v>43</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>41</v>
@@ -24124,7 +24129,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24150,14 +24155,14 @@
         <v>178</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -24185,10 +24190,10 @@
         <v>116</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Z185" t="s" s="2">
         <v>43</v>
@@ -24206,7 +24211,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>41</v>
@@ -24235,7 +24240,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24258,17 +24263,17 @@
         <v>43</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24317,7 +24322,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24346,7 +24351,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24372,14 +24377,14 @@
         <v>421</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24428,7 +24433,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24457,7 +24462,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24483,14 +24488,14 @@
         <v>311</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24527,19 +24532,19 @@
         <v>43</v>
       </c>
       <c r="AA188" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AB188" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AC188" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24568,7 +24573,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24677,7 +24682,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24788,7 +24793,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24901,7 +24906,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24927,16 +24932,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24965,7 +24970,7 @@
       </c>
       <c r="X192" s="2"/>
       <c r="Y192" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -24983,7 +24988,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>50</v>
@@ -25012,7 +25017,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25038,16 +25043,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25075,10 +25080,10 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
@@ -25096,7 +25101,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25125,7 +25130,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25148,19 +25153,19 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25209,7 +25214,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25238,7 +25243,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25261,19 +25266,19 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25322,7 +25327,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25351,10 +25356,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>43</v>
@@ -25379,14 +25384,14 @@
         <v>311</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25435,7 +25440,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25464,7 +25469,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25573,7 +25578,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25684,7 +25689,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25797,7 +25802,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25823,16 +25828,16 @@
         <v>178</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25861,7 +25866,7 @@
       </c>
       <c r="X200" s="2"/>
       <c r="Y200" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
@@ -25879,7 +25884,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>50</v>
@@ -25908,7 +25913,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25934,16 +25939,16 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25971,10 +25976,10 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
@@ -25992,7 +25997,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -26021,7 +26026,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26044,19 +26049,19 @@
         <v>43</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26105,7 +26110,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26134,7 +26139,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26157,19 +26162,19 @@
         <v>43</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26218,7 +26223,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26247,10 +26252,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C204" t="s" s="2">
         <v>43</v>
@@ -26275,14 +26280,14 @@
         <v>311</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26331,7 +26336,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26360,7 +26365,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26469,7 +26474,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26580,7 +26585,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26693,7 +26698,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26719,16 +26724,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26738,7 +26743,7 @@
         <v>43</v>
       </c>
       <c r="R208" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>43</v>
@@ -26757,7 +26762,7 @@
       </c>
       <c r="X208" s="2"/>
       <c r="Y208" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
@@ -26775,7 +26780,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26804,7 +26809,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26830,16 +26835,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26868,7 +26873,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26886,7 +26891,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26915,7 +26920,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26938,19 +26943,19 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26999,7 +27004,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -27028,7 +27033,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27051,19 +27056,19 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27112,7 +27117,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27141,10 +27146,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C212" t="s" s="2">
         <v>43</v>
@@ -27169,14 +27174,14 @@
         <v>311</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27225,7 +27230,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27254,7 +27259,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27363,7 +27368,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27474,7 +27479,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27587,7 +27592,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27613,16 +27618,16 @@
         <v>178</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27651,7 +27656,7 @@
       </c>
       <c r="X216" s="2"/>
       <c r="Y216" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>43</v>
@@ -27669,7 +27674,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>50</v>
@@ -27698,7 +27703,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27724,16 +27729,16 @@
         <v>178</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27761,10 +27766,10 @@
         <v>116</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27782,7 +27787,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27811,7 +27816,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27834,19 +27839,19 @@
         <v>43</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27895,7 +27900,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27924,7 +27929,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27947,19 +27952,19 @@
         <v>43</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -28008,7 +28013,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28037,10 +28042,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C220" t="s" s="2">
         <v>43</v>
@@ -28065,14 +28070,14 @@
         <v>311</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28121,7 +28126,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28150,7 +28155,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28259,7 +28264,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28370,7 +28375,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28483,7 +28488,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28509,16 +28514,16 @@
         <v>178</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28528,7 +28533,7 @@
         <v>43</v>
       </c>
       <c r="R224" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>43</v>
@@ -28547,7 +28552,7 @@
       </c>
       <c r="X224" s="2"/>
       <c r="Y224" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Z224" t="s" s="2">
         <v>43</v>
@@ -28565,7 +28570,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>50</v>
@@ -28594,7 +28599,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28620,16 +28625,16 @@
         <v>178</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28657,10 +28662,10 @@
         <v>116</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>43</v>
@@ -28678,7 +28683,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28707,7 +28712,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28730,19 +28735,19 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28791,7 +28796,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28820,7 +28825,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28843,19 +28848,19 @@
         <v>43</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28904,7 +28909,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28933,7 +28938,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28959,10 +28964,10 @@
         <v>311</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -29013,7 +29018,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29042,7 +29047,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29151,7 +29156,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29262,7 +29267,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29375,7 +29380,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29401,14 +29406,14 @@
         <v>421</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
@@ -29457,7 +29462,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>50</v>
@@ -29486,7 +29491,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29512,14 +29517,14 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M233" s="2"/>
       <c r="N233" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29547,10 +29552,10 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -29568,7 +29573,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29597,7 +29602,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29623,16 +29628,16 @@
         <v>178</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29660,10 +29665,10 @@
         <v>116</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29681,7 +29686,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29710,11 +29715,11 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29736,16 +29741,16 @@
         <v>178</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29773,10 +29778,10 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29794,7 +29799,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>50</v>
@@ -29823,7 +29828,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29849,16 +29854,16 @@
         <v>178</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29886,10 +29891,10 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -29907,7 +29912,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29936,7 +29941,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29962,16 +29967,16 @@
         <v>178</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29999,10 +30004,10 @@
         <v>116</v>
       </c>
       <c r="X237" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z237" t="s" s="2">
         <v>43</v>
@@ -30020,7 +30025,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30049,7 +30054,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30072,17 +30077,17 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M238" s="2"/>
       <c r="N238" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30131,7 +30136,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30160,7 +30165,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30183,17 +30188,17 @@
         <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -30242,7 +30247,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30271,7 +30276,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30294,19 +30299,19 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30355,7 +30360,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30384,7 +30389,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30407,19 +30412,19 @@
         <v>43</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30468,7 +30473,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30497,7 +30502,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30520,17 +30525,17 @@
         <v>43</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30579,7 +30584,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30608,7 +30613,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30634,14 +30639,14 @@
         <v>421</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30690,7 +30695,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30719,7 +30724,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30745,10 +30750,10 @@
         <v>43</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -30799,7 +30804,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30828,7 +30833,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30854,10 +30859,10 @@
         <v>311</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -30908,7 +30913,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30937,7 +30942,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31046,7 +31051,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31157,7 +31162,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31270,7 +31275,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31296,14 +31301,14 @@
         <v>421</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31352,7 +31357,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>50</v>
@@ -31381,7 +31386,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31407,14 +31412,14 @@
         <v>178</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31442,10 +31447,10 @@
         <v>116</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31463,7 +31468,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31492,7 +31497,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31518,16 +31523,16 @@
         <v>178</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31555,10 +31560,10 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31576,7 +31581,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31605,11 +31610,11 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31631,16 +31636,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31668,10 +31673,10 @@
         <v>116</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31689,7 +31694,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31718,7 +31723,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31744,16 +31749,16 @@
         <v>178</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31781,10 +31786,10 @@
         <v>116</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>43</v>
@@ -31802,7 +31807,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31831,7 +31836,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31857,16 +31862,16 @@
         <v>178</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31894,10 +31899,10 @@
         <v>116</v>
       </c>
       <c r="X254" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z254" t="s" s="2">
         <v>43</v>
@@ -31915,7 +31920,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31944,7 +31949,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31967,17 +31972,17 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -32026,7 +32031,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32055,7 +32060,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32078,17 +32083,17 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -32137,7 +32142,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32166,7 +32171,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32189,19 +32194,19 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32250,7 +32255,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32279,7 +32284,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32302,19 +32307,19 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32363,7 +32368,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32392,7 +32397,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32415,17 +32420,17 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32474,7 +32479,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32503,7 +32508,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32529,14 +32534,14 @@
         <v>421</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32585,7 +32590,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32614,7 +32619,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32640,10 +32645,10 @@
         <v>43</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32694,7 +32699,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32723,7 +32728,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32749,14 +32754,14 @@
         <v>311</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32805,7 +32810,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32834,7 +32839,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32943,7 +32948,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33054,7 +33059,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33167,7 +33172,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33193,14 +33198,14 @@
         <v>421</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33249,7 +33254,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33278,7 +33283,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33304,14 +33309,14 @@
         <v>421</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33360,7 +33365,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33389,7 +33394,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33415,14 +33420,14 @@
         <v>421</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33471,7 +33476,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33500,7 +33505,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33523,17 +33528,17 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33582,7 +33587,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33611,11 +33616,11 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33637,16 +33642,16 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33674,10 +33679,10 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33695,7 +33700,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33724,7 +33729,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33750,16 +33755,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33787,10 +33792,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33808,7 +33813,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33837,7 +33842,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33863,16 +33868,16 @@
         <v>178</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33900,10 +33905,10 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
@@ -33921,7 +33926,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33950,7 +33955,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33973,17 +33978,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -34032,7 +34037,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34061,7 +34066,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34084,17 +34089,17 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34122,10 +34127,10 @@
         <v>116</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>
@@ -34143,7 +34148,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34172,7 +34177,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34195,17 +34200,17 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M275" s="2"/>
       <c r="N275" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34254,7 +34259,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34283,7 +34288,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34306,17 +34311,17 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34365,7 +34370,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34394,7 +34399,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34417,19 +34422,19 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34478,7 +34483,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34507,7 +34512,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34530,19 +34535,19 @@
         <v>43</v>
       </c>
       <c r="J278" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34591,7 +34596,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34620,7 +34625,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34646,16 +34651,16 @@
         <v>178</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34683,10 +34688,10 @@
         <v>116</v>
       </c>
       <c r="X279" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Z279" t="s" s="2">
         <v>43</v>
@@ -34704,7 +34709,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34733,7 +34738,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34759,14 +34764,14 @@
         <v>178</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34794,10 +34799,10 @@
         <v>116</v>
       </c>
       <c r="X280" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Z280" t="s" s="2">
         <v>43</v>
@@ -34815,7 +34820,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34844,7 +34849,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34870,14 +34875,14 @@
         <v>421</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M281" s="2"/>
       <c r="N281" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O281" t="s" s="2">
         <v>43</v>
@@ -34926,7 +34931,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34955,7 +34960,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34981,10 +34986,10 @@
         <v>43</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -35035,7 +35040,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35064,7 +35069,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35090,10 +35095,10 @@
         <v>311</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -35144,7 +35149,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35173,7 +35178,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35282,7 +35287,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35393,7 +35398,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35506,11 +35511,11 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35532,16 +35537,16 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35569,10 +35574,10 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35590,7 +35595,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35619,7 +35624,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35645,16 +35650,16 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35682,10 +35687,10 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35703,7 +35708,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35732,7 +35737,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35755,17 +35760,17 @@
         <v>43</v>
       </c>
       <c r="J289" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35814,7 +35819,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35843,7 +35848,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35866,17 +35871,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35925,7 +35930,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35954,7 +35959,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35977,19 +35982,19 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36038,7 +36043,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36067,7 +36072,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36090,19 +36095,19 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36151,7 +36156,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36180,7 +36185,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36206,14 +36211,14 @@
         <v>421</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36262,7 +36267,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36291,7 +36296,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36317,10 +36322,10 @@
         <v>43</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -36371,7 +36376,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36400,7 +36405,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36426,10 +36431,10 @@
         <v>311</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -36480,7 +36485,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36509,7 +36514,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36618,7 +36623,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36729,7 +36734,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36842,11 +36847,11 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -36868,16 +36873,16 @@
         <v>178</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O299" t="s" s="2">
         <v>43</v>
@@ -36905,10 +36910,10 @@
         <v>116</v>
       </c>
       <c r="X299" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Y299" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z299" t="s" s="2">
         <v>43</v>
@@ -36926,7 +36931,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>50</v>
@@ -36955,7 +36960,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36981,16 +36986,16 @@
         <v>178</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="O300" t="s" s="2">
         <v>43</v>
@@ -37018,10 +37023,10 @@
         <v>116</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
@@ -37039,7 +37044,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37068,7 +37073,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37091,17 +37096,17 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37150,7 +37155,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37179,7 +37184,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37202,17 +37207,17 @@
         <v>43</v>
       </c>
       <c r="J302" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37261,7 +37266,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37290,7 +37295,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37313,19 +37318,19 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37374,7 +37379,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37403,7 +37408,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37426,19 +37431,19 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37487,7 +37492,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37516,7 +37521,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37542,14 +37547,14 @@
         <v>421</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M305" s="2"/>
       <c r="N305" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37598,7 +37603,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37627,7 +37632,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37653,10 +37658,10 @@
         <v>43</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -37707,7 +37712,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37736,7 +37741,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37762,14 +37767,14 @@
         <v>311</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37818,7 +37823,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37847,7 +37852,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37956,7 +37961,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38067,7 +38072,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38180,7 +38185,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38206,16 +38211,16 @@
         <v>178</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38244,7 +38249,7 @@
       </c>
       <c r="X311" s="2"/>
       <c r="Y311" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Z311" t="s" s="2">
         <v>43</v>
@@ -38262,7 +38267,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>50</v>
@@ -38291,7 +38296,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38317,16 +38322,16 @@
         <v>178</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38354,10 +38359,10 @@
         <v>116</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>43</v>
@@ -38375,7 +38380,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38404,7 +38409,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38427,19 +38432,19 @@
         <v>43</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38488,7 +38493,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38517,7 +38522,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38540,19 +38545,19 @@
         <v>43</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38601,7 +38606,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38630,7 +38635,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38656,16 +38661,16 @@
         <v>311</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38702,10 +38707,10 @@
         <v>43</v>
       </c>
       <c r="AA315" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AB315" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AC315" t="s" s="2">
         <v>43</v>
@@ -38714,7 +38719,7 @@
         <v>76</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38743,7 +38748,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38852,7 +38857,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38963,7 +38968,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39076,7 +39081,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39102,16 +39107,16 @@
         <v>178</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39140,7 +39145,7 @@
       </c>
       <c r="X319" s="2"/>
       <c r="Y319" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Z319" t="s" s="2">
         <v>43</v>
@@ -39158,7 +39163,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>50</v>
@@ -39187,7 +39192,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39210,17 +39215,17 @@
         <v>51</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39269,7 +39274,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>50</v>
@@ -39298,10 +39303,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C321" t="s" s="2">
         <v>43</v>
@@ -39326,16 +39331,16 @@
         <v>311</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39384,7 +39389,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39413,7 +39418,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39522,7 +39527,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39633,7 +39638,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39746,7 +39751,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39772,16 +39777,16 @@
         <v>178</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39810,7 +39815,7 @@
       </c>
       <c r="X325" s="2"/>
       <c r="Y325" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
@@ -39828,7 +39833,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>50</v>
@@ -39857,7 +39862,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39880,17 +39885,17 @@
         <v>51</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39939,7 +39944,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>50</v>
@@ -39968,7 +39973,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39994,14 +39999,14 @@
         <v>311</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40050,7 +40055,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40079,7 +40084,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40188,7 +40193,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40299,7 +40304,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40412,7 +40417,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40438,14 +40443,14 @@
         <v>178</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M331" s="2"/>
       <c r="N331" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40474,7 +40479,7 @@
       </c>
       <c r="X331" s="2"/>
       <c r="Y331" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Z331" t="s" s="2">
         <v>43</v>
@@ -40492,7 +40497,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40521,7 +40526,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40544,19 +40549,19 @@
         <v>43</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40605,7 +40610,7 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
@@ -40634,7 +40639,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40660,14 +40665,14 @@
         <v>178</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40695,10 +40700,10 @@
         <v>116</v>
       </c>
       <c r="X333" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Y333" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="Z333" t="s" s="2">
         <v>43</v>
@@ -40716,7 +40721,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40745,7 +40750,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40768,17 +40773,17 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40827,7 +40832,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40856,7 +40861,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40879,17 +40884,17 @@
         <v>43</v>
       </c>
       <c r="J335" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M335" s="2"/>
       <c r="N335" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40938,7 +40943,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40967,7 +40972,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40993,16 +40998,16 @@
         <v>159</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41051,7 +41056,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41080,7 +41085,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41106,16 +41111,16 @@
         <v>178</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41143,10 +41148,10 @@
         <v>116</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41164,7 +41169,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41193,7 +41198,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41216,19 +41221,19 @@
         <v>43</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41277,7 +41282,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41306,7 +41311,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41332,14 +41337,14 @@
         <v>311</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="M339" s="2"/>
       <c r="N339" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41388,7 +41393,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41417,7 +41422,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41526,7 +41531,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41637,7 +41642,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41750,7 +41755,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41776,14 +41781,14 @@
         <v>421</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41832,7 +41837,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41861,7 +41866,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41887,14 +41892,14 @@
         <v>126</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41922,10 +41927,10 @@
         <v>172</v>
       </c>
       <c r="X344" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="Y344" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Z344" t="s" s="2">
         <v>43</v>
@@ -41943,7 +41948,7 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
@@ -41972,7 +41977,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -41998,14 +42003,14 @@
         <v>52</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42054,7 +42059,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42083,7 +42088,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42109,16 +42114,16 @@
         <v>178</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42167,7 +42172,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -42196,7 +42201,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42222,16 +42227,16 @@
         <v>205</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42280,7 +42285,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42309,7 +42314,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42335,10 +42340,10 @@
         <v>311</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
@@ -42389,7 +42394,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42418,7 +42423,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42527,7 +42532,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42638,7 +42643,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42751,7 +42756,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42777,16 +42782,16 @@
         <v>178</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42814,10 +42819,10 @@
         <v>116</v>
       </c>
       <c r="X352" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="Y352" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Z352" t="s" s="2">
         <v>43</v>
@@ -42835,7 +42840,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>50</v>
@@ -42864,7 +42869,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42890,14 +42895,14 @@
         <v>431</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -42946,7 +42951,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42975,7 +42980,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43001,16 +43006,16 @@
         <v>52</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43059,7 +43064,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43088,7 +43093,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43114,16 +43119,16 @@
         <v>52</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43172,7 +43177,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43201,7 +43206,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43227,14 +43232,14 @@
         <v>178</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M356" s="2"/>
       <c r="N356" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43262,10 +43267,10 @@
         <v>116</v>
       </c>
       <c r="X356" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="Y356" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43283,7 +43288,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
@@ -43312,7 +43317,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43338,14 +43343,14 @@
         <v>178</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43373,10 +43378,10 @@
         <v>116</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43394,7 +43399,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43423,7 +43428,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43449,14 +43454,14 @@
         <v>178</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43484,10 +43489,10 @@
         <v>116</v>
       </c>
       <c r="X358" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="Z358" t="s" s="2">
         <v>43</v>
@@ -43505,7 +43510,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43534,7 +43539,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43560,10 +43565,10 @@
         <v>311</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
@@ -43614,7 +43619,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43643,7 +43648,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43752,7 +43757,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43863,7 +43868,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43976,7 +43981,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44002,16 +44007,16 @@
         <v>178</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44039,10 +44044,10 @@
         <v>116</v>
       </c>
       <c r="X363" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44060,7 +44065,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>50</v>
@@ -44089,7 +44094,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44112,17 +44117,17 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44171,7 +44176,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44200,7 +44205,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44223,17 +44228,17 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M365" s="2"/>
       <c r="N365" t="s" s="2">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44282,7 +44287,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -2195,7 +2195,7 @@
     <t>To support inclusion of the item for adjudication or to charge an elevated fee.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSProcedureModifiers</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AMACPTCMSHCPCSModifiers</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.programCode</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -1633,7 +1633,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>clmrecvddate</t>
+    <t>claimrecvddate</t>
   </si>
   <si>
     <t>The date the claim was received by the payer (88)</t>
@@ -1642,7 +1642,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="clmrecvddate"/&gt;
+    &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Professional-NonClinician.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$358</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12875" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12631" uniqueCount="1088">
   <si>
     <t>Path</t>
   </si>
@@ -1392,7 +1392,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CARINBBProfessionalAndNonclinicanClaimCareTeamRoleCodes</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBClaimProfessionalAndNonClinicianCareTeamRole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1616,7 +1616,7 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProviderContractingStatus</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerProviderContractingStatus</t>
   </si>
   <si>
     <t>performingnetworkcontractingstatus</t>
@@ -1745,7 +1745,7 @@
     <t>Often required to capture a particular diagnosis, for example: primary or discharge.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerProfessionalandnoncliniciandiagnosistype</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBClaimProfessionalAndNonClinicianDiagnosisType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.onAdmission</t>
@@ -2440,7 +2440,10 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
+    <t>The adjudication codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adjudication</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2500,7 +2503,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationCarinBBValueCodes</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBAdjudication</t>
   </si>
   <si>
     <t>denialreason</t>
@@ -2526,7 +2529,7 @@
     <t>Indicates the in network or out of network payment status of the claim. (142)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatus</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerBenefitPaymentStatus</t>
   </si>
   <si>
     <t>allowedunits</t>
@@ -2904,27 +2907,6 @@
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
   </si>
   <si>
-    <t>ExplanationOfBenefit.adjudication.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.value</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.total</t>
   </si>
   <si>
@@ -3010,7 +2992,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayerClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3549,7 +3531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM365"/>
+  <dimension ref="A1:AM358"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3582,7 +3564,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.01171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="86.87109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -24966,11 +24948,13 @@
         <v>43</v>
       </c>
       <c r="W192" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X192" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X192" t="s" s="2">
+        <v>778</v>
+      </c>
       <c r="Y192" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
@@ -25017,7 +25001,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25043,16 +25027,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25080,10 +25064,10 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
@@ -25101,7 +25085,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25130,7 +25114,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25156,16 +25140,16 @@
         <v>728</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25214,7 +25198,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25243,7 +25227,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25269,16 +25253,16 @@
         <v>733</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25327,7 +25311,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25359,7 +25343,7 @@
         <v>765</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>43</v>
@@ -25384,7 +25368,7 @@
         <v>311</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L196" t="s" s="2">
         <v>767</v>
@@ -25866,7 +25850,7 @@
       </c>
       <c r="X200" s="2"/>
       <c r="Y200" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
@@ -25913,7 +25897,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25939,16 +25923,16 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25976,10 +25960,10 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
@@ -25997,7 +25981,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -26026,7 +26010,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26052,16 +26036,16 @@
         <v>728</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26110,7 +26094,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26139,7 +26123,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26165,16 +26149,16 @@
         <v>733</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26223,7 +26207,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26255,7 +26239,7 @@
         <v>765</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C204" t="s" s="2">
         <v>43</v>
@@ -26280,7 +26264,7 @@
         <v>311</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L204" t="s" s="2">
         <v>767</v>
@@ -26743,7 +26727,7 @@
         <v>43</v>
       </c>
       <c r="R208" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>43</v>
@@ -26758,11 +26742,13 @@
         <v>43</v>
       </c>
       <c r="W208" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X208" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>778</v>
+      </c>
       <c r="Y208" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
@@ -26809,7 +26795,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26835,16 +26821,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26873,7 +26859,7 @@
       </c>
       <c r="X209" s="2"/>
       <c r="Y209" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26891,7 +26877,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26920,7 +26906,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26946,16 +26932,16 @@
         <v>728</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -27004,7 +26990,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -27033,7 +27019,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27059,16 +27045,16 @@
         <v>733</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27117,7 +27103,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27149,7 +27135,7 @@
         <v>765</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C212" t="s" s="2">
         <v>43</v>
@@ -27174,7 +27160,7 @@
         <v>311</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L212" t="s" s="2">
         <v>767</v>
@@ -27656,7 +27642,7 @@
       </c>
       <c r="X216" s="2"/>
       <c r="Y216" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>43</v>
@@ -27703,7 +27689,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27729,16 +27715,16 @@
         <v>178</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27766,10 +27752,10 @@
         <v>116</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27787,7 +27773,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27816,7 +27802,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27842,16 +27828,16 @@
         <v>728</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27900,7 +27886,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27929,7 +27915,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27955,16 +27941,16 @@
         <v>733</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -28013,7 +27999,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28045,7 +28031,7 @@
         <v>765</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C220" t="s" s="2">
         <v>43</v>
@@ -28070,7 +28056,7 @@
         <v>311</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="L220" t="s" s="2">
         <v>767</v>
@@ -28533,7 +28519,7 @@
         <v>43</v>
       </c>
       <c r="R224" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>43</v>
@@ -28548,11 +28534,13 @@
         <v>43</v>
       </c>
       <c r="W224" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X224" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X224" t="s" s="2">
+        <v>778</v>
+      </c>
       <c r="Y224" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Z224" t="s" s="2">
         <v>43</v>
@@ -28599,7 +28587,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28625,16 +28613,16 @@
         <v>178</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28662,10 +28650,10 @@
         <v>116</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>43</v>
@@ -28683,7 +28671,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28712,7 +28700,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28738,16 +28726,16 @@
         <v>728</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28796,7 +28784,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28825,7 +28813,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28851,16 +28839,16 @@
         <v>733</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28909,7 +28897,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28938,7 +28926,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28964,10 +28952,10 @@
         <v>311</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -29018,7 +29006,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29047,7 +29035,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29156,7 +29144,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29267,7 +29255,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29380,7 +29368,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29409,7 +29397,7 @@
         <v>647</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M232" s="2"/>
       <c r="N232" t="s" s="2">
@@ -29462,7 +29450,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>50</v>
@@ -29491,7 +29479,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29573,7 +29561,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29602,7 +29590,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29634,7 +29622,7 @@
         <v>681</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N234" t="s" s="2">
         <v>683</v>
@@ -29686,7 +29674,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29715,7 +29703,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29741,7 +29729,7 @@
         <v>178</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L235" t="s" s="2">
         <v>689</v>
@@ -29778,10 +29766,10 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y235" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29799,7 +29787,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>50</v>
@@ -29828,7 +29816,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29854,7 +29842,7 @@
         <v>178</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L236" t="s" s="2">
         <v>695</v>
@@ -29891,10 +29879,10 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -29912,7 +29900,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29941,7 +29929,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30025,7 +30013,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30054,7 +30042,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30080,7 +30068,7 @@
         <v>723</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L238" t="s" s="2">
         <v>725</v>
@@ -30136,7 +30124,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30165,7 +30153,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30247,7 +30235,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30276,7 +30264,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30360,7 +30348,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30389,7 +30377,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30473,7 +30461,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30502,7 +30490,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30584,7 +30572,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30613,7 +30601,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30639,7 +30627,7 @@
         <v>421</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L243" t="s" s="2">
         <v>763</v>
@@ -30695,7 +30683,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30724,7 +30712,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30750,10 +30738,10 @@
         <v>43</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -30804,7 +30792,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30833,7 +30821,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30859,10 +30847,10 @@
         <v>311</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -30913,7 +30901,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30942,7 +30930,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31051,7 +31039,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31162,7 +31150,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31275,7 +31263,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31304,7 +31292,7 @@
         <v>647</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
@@ -31357,7 +31345,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>50</v>
@@ -31386,7 +31374,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31468,7 +31456,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31497,7 +31485,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31581,7 +31569,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31610,7 +31598,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31636,7 +31624,7 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L252" t="s" s="2">
         <v>689</v>
@@ -31673,10 +31661,10 @@
         <v>116</v>
       </c>
       <c r="X252" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31694,7 +31682,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31723,7 +31711,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31749,13 +31737,13 @@
         <v>178</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L253" t="s" s="2">
         <v>695</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>697</v>
@@ -31786,10 +31774,10 @@
         <v>116</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>43</v>
@@ -31807,7 +31795,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31836,7 +31824,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31920,7 +31908,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31949,7 +31937,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31975,7 +31963,7 @@
         <v>723</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L255" t="s" s="2">
         <v>725</v>
@@ -32031,7 +32019,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32060,7 +32048,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32142,7 +32130,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32171,7 +32159,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32255,7 +32243,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32284,7 +32272,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32368,7 +32356,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32397,7 +32385,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32479,7 +32467,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32508,7 +32496,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32534,7 +32522,7 @@
         <v>421</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L260" t="s" s="2">
         <v>763</v>
@@ -32590,7 +32578,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32619,7 +32607,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32645,10 +32633,10 @@
         <v>43</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32699,7 +32687,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32728,7 +32716,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32754,14 +32742,14 @@
         <v>311</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32810,7 +32798,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32839,7 +32827,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32948,7 +32936,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33059,7 +33047,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33172,7 +33160,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33198,14 +33186,14 @@
         <v>421</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33254,7 +33242,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33283,7 +33271,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33309,14 +33297,14 @@
         <v>421</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33365,7 +33353,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33394,7 +33382,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33420,14 +33408,14 @@
         <v>421</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33476,7 +33464,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33505,7 +33493,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33528,17 +33516,17 @@
         <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M269" s="2"/>
       <c r="N269" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33587,7 +33575,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33616,7 +33604,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33642,7 +33630,7 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L270" t="s" s="2">
         <v>689</v>
@@ -33679,10 +33667,10 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33700,7 +33688,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33729,7 +33717,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33755,7 +33743,7 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L271" t="s" s="2">
         <v>695</v>
@@ -33792,10 +33780,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33813,7 +33801,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33842,7 +33830,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33926,7 +33914,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33955,7 +33943,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34037,7 +34025,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34066,7 +34054,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34148,7 +34136,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34177,7 +34165,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34203,7 +34191,7 @@
         <v>723</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L275" t="s" s="2">
         <v>725</v>
@@ -34259,7 +34247,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34288,7 +34276,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34370,7 +34358,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34399,7 +34387,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34483,7 +34471,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34512,7 +34500,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34596,7 +34584,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34625,7 +34613,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34657,7 +34645,7 @@
         <v>746</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N279" t="s" s="2">
         <v>748</v>
@@ -34709,7 +34697,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34738,7 +34726,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34820,7 +34808,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34849,7 +34837,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34875,7 +34863,7 @@
         <v>421</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L281" t="s" s="2">
         <v>763</v>
@@ -34931,7 +34919,7 @@
         <v>43</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>41</v>
@@ -34960,7 +34948,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -34986,10 +34974,10 @@
         <v>43</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -35040,7 +35028,7 @@
         <v>43</v>
       </c>
       <c r="AE282" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF282" t="s" s="2">
         <v>41</v>
@@ -35069,7 +35057,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35095,10 +35083,10 @@
         <v>311</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -35149,7 +35137,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35178,7 +35166,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35287,7 +35275,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35398,7 +35386,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35511,7 +35499,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35537,7 +35525,7 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L287" t="s" s="2">
         <v>689</v>
@@ -35574,10 +35562,10 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35595,7 +35583,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35624,7 +35612,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35650,7 +35638,7 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L288" t="s" s="2">
         <v>695</v>
@@ -35687,10 +35675,10 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35708,7 +35696,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35737,7 +35725,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35763,7 +35751,7 @@
         <v>723</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L289" t="s" s="2">
         <v>725</v>
@@ -35819,7 +35807,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35848,7 +35836,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35930,7 +35918,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35959,7 +35947,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36043,7 +36031,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36072,7 +36060,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36156,7 +36144,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36185,7 +36173,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36211,7 +36199,7 @@
         <v>421</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L293" t="s" s="2">
         <v>763</v>
@@ -36267,7 +36255,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36296,7 +36284,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36322,10 +36310,10 @@
         <v>43</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -36376,7 +36364,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36405,7 +36393,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36431,10 +36419,10 @@
         <v>311</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -36485,7 +36473,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36514,7 +36502,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36623,7 +36611,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36734,7 +36722,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36847,7 +36835,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36873,7 +36861,7 @@
         <v>178</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L299" t="s" s="2">
         <v>689</v>
@@ -36910,10 +36898,10 @@
         <v>116</v>
       </c>
       <c r="X299" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y299" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z299" t="s" s="2">
         <v>43</v>
@@ -36931,7 +36919,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>50</v>
@@ -36960,7 +36948,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36986,7 +36974,7 @@
         <v>178</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L300" t="s" s="2">
         <v>695</v>
@@ -37023,10 +37011,10 @@
         <v>116</v>
       </c>
       <c r="X300" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Y300" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>43</v>
@@ -37044,7 +37032,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37073,7 +37061,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37099,7 +37087,7 @@
         <v>723</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L301" t="s" s="2">
         <v>725</v>
@@ -37155,7 +37143,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37184,7 +37172,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37266,7 +37254,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37295,7 +37283,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37379,7 +37367,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37408,7 +37396,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37492,7 +37480,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37521,7 +37509,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37547,7 +37535,7 @@
         <v>421</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L305" t="s" s="2">
         <v>763</v>
@@ -37603,7 +37591,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37632,7 +37620,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37658,10 +37646,10 @@
         <v>43</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -37712,7 +37700,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37741,7 +37729,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37764,17 +37752,17 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>311</v>
+        <v>43</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37823,7 +37811,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37852,7 +37840,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37863,7 +37851,7 @@
         <v>41</v>
       </c>
       <c r="F308" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G308" t="s" s="2">
         <v>43</v>
@@ -37872,19 +37860,23 @@
         <v>43</v>
       </c>
       <c r="I308" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>52</v>
+        <v>311</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>64</v>
+        <v>931</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M308" s="2"/>
-      <c r="N308" s="2"/>
+        <v>932</v>
+      </c>
+      <c r="M308" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N308" t="s" s="2">
+        <v>934</v>
+      </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
       </c>
@@ -37920,31 +37912,31 @@
         <v>43</v>
       </c>
       <c r="AA308" t="s" s="2">
-        <v>43</v>
+        <v>935</v>
       </c>
       <c r="AB308" t="s" s="2">
-        <v>43</v>
+        <v>769</v>
       </c>
       <c r="AC308" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD308" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>66</v>
+        <v>930</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ308" t="s" s="2">
         <v>43</v>
@@ -37956,23 +37948,23 @@
         <v>43</v>
       </c>
       <c r="AM308" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F309" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G309" t="s" s="2">
         <v>43</v>
@@ -37984,17 +37976,15 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M309" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M309" s="2"/>
       <c r="N309" s="2"/>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38043,19 +38033,19 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>43</v>
@@ -38072,11 +38062,11 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38089,26 +38079,24 @@
         <v>43</v>
       </c>
       <c r="H310" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I310" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J310" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>321</v>
+        <v>72</v>
       </c>
       <c r="M310" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N310" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="N310" s="2"/>
       <c r="O310" t="s" s="2">
         <v>43</v>
       </c>
@@ -38156,7 +38144,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38180,47 +38168,47 @@
         <v>43</v>
       </c>
       <c r="AM310" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F311" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G311" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I311" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>774</v>
+        <v>320</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>775</v>
+        <v>321</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>776</v>
+        <v>73</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>777</v>
+        <v>156</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38245,11 +38233,13 @@
         <v>43</v>
       </c>
       <c r="W311" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X311" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X311" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y311" t="s" s="2">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="Z311" t="s" s="2">
         <v>43</v>
@@ -38267,19 +38257,19 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>773</v>
+        <v>322</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>43</v>
@@ -38291,12 +38281,12 @@
         <v>43</v>
       </c>
       <c r="AM311" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="312" hidden="true">
+    <row r="312">
       <c r="A312" t="s" s="2">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38304,34 +38294,34 @@
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F312" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G312" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H312" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I312" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J312" t="s" s="2">
         <v>178</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>781</v>
+        <v>940</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>783</v>
+        <v>941</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38359,10 +38349,10 @@
         <v>116</v>
       </c>
       <c r="X312" t="s" s="2">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="Y312" t="s" s="2">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="Z312" t="s" s="2">
         <v>43</v>
@@ -38380,10 +38370,10 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>779</v>
+        <v>939</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>50</v>
@@ -38407,9 +38397,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="313" hidden="true">
+    <row r="313">
       <c r="A313" t="s" s="2">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38417,34 +38407,32 @@
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F313" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G313" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H313" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I313" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J313" t="s" s="2">
         <v>728</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>787</v>
+        <v>943</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="M313" t="s" s="2">
-        <v>789</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
-        <v>790</v>
+        <v>945</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38493,10 +38481,10 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>786</v>
+        <v>942</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>50</v>
@@ -38520,11 +38508,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="314" hidden="true">
+    <row r="314">
       <c r="A314" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="B314" s="2"/>
+        <v>930</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>797</v>
+      </c>
       <c r="C314" t="s" s="2">
         <v>43</v>
       </c>
@@ -38533,31 +38523,31 @@
         <v>41</v>
       </c>
       <c r="F314" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G314" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H314" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I314" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J314" t="s" s="2">
-        <v>733</v>
+        <v>311</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>793</v>
+        <v>932</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>794</v>
+        <v>933</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>795</v>
+        <v>934</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38606,13 +38596,13 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>791</v>
+        <v>930</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>43</v>
@@ -38646,7 +38636,7 @@
         <v>41</v>
       </c>
       <c r="F315" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G315" t="s" s="2">
         <v>43</v>
@@ -38655,23 +38645,19 @@
         <v>43</v>
       </c>
       <c r="I315" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J315" t="s" s="2">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>937</v>
+        <v>64</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>938</v>
-      </c>
-      <c r="M315" t="s" s="2">
-        <v>939</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>940</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M315" s="2"/>
+      <c r="N315" s="2"/>
       <c r="O315" t="s" s="2">
         <v>43</v>
       </c>
@@ -38707,31 +38693,31 @@
         <v>43</v>
       </c>
       <c r="AA315" t="s" s="2">
-        <v>941</v>
+        <v>43</v>
       </c>
       <c r="AB315" t="s" s="2">
-        <v>769</v>
+        <v>43</v>
       </c>
       <c r="AC315" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD315" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>936</v>
+        <v>66</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI315" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ315" t="s" s="2">
         <v>43</v>
@@ -38743,23 +38729,23 @@
         <v>43</v>
       </c>
       <c r="AM315" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F316" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G316" t="s" s="2">
         <v>43</v>
@@ -38771,15 +38757,17 @@
         <v>43</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M316" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M316" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N316" s="2"/>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38828,19 +38816,19 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ316" t="s" s="2">
         <v>43</v>
@@ -38857,11 +38845,11 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
-        <v>69</v>
+        <v>319</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38874,24 +38862,26 @@
         <v>43</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I317" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J317" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="M317" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N317" s="2"/>
+      <c r="N317" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
       </c>
@@ -38939,7 +38929,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38963,47 +38953,47 @@
         <v>43</v>
       </c>
       <c r="AM317" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F318" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>320</v>
+        <v>774</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>321</v>
+        <v>940</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>73</v>
+        <v>776</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>156</v>
+        <v>941</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39028,13 +39018,11 @@
         <v>43</v>
       </c>
       <c r="W318" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X318" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X318" s="2"/>
       <c r="Y318" t="s" s="2">
-        <v>43</v>
+        <v>799</v>
       </c>
       <c r="Z318" t="s" s="2">
         <v>43</v>
@@ -39052,19 +39040,19 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>322</v>
+        <v>939</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ318" t="s" s="2">
         <v>43</v>
@@ -39076,12 +39064,12 @@
         <v>43</v>
       </c>
       <c r="AM318" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39104,19 +39092,17 @@
         <v>51</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>178</v>
+        <v>728</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>774</v>
+        <v>946</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="M319" t="s" s="2">
-        <v>776</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39141,11 +39127,13 @@
         <v>43</v>
       </c>
       <c r="W319" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X319" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X319" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y319" t="s" s="2">
-        <v>778</v>
+        <v>43</v>
       </c>
       <c r="Z319" t="s" s="2">
         <v>43</v>
@@ -39163,7 +39151,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>50</v>
@@ -39192,7 +39180,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39200,7 +39188,7 @@
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F320" t="s" s="2">
         <v>50</v>
@@ -39212,20 +39200,20 @@
         <v>43</v>
       </c>
       <c r="I320" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>728</v>
+        <v>311</v>
       </c>
       <c r="K320" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="L320" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39274,10 +39262,10 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>50</v>
@@ -39301,13 +39289,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="B321" t="s" s="2">
-        <v>796</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
         <v>43</v>
       </c>
@@ -39316,32 +39302,28 @@
         <v>41</v>
       </c>
       <c r="F321" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G321" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H321" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I321" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J321" t="s" s="2">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>797</v>
+        <v>64</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>938</v>
-      </c>
-      <c r="M321" t="s" s="2">
-        <v>939</v>
-      </c>
-      <c r="N321" t="s" s="2">
-        <v>940</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M321" s="2"/>
+      <c r="N321" s="2"/>
       <c r="O321" t="s" s="2">
         <v>43</v>
       </c>
@@ -39389,19 +39371,19 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>936</v>
+        <v>66</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI321" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ321" t="s" s="2">
         <v>43</v>
@@ -39413,23 +39395,23 @@
         <v>43</v>
       </c>
       <c r="AM321" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F322" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G322" t="s" s="2">
         <v>43</v>
@@ -39441,15 +39423,17 @@
         <v>43</v>
       </c>
       <c r="J322" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M322" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N322" s="2"/>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39498,19 +39482,19 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI322" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ322" t="s" s="2">
         <v>43</v>
@@ -39527,11 +39511,11 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
-        <v>69</v>
+        <v>319</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -39544,24 +39528,26 @@
         <v>43</v>
       </c>
       <c r="H323" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I323" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J323" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="M323" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N323" s="2"/>
+      <c r="N323" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
       </c>
@@ -39609,7 +39595,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39633,47 +39619,45 @@
         <v>43</v>
       </c>
       <c r="AM323" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="324" hidden="true">
+    <row r="324">
       <c r="A324" t="s" s="2">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F324" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G324" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H324" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I324" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J324" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>320</v>
+        <v>955</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>156</v>
+        <v>957</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39698,13 +39682,11 @@
         <v>43</v>
       </c>
       <c r="W324" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X324" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X324" s="2"/>
       <c r="Y324" t="s" s="2">
-        <v>43</v>
+        <v>958</v>
       </c>
       <c r="Z324" t="s" s="2">
         <v>43</v>
@@ -39722,19 +39704,19 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>322</v>
+        <v>954</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI324" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ324" t="s" s="2">
         <v>43</v>
@@ -39746,12 +39728,12 @@
         <v>43</v>
       </c>
       <c r="AM324" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39759,7 +39741,7 @@
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F325" t="s" s="2">
         <v>50</v>
@@ -39771,22 +39753,22 @@
         <v>43</v>
       </c>
       <c r="I325" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>178</v>
+        <v>728</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>774</v>
+        <v>960</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>776</v>
+        <v>962</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39811,11 +39793,13 @@
         <v>43</v>
       </c>
       <c r="W325" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X325" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y325" t="s" s="2">
-        <v>798</v>
+        <v>43</v>
       </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
@@ -39833,10 +39817,10 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>50</v>
@@ -39860,9 +39844,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39870,32 +39854,32 @@
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F326" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G326" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H326" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I326" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>728</v>
+        <v>178</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39920,13 +39904,13 @@
         <v>43</v>
       </c>
       <c r="W326" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X326" t="s" s="2">
-        <v>43</v>
+        <v>968</v>
       </c>
       <c r="Y326" t="s" s="2">
-        <v>43</v>
+        <v>969</v>
       </c>
       <c r="Z326" t="s" s="2">
         <v>43</v>
@@ -39944,10 +39928,10 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="AF326" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG326" t="s" s="2">
         <v>50</v>
@@ -39973,7 +39957,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>953</v>
+        <v>970</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39996,17 +39980,17 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>311</v>
+        <v>520</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>954</v>
+        <v>971</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>955</v>
+        <v>972</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>956</v>
+        <v>973</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40055,7 +40039,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>953</v>
+        <v>970</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40084,7 +40068,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>957</v>
+        <v>974</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40107,16 +40091,18 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
-        <v>52</v>
+        <v>728</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>64</v>
+        <v>975</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>65</v>
+        <v>976</v>
       </c>
       <c r="M328" s="2"/>
-      <c r="N328" s="2"/>
+      <c r="N328" t="s" s="2">
+        <v>977</v>
+      </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
       </c>
@@ -40164,7 +40150,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>66</v>
+        <v>974</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40176,7 +40162,7 @@
         <v>43</v>
       </c>
       <c r="AI328" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ328" t="s" s="2">
         <v>43</v>
@@ -40188,23 +40174,23 @@
         <v>43</v>
       </c>
       <c r="AM328" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F329" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G329" t="s" s="2">
         <v>43</v>
@@ -40216,18 +40202,20 @@
         <v>43</v>
       </c>
       <c r="J329" t="s" s="2">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>71</v>
+        <v>979</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>72</v>
+        <v>980</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N329" s="2"/>
+        <v>981</v>
+      </c>
+      <c r="N329" t="s" s="2">
+        <v>982</v>
+      </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
       </c>
@@ -40275,19 +40263,19 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>77</v>
+        <v>978</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI329" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ329" t="s" s="2">
         <v>43</v>
@@ -40299,47 +40287,47 @@
         <v>43</v>
       </c>
       <c r="AM329" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F330" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G330" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H330" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I330" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>320</v>
+        <v>984</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>321</v>
+        <v>985</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>73</v>
+        <v>986</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>156</v>
+        <v>987</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40364,13 +40352,13 @@
         <v>43</v>
       </c>
       <c r="W330" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X330" t="s" s="2">
-        <v>43</v>
+        <v>988</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>43</v>
+        <v>989</v>
       </c>
       <c r="Z330" t="s" s="2">
         <v>43</v>
@@ -40388,19 +40376,19 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>322</v>
+        <v>983</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI330" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ330" t="s" s="2">
         <v>43</v>
@@ -40412,12 +40400,12 @@
         <v>43</v>
       </c>
       <c r="AM330" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40431,7 +40419,7 @@
         <v>50</v>
       </c>
       <c r="G331" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H331" t="s" s="2">
         <v>43</v>
@@ -40440,17 +40428,19 @@
         <v>43</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>178</v>
+        <v>991</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>961</v>
+        <v>992</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>962</v>
-      </c>
-      <c r="M331" s="2"/>
+        <v>993</v>
+      </c>
+      <c r="M331" t="s" s="2">
+        <v>994</v>
+      </c>
       <c r="N331" t="s" s="2">
-        <v>963</v>
+        <v>995</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40475,11 +40465,13 @@
         <v>43</v>
       </c>
       <c r="W331" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X331" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X331" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y331" t="s" s="2">
-        <v>964</v>
+        <v>43</v>
       </c>
       <c r="Z331" t="s" s="2">
         <v>43</v>
@@ -40497,7 +40489,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40524,9 +40516,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="332" hidden="true">
+    <row r="332">
       <c r="A332" t="s" s="2">
-        <v>965</v>
+        <v>996</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40537,10 +40529,10 @@
         <v>41</v>
       </c>
       <c r="F332" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G332" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H332" t="s" s="2">
         <v>43</v>
@@ -40549,19 +40541,17 @@
         <v>43</v>
       </c>
       <c r="J332" t="s" s="2">
-        <v>728</v>
+        <v>311</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>966</v>
+        <v>997</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="M332" t="s" s="2">
-        <v>968</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="M332" s="2"/>
       <c r="N332" t="s" s="2">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>43</v>
@@ -40610,13 +40600,13 @@
         <v>43</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>965</v>
+        <v>996</v>
       </c>
       <c r="AF332" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>43</v>
@@ -40639,7 +40629,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40662,18 +40652,16 @@
         <v>43</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>971</v>
+        <v>64</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>972</v>
+        <v>65</v>
       </c>
       <c r="M333" s="2"/>
-      <c r="N333" t="s" s="2">
-        <v>973</v>
-      </c>
+      <c r="N333" s="2"/>
       <c r="O333" t="s" s="2">
         <v>43</v>
       </c>
@@ -40697,13 +40685,13 @@
         <v>43</v>
       </c>
       <c r="W333" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X333" t="s" s="2">
-        <v>974</v>
+        <v>43</v>
       </c>
       <c r="Y333" t="s" s="2">
-        <v>975</v>
+        <v>43</v>
       </c>
       <c r="Z333" t="s" s="2">
         <v>43</v>
@@ -40721,7 +40709,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>970</v>
+        <v>66</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>41</v>
@@ -40733,7 +40721,7 @@
         <v>43</v>
       </c>
       <c r="AI333" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ333" t="s" s="2">
         <v>43</v>
@@ -40745,26 +40733,26 @@
         <v>43</v>
       </c>
       <c r="AM333" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>976</v>
+        <v>1001</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F334" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H334" t="s" s="2">
         <v>43</v>
@@ -40773,18 +40761,18 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>977</v>
+        <v>71</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>978</v>
-      </c>
-      <c r="M334" s="2"/>
-      <c r="N334" t="s" s="2">
-        <v>979</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N334" s="2"/>
       <c r="O334" t="s" s="2">
         <v>43</v>
       </c>
@@ -40832,19 +40820,19 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>976</v>
+        <v>77</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI334" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ334" t="s" s="2">
         <v>43</v>
@@ -40856,45 +40844,47 @@
         <v>43</v>
       </c>
       <c r="AM334" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>980</v>
+        <v>1002</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F335" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G335" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H335" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I335" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J335" t="s" s="2">
-        <v>728</v>
+        <v>70</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>981</v>
+        <v>320</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="M335" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M335" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N335" t="s" s="2">
-        <v>983</v>
+        <v>156</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40943,19 +40933,19 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>980</v>
+        <v>322</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI335" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ335" t="s" s="2">
         <v>43</v>
@@ -40967,12 +40957,12 @@
         <v>43</v>
       </c>
       <c r="AM335" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40995,19 +40985,17 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>159</v>
+        <v>421</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>986</v>
-      </c>
-      <c r="M336" t="s" s="2">
-        <v>987</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41056,7 +41044,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41085,7 +41073,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41108,19 +41096,17 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>991</v>
-      </c>
-      <c r="M337" t="s" s="2">
-        <v>992</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>993</v>
+        <v>1010</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41145,13 +41131,13 @@
         <v>43</v>
       </c>
       <c r="W337" t="s" s="2">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>994</v>
+        <v>1011</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41169,7 +41155,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41198,7 +41184,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41221,19 +41207,17 @@
         <v>43</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>997</v>
+        <v>52</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>998</v>
+        <v>1014</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>999</v>
-      </c>
-      <c r="M338" t="s" s="2">
-        <v>1000</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="M338" s="2"/>
       <c r="N338" t="s" s="2">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41282,7 +41266,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41309,9 +41293,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41322,10 +41306,10 @@
         <v>41</v>
       </c>
       <c r="F339" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G339" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H339" t="s" s="2">
         <v>43</v>
@@ -41334,17 +41318,19 @@
         <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>1004</v>
-      </c>
-      <c r="M339" s="2"/>
+        <v>1019</v>
+      </c>
+      <c r="M339" t="s" s="2">
+        <v>1020</v>
+      </c>
       <c r="N339" t="s" s="2">
-        <v>1005</v>
+        <v>1021</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41369,13 +41355,13 @@
         <v>43</v>
       </c>
       <c r="W339" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X339" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z339" t="s" s="2">
         <v>43</v>
@@ -41393,13 +41379,13 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>43</v>
@@ -41422,7 +41408,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>1006</v>
+        <v>1022</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41445,16 +41431,20 @@
         <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>64</v>
+        <v>1023</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M340" s="2"/>
-      <c r="N340" s="2"/>
+        <v>1024</v>
+      </c>
+      <c r="M340" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="N340" t="s" s="2">
+        <v>1026</v>
+      </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
       </c>
@@ -41502,7 +41492,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>66</v>
+        <v>1022</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41514,7 +41504,7 @@
         <v>43</v>
       </c>
       <c r="AI340" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ340" t="s" s="2">
         <v>43</v>
@@ -41526,16 +41516,16 @@
         <v>43</v>
       </c>
       <c r="AM340" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -41554,17 +41544,15 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>71</v>
+        <v>1028</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M341" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="M341" s="2"/>
       <c r="N341" s="2"/>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41613,7 +41601,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>77</v>
+        <v>1027</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41625,7 +41613,7 @@
         <v>43</v>
       </c>
       <c r="AI341" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ341" t="s" s="2">
         <v>43</v>
@@ -41637,48 +41625,44 @@
         <v>43</v>
       </c>
       <c r="AM341" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>1008</v>
+        <v>1030</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F342" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G342" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I342" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M342" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N342" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M342" s="2"/>
+      <c r="N342" s="2"/>
       <c r="O342" t="s" s="2">
         <v>43</v>
       </c>
@@ -41726,19 +41710,19 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>322</v>
+        <v>66</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI342" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ342" t="s" s="2">
         <v>43</v>
@@ -41750,23 +41734,23 @@
         <v>43</v>
       </c>
       <c r="AM342" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F343" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G343" t="s" s="2">
         <v>43</v>
@@ -41778,18 +41762,18 @@
         <v>43</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>421</v>
+        <v>70</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>1010</v>
+        <v>71</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>1011</v>
-      </c>
-      <c r="M343" s="2"/>
-      <c r="N343" t="s" s="2">
-        <v>1012</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N343" s="2"/>
       <c r="O343" t="s" s="2">
         <v>43</v>
       </c>
@@ -41837,19 +41821,19 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>1009</v>
+        <v>77</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>43</v>
@@ -41861,45 +41845,47 @@
         <v>43</v>
       </c>
       <c r="AM343" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>1013</v>
+        <v>1032</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F344" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H344" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I344" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>1014</v>
+        <v>320</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>1015</v>
-      </c>
-      <c r="M344" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M344" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N344" t="s" s="2">
-        <v>1016</v>
+        <v>156</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41924,13 +41910,13 @@
         <v>43</v>
       </c>
       <c r="W344" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="X344" t="s" s="2">
-        <v>1017</v>
+        <v>43</v>
       </c>
       <c r="Y344" t="s" s="2">
-        <v>1018</v>
+        <v>43</v>
       </c>
       <c r="Z344" t="s" s="2">
         <v>43</v>
@@ -41948,19 +41934,19 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>1013</v>
+        <v>322</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI344" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ344" t="s" s="2">
         <v>43</v>
@@ -41972,12 +41958,12 @@
         <v>43</v>
       </c>
       <c r="AM344" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -41985,7 +41971,7 @@
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F345" t="s" s="2">
         <v>50</v>
@@ -42000,17 +41986,19 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>1020</v>
+        <v>680</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>1021</v>
-      </c>
-      <c r="M345" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>682</v>
+      </c>
       <c r="N345" t="s" s="2">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42035,13 +42023,13 @@
         <v>43</v>
       </c>
       <c r="W345" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X345" t="s" s="2">
-        <v>43</v>
+        <v>684</v>
       </c>
       <c r="Y345" t="s" s="2">
-        <v>43</v>
+        <v>685</v>
       </c>
       <c r="Z345" t="s" s="2">
         <v>43</v>
@@ -42059,10 +42047,10 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG345" t="s" s="2">
         <v>50</v>
@@ -42088,7 +42076,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42111,19 +42099,17 @@
         <v>43</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>178</v>
+        <v>431</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>1025</v>
-      </c>
-      <c r="M346" t="s" s="2">
-        <v>1026</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="M346" s="2"/>
       <c r="N346" t="s" s="2">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42148,13 +42134,13 @@
         <v>43</v>
       </c>
       <c r="W346" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X346" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -42172,7 +42158,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
@@ -42201,7 +42187,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42224,19 +42210,19 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42285,7 +42271,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42314,7 +42300,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42325,7 +42311,7 @@
         <v>41</v>
       </c>
       <c r="F348" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G348" t="s" s="2">
         <v>43</v>
@@ -42337,16 +42323,20 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>1034</v>
+        <v>1045</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="M348" s="2"/>
-      <c r="N348" s="2"/>
+        <v>1046</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>1048</v>
+      </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
       </c>
@@ -42394,13 +42384,13 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>43</v>
@@ -42423,7 +42413,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42446,16 +42436,18 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>64</v>
+        <v>1050</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>65</v>
+        <v>1051</v>
       </c>
       <c r="M349" s="2"/>
-      <c r="N349" s="2"/>
+      <c r="N349" t="s" s="2">
+        <v>1052</v>
+      </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
       </c>
@@ -42479,13 +42471,13 @@
         <v>43</v>
       </c>
       <c r="W349" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X349" t="s" s="2">
-        <v>43</v>
+        <v>1053</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>43</v>
+        <v>1054</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42503,7 +42495,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>66</v>
+        <v>1049</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42515,7 +42507,7 @@
         <v>43</v>
       </c>
       <c r="AI349" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ349" t="s" s="2">
         <v>43</v>
@@ -42527,23 +42519,23 @@
         <v>43</v>
       </c>
       <c r="AM349" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F350" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G350" t="s" s="2">
         <v>43</v>
@@ -42555,18 +42547,18 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>71</v>
+        <v>1056</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M350" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N350" s="2"/>
+        <v>1057</v>
+      </c>
+      <c r="M350" s="2"/>
+      <c r="N350" t="s" s="2">
+        <v>1058</v>
+      </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
       </c>
@@ -42590,13 +42582,13 @@
         <v>43</v>
       </c>
       <c r="W350" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X350" t="s" s="2">
-        <v>43</v>
+        <v>1059</v>
       </c>
       <c r="Y350" t="s" s="2">
-        <v>43</v>
+        <v>1060</v>
       </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
@@ -42614,19 +42606,19 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>77</v>
+        <v>1055</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI350" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ350" t="s" s="2">
         <v>43</v>
@@ -42638,47 +42630,45 @@
         <v>43</v>
       </c>
       <c r="AM350" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>1038</v>
+        <v>1061</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F351" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G351" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H351" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I351" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>320</v>
+        <v>1062</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M351" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>156</v>
+        <v>1058</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42703,13 +42693,13 @@
         <v>43</v>
       </c>
       <c r="W351" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X351" t="s" s="2">
-        <v>43</v>
+        <v>1064</v>
       </c>
       <c r="Y351" t="s" s="2">
-        <v>43</v>
+        <v>1065</v>
       </c>
       <c r="Z351" t="s" s="2">
         <v>43</v>
@@ -42727,19 +42717,19 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>322</v>
+        <v>1061</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ351" t="s" s="2">
         <v>43</v>
@@ -42751,12 +42741,12 @@
         <v>43</v>
       </c>
       <c r="AM351" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>1039</v>
+        <v>1066</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42764,10 +42754,10 @@
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F352" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G352" t="s" s="2">
         <v>43</v>
@@ -42779,20 +42769,16 @@
         <v>43</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>680</v>
+        <v>1067</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M352" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N352" t="s" s="2">
-        <v>1040</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="M352" s="2"/>
+      <c r="N352" s="2"/>
       <c r="O352" t="s" s="2">
         <v>43</v>
       </c>
@@ -42816,13 +42802,13 @@
         <v>43</v>
       </c>
       <c r="W352" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X352" t="s" s="2">
-        <v>684</v>
+        <v>43</v>
       </c>
       <c r="Y352" t="s" s="2">
-        <v>685</v>
+        <v>43</v>
       </c>
       <c r="Z352" t="s" s="2">
         <v>43</v>
@@ -42840,13 +42826,13 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>1039</v>
+        <v>1066</v>
       </c>
       <c r="AF352" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>43</v>
@@ -42869,7 +42855,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42892,18 +42878,16 @@
         <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>431</v>
+        <v>52</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>1042</v>
+        <v>64</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>1043</v>
+        <v>65</v>
       </c>
       <c r="M353" s="2"/>
-      <c r="N353" t="s" s="2">
-        <v>1044</v>
-      </c>
+      <c r="N353" s="2"/>
       <c r="O353" t="s" s="2">
         <v>43</v>
       </c>
@@ -42951,7 +42935,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>1041</v>
+        <v>66</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42963,7 +42947,7 @@
         <v>43</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>43</v>
@@ -42975,23 +42959,23 @@
         <v>43</v>
       </c>
       <c r="AM353" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>1045</v>
+        <v>1070</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F354" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G354" t="s" s="2">
         <v>43</v>
@@ -43003,20 +42987,18 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>1046</v>
+        <v>71</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>1047</v>
+        <v>72</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1048</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>1049</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N354" s="2"/>
       <c r="O354" t="s" s="2">
         <v>43</v>
       </c>
@@ -43064,19 +43046,19 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>1045</v>
+        <v>77</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI354" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ354" t="s" s="2">
         <v>43</v>
@@ -43088,47 +43070,47 @@
         <v>43</v>
       </c>
       <c r="AM354" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>1051</v>
+        <v>320</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>1052</v>
+        <v>321</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1053</v>
+        <v>73</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1054</v>
+        <v>156</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43177,19 +43159,19 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>1050</v>
+        <v>322</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>43</v>
@@ -43201,12 +43183,12 @@
         <v>43</v>
       </c>
       <c r="AM355" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>1055</v>
+        <v>1072</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43214,7 +43196,7 @@
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F356" t="s" s="2">
         <v>50</v>
@@ -43232,14 +43214,16 @@
         <v>178</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>1056</v>
+        <v>680</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>1057</v>
-      </c>
-      <c r="M356" s="2"/>
+        <v>1073</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>1074</v>
+      </c>
       <c r="N356" t="s" s="2">
-        <v>1058</v>
+        <v>1075</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43267,10 +43251,10 @@
         <v>116</v>
       </c>
       <c r="X356" t="s" s="2">
-        <v>1059</v>
+        <v>1076</v>
       </c>
       <c r="Y356" t="s" s="2">
-        <v>1060</v>
+        <v>1077</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43288,10 +43272,10 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>1055</v>
+        <v>1072</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>50</v>
@@ -43317,7 +43301,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>1061</v>
+        <v>1078</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43340,17 +43324,17 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>178</v>
+        <v>1079</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43375,13 +43359,13 @@
         <v>43</v>
       </c>
       <c r="W357" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>1065</v>
+        <v>43</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>1066</v>
+        <v>43</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43399,7 +43383,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>1061</v>
+        <v>1078</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43428,7 +43412,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43451,17 +43435,17 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>178</v>
+        <v>1084</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>1068</v>
+        <v>1085</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>1069</v>
+        <v>1086</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>1064</v>
+        <v>1087</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43486,13 +43470,13 @@
         <v>43</v>
       </c>
       <c r="W358" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X358" t="s" s="2">
-        <v>1070</v>
+        <v>43</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>1071</v>
+        <v>43</v>
       </c>
       <c r="Z358" t="s" s="2">
         <v>43</v>
@@ -43510,7 +43494,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>1067</v>
+        <v>1083</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43537,785 +43521,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="359" hidden="true">
-      <c r="A359" t="s" s="2">
-        <v>1072</v>
-      </c>
-      <c r="B359" s="2"/>
-      <c r="C359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D359" s="2"/>
-      <c r="E359" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F359" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J359" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="K359" t="s" s="2">
-        <v>1073</v>
-      </c>
-      <c r="L359" t="s" s="2">
-        <v>1074</v>
-      </c>
-      <c r="M359" s="2"/>
-      <c r="N359" s="2"/>
-      <c r="O359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P359" s="2"/>
-      <c r="Q359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE359" t="s" s="2">
-        <v>1072</v>
-      </c>
-      <c r="AF359" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG359" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI359" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL359" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM359" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="360" hidden="true">
-      <c r="A360" t="s" s="2">
-        <v>1075</v>
-      </c>
-      <c r="B360" s="2"/>
-      <c r="C360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D360" s="2"/>
-      <c r="E360" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F360" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J360" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K360" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="L360" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M360" s="2"/>
-      <c r="N360" s="2"/>
-      <c r="O360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P360" s="2"/>
-      <c r="Q360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE360" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="AF360" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG360" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL360" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM360" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="361" hidden="true">
-      <c r="A361" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="B361" s="2"/>
-      <c r="C361" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D361" s="2"/>
-      <c r="E361" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F361" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J361" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K361" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L361" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M361" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N361" s="2"/>
-      <c r="O361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P361" s="2"/>
-      <c r="Q361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE361" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF361" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG361" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI361" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM361" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="362" hidden="true">
-      <c r="A362" t="s" s="2">
-        <v>1077</v>
-      </c>
-      <c r="B362" s="2"/>
-      <c r="C362" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="D362" s="2"/>
-      <c r="E362" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F362" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H362" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I362" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J362" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K362" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L362" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M362" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P362" s="2"/>
-      <c r="Q362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE362" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF362" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG362" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI362" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM362" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="363" hidden="true">
-      <c r="A363" t="s" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B363" s="2"/>
-      <c r="C363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D363" s="2"/>
-      <c r="E363" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F363" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J363" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="K363" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="L363" t="s" s="2">
-        <v>1079</v>
-      </c>
-      <c r="M363" t="s" s="2">
-        <v>1080</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>1081</v>
-      </c>
-      <c r="O363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P363" s="2"/>
-      <c r="Q363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W363" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X363" t="s" s="2">
-        <v>1082</v>
-      </c>
-      <c r="Y363" t="s" s="2">
-        <v>1083</v>
-      </c>
-      <c r="Z363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE363" t="s" s="2">
-        <v>1078</v>
-      </c>
-      <c r="AF363" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG363" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI363" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL363" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM363" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="364" hidden="true">
-      <c r="A364" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="B364" s="2"/>
-      <c r="C364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D364" s="2"/>
-      <c r="E364" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F364" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J364" t="s" s="2">
-        <v>1085</v>
-      </c>
-      <c r="K364" t="s" s="2">
-        <v>1086</v>
-      </c>
-      <c r="L364" t="s" s="2">
-        <v>1087</v>
-      </c>
-      <c r="M364" s="2"/>
-      <c r="N364" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="O364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P364" s="2"/>
-      <c r="Q364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE364" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="AF364" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG364" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI364" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL364" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM364" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="365" hidden="true">
-      <c r="A365" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="B365" s="2"/>
-      <c r="C365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D365" s="2"/>
-      <c r="E365" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F365" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J365" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="K365" t="s" s="2">
-        <v>1091</v>
-      </c>
-      <c r="L365" t="s" s="2">
-        <v>1092</v>
-      </c>
-      <c r="M365" s="2"/>
-      <c r="N365" t="s" s="2">
-        <v>1093</v>
-      </c>
-      <c r="O365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P365" s="2"/>
-      <c r="Q365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE365" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="AF365" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG365" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI365" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM365" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM365">
+  <autoFilter ref="A1:AM358">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -44325,7 +43532,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI364">
+  <conditionalFormatting sqref="A2:AI357">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
